--- a/docs/DQC_US_0013/DQC_0013_ListOfElements.xlsx
+++ b/docs/DQC_US_0013/DQC_0013_ListOfElements.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susanyount/Documents/dqc_us_rules/docs/DQC_US_0013/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="1060" windowWidth="28560" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="6045" yWindow="1065" windowWidth="28560" windowHeight="15945" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="73">
   <si>
     <t>originalReleaseVersion</t>
   </si>
@@ -106,15 +101,6 @@
   </si>
   <si>
     <t>Percentage of the difference between reported income tax expense (benefit) and expected income tax expense (benefit) computed by applying the domestic federal statutory income tax rates to pretax income (loss) from continuing operations attributable to deduction for qualified production activity.</t>
-  </si>
-  <si>
-    <t>Effective Income Tax Rate Reconciliation, Nondeductible Expense, Percent</t>
-  </si>
-  <si>
-    <t>EffectiveIncomeTaxRateReconciliationNondeductibleExpense</t>
-  </si>
-  <si>
-    <t>Percentage of the difference between reported income tax expense (benefit) and expected income tax expense (benefit) computed by applying the domestic federal statutory income tax rates to pretax income (loss) from continuing operations attributable to nondeductible expenses.</t>
   </si>
   <si>
     <t>Effective Income Tax Rate Reconciliation, Tax Credit, Research, Percent</t>
@@ -273,8 +259,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -401,7 +387,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,7 +422,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -613,36 +599,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K999"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="4" customWidth="1"/>
     <col min="2" max="4" width="10.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="77.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="74.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="74.875" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="65.1640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="65.125" style="4" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="106.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="106.125" style="4" customWidth="1"/>
     <col min="12" max="26" width="10.5" style="4" customWidth="1"/>
     <col min="27" max="16384" width="13.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,7 +663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="63.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -710,7 +696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="48" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -743,7 +729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="48" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -754,7 +740,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="6">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>13</v>
@@ -776,7 +762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="48" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -787,7 +773,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="6">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -809,7 +795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="48" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -820,7 +806,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="6">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -842,7 +828,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="48" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -853,7 +839,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="6">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -875,7 +861,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="48" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -886,7 +872,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="6">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
@@ -908,7 +894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="48" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -919,7 +905,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="6">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -941,7 +927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="48" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -952,7 +938,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="6">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>13</v>
@@ -974,7 +960,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="48" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -985,7 +971,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="6">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1007,7 +993,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1018,7 +1004,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="6">
-        <v>2785</v>
+        <v>2871</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1035,12 +1021,12 @@
       <c r="I12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1051,7 +1037,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="6">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -1068,12 +1054,12 @@
       <c r="I13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -1084,7 +1070,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="6">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>13</v>
@@ -1106,7 +1092,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -1117,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="6">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1139,7 +1125,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -1150,7 +1136,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6">
-        <v>2874</v>
+        <v>3001</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>13</v>
@@ -1167,12 +1153,11 @@
       <c r="I16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="8"/>
       <c r="K16" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1183,7 +1168,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="6">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>13</v>
@@ -1204,7 +1189,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1215,7 +1200,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="6">
-        <v>3002</v>
+        <v>3439</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1236,7 +1221,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
@@ -1247,7 +1232,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="6">
-        <v>3439</v>
+        <v>3440</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -1268,7 +1253,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -1279,7 +1264,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="6">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>13</v>
@@ -1300,39 +1285,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="6">
-        <v>3441</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -1340,7 +1301,7 @@
       <c r="I22" s="10"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="A23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -1348,7 +1309,7 @@
       <c r="I23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -1356,7 +1317,7 @@
       <c r="I24" s="10"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="A25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -1364,7 +1325,7 @@
       <c r="I25" s="10"/>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="A26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -1372,7 +1333,7 @@
       <c r="I26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="A27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -1380,7 +1341,7 @@
       <c r="I27" s="10"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="A28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -1388,7 +1349,7 @@
       <c r="I28" s="10"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
       <c r="A29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -1396,7 +1357,7 @@
       <c r="I29" s="10"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
       <c r="A30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -1404,7 +1365,7 @@
       <c r="I30" s="10"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="A31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -1412,7 +1373,7 @@
       <c r="I31" s="10"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
       <c r="A32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -1420,7 +1381,7 @@
       <c r="I32" s="10"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -1428,7 +1389,7 @@
       <c r="I33" s="10"/>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="A34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -1436,7 +1397,7 @@
       <c r="I34" s="10"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
       <c r="A35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -1444,7 +1405,7 @@
       <c r="I35" s="10"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="A36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -1452,7 +1413,7 @@
       <c r="I36" s="10"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="A37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -1460,7 +1421,7 @@
       <c r="I37" s="10"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -1468,7 +1429,7 @@
       <c r="I38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="A39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -1476,7 +1437,7 @@
       <c r="I39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
       <c r="A40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -1484,7 +1445,7 @@
       <c r="I40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
       <c r="A41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -1492,7 +1453,7 @@
       <c r="I41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
       <c r="A42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -1500,7 +1461,7 @@
       <c r="I42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="A43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -1508,7 +1469,7 @@
       <c r="I43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="A44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -1516,7 +1477,7 @@
       <c r="I44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
       <c r="A45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -1524,7 +1485,7 @@
       <c r="I45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
       <c r="A46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -1532,7 +1493,7 @@
       <c r="I46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="A47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -1540,7 +1501,7 @@
       <c r="I47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
       <c r="A48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -1548,7 +1509,7 @@
       <c r="I48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="15.75" customHeight="1">
       <c r="A49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -1556,7 +1517,7 @@
       <c r="I49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="15.75" customHeight="1">
       <c r="A50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -1564,7 +1525,7 @@
       <c r="I50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="15.75" customHeight="1">
       <c r="A51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -1572,7 +1533,7 @@
       <c r="I51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="15.75" customHeight="1">
       <c r="A52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -1580,7 +1541,7 @@
       <c r="I52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
       <c r="A53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -1588,7 +1549,7 @@
       <c r="I53" s="10"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="A54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
@@ -1596,7 +1557,7 @@
       <c r="I54" s="10"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="15.75" customHeight="1">
       <c r="A55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
@@ -1604,7 +1565,7 @@
       <c r="I55" s="10"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="15.75" customHeight="1">
       <c r="A56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
@@ -1612,7 +1573,7 @@
       <c r="I56" s="10"/>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="15.75" customHeight="1">
       <c r="A57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -1620,7 +1581,7 @@
       <c r="I57" s="10"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="15.75" customHeight="1">
       <c r="A58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
@@ -1628,7 +1589,7 @@
       <c r="I58" s="10"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="15.75" customHeight="1">
       <c r="A59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
@@ -1636,7 +1597,7 @@
       <c r="I59" s="10"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="15.75" customHeight="1">
       <c r="A60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
@@ -1644,7 +1605,7 @@
       <c r="I60" s="10"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="15.75" customHeight="1">
       <c r="A61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
@@ -1652,7 +1613,7 @@
       <c r="I61" s="10"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
       <c r="A62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
@@ -1660,7 +1621,7 @@
       <c r="I62" s="10"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="15.75" customHeight="1">
       <c r="A63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
@@ -1668,7 +1629,7 @@
       <c r="I63" s="10"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="15.75" customHeight="1">
       <c r="A64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
@@ -1676,7 +1637,7 @@
       <c r="I64" s="10"/>
       <c r="K64" s="10"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="15.75" customHeight="1">
       <c r="A65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
@@ -1684,7 +1645,7 @@
       <c r="I65" s="10"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="15.75" customHeight="1">
       <c r="A66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
@@ -1692,7 +1653,7 @@
       <c r="I66" s="10"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="15.75" customHeight="1">
       <c r="A67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
@@ -1700,7 +1661,7 @@
       <c r="I67" s="10"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="15.75" customHeight="1">
       <c r="A68" s="10"/>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
@@ -1708,7 +1669,7 @@
       <c r="I68" s="10"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="15.75" customHeight="1">
       <c r="A69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -1716,7 +1677,7 @@
       <c r="I69" s="10"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="15.75" customHeight="1">
       <c r="A70" s="10"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
@@ -1724,7 +1685,7 @@
       <c r="I70" s="10"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="15.75" customHeight="1">
       <c r="A71" s="10"/>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
@@ -1732,7 +1693,7 @@
       <c r="I71" s="10"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="15.75" customHeight="1">
       <c r="A72" s="10"/>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
@@ -1740,7 +1701,7 @@
       <c r="I72" s="10"/>
       <c r="K72" s="10"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="15.75" customHeight="1">
       <c r="A73" s="10"/>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
@@ -1748,7 +1709,7 @@
       <c r="I73" s="10"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="15.75" customHeight="1">
       <c r="A74" s="10"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
@@ -1756,7 +1717,7 @@
       <c r="I74" s="10"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="15.75" customHeight="1">
       <c r="A75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
@@ -1764,7 +1725,7 @@
       <c r="I75" s="10"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="15.75" customHeight="1">
       <c r="A76" s="10"/>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
@@ -1772,7 +1733,7 @@
       <c r="I76" s="10"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="15.75" customHeight="1">
       <c r="A77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
@@ -1780,7 +1741,7 @@
       <c r="I77" s="10"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="15.75" customHeight="1">
       <c r="A78" s="10"/>
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
@@ -1788,7 +1749,7 @@
       <c r="I78" s="10"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="15.75" customHeight="1">
       <c r="A79" s="10"/>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
@@ -1796,7 +1757,7 @@
       <c r="I79" s="10"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="15.75" customHeight="1">
       <c r="A80" s="10"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
@@ -1804,7 +1765,7 @@
       <c r="I80" s="10"/>
       <c r="K80" s="10"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="15.75" customHeight="1">
       <c r="A81" s="10"/>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
@@ -1812,7 +1773,7 @@
       <c r="I81" s="10"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="15.75" customHeight="1">
       <c r="A82" s="10"/>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
@@ -1820,7 +1781,7 @@
       <c r="I82" s="10"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="15.75" customHeight="1">
       <c r="A83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
@@ -1828,7 +1789,7 @@
       <c r="I83" s="10"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="15.75" customHeight="1">
       <c r="A84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
@@ -1836,7 +1797,7 @@
       <c r="I84" s="10"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="15.75" customHeight="1">
       <c r="A85" s="10"/>
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
@@ -1844,7 +1805,7 @@
       <c r="I85" s="10"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="15.75" customHeight="1">
       <c r="A86" s="10"/>
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
@@ -1852,7 +1813,7 @@
       <c r="I86" s="10"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="10"/>
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
@@ -1860,7 +1821,7 @@
       <c r="I87" s="10"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="10"/>
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
@@ -1868,7 +1829,7 @@
       <c r="I88" s="10"/>
       <c r="K88" s="10"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="10"/>
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
@@ -1876,7 +1837,7 @@
       <c r="I89" s="10"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="10"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
@@ -1884,7 +1845,7 @@
       <c r="I90" s="10"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="10"/>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
@@ -1892,7 +1853,7 @@
       <c r="I91" s="10"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="10"/>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
@@ -1900,7 +1861,7 @@
       <c r="I92" s="10"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="10"/>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
@@ -1908,7 +1869,7 @@
       <c r="I93" s="10"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="15.75" customHeight="1">
       <c r="A94" s="10"/>
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
@@ -1916,7 +1877,7 @@
       <c r="I94" s="10"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="10"/>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
@@ -1924,7 +1885,7 @@
       <c r="I95" s="10"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="10"/>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
@@ -1932,7 +1893,7 @@
       <c r="I96" s="10"/>
       <c r="K96" s="10"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="10"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
@@ -1940,7 +1901,7 @@
       <c r="I97" s="10"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="15.75" customHeight="1">
       <c r="A98" s="10"/>
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
@@ -1948,7 +1909,7 @@
       <c r="I98" s="10"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="15.75" customHeight="1">
       <c r="A99" s="10"/>
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
@@ -1956,7 +1917,7 @@
       <c r="I99" s="10"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="15.75" customHeight="1">
       <c r="A100" s="10"/>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
@@ -1964,7 +1925,7 @@
       <c r="I100" s="10"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="15.75" customHeight="1">
       <c r="A101" s="10"/>
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
@@ -1972,7 +1933,7 @@
       <c r="I101" s="10"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="15.75" customHeight="1">
       <c r="A102" s="10"/>
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
@@ -1980,7 +1941,7 @@
       <c r="I102" s="10"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="15.75" customHeight="1">
       <c r="A103" s="10"/>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
@@ -1988,7 +1949,7 @@
       <c r="I103" s="10"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="15.75" customHeight="1">
       <c r="A104" s="10"/>
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
@@ -1996,7 +1957,7 @@
       <c r="I104" s="10"/>
       <c r="K104" s="10"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="15.75" customHeight="1">
       <c r="A105" s="10"/>
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
@@ -2004,7 +1965,7 @@
       <c r="I105" s="10"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="15.75" customHeight="1">
       <c r="A106" s="10"/>
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
@@ -2012,7 +1973,7 @@
       <c r="I106" s="10"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="15.75" customHeight="1">
       <c r="A107" s="10"/>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
@@ -2020,7 +1981,7 @@
       <c r="I107" s="10"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="15.75" customHeight="1">
       <c r="A108" s="10"/>
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
@@ -2028,7 +1989,7 @@
       <c r="I108" s="10"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="15.75" customHeight="1">
       <c r="A109" s="10"/>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
@@ -2036,7 +1997,7 @@
       <c r="I109" s="10"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="15.75" customHeight="1">
       <c r="A110" s="10"/>
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
@@ -2044,7 +2005,7 @@
       <c r="I110" s="10"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="15.75" customHeight="1">
       <c r="A111" s="10"/>
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
@@ -2052,7 +2013,7 @@
       <c r="I111" s="10"/>
       <c r="K111" s="10"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="15.75" customHeight="1">
       <c r="A112" s="10"/>
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
@@ -2060,7 +2021,7 @@
       <c r="I112" s="10"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="15.75" customHeight="1">
       <c r="A113" s="10"/>
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
@@ -2068,7 +2029,7 @@
       <c r="I113" s="10"/>
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="15.75" customHeight="1">
       <c r="A114" s="10"/>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
@@ -2076,7 +2037,7 @@
       <c r="I114" s="10"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="15.75" customHeight="1">
       <c r="A115" s="10"/>
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
@@ -2084,7 +2045,7 @@
       <c r="I115" s="10"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="15.75" customHeight="1">
       <c r="A116" s="10"/>
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
@@ -2092,7 +2053,7 @@
       <c r="I116" s="10"/>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="15.75" customHeight="1">
       <c r="A117" s="10"/>
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
@@ -2100,7 +2061,7 @@
       <c r="I117" s="10"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="15.75" customHeight="1">
       <c r="A118" s="10"/>
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
@@ -2108,7 +2069,7 @@
       <c r="I118" s="10"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="15.75" customHeight="1">
       <c r="A119" s="10"/>
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
@@ -2116,7 +2077,7 @@
       <c r="I119" s="10"/>
       <c r="K119" s="10"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="15.75" customHeight="1">
       <c r="A120" s="10"/>
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
@@ -2124,7 +2085,7 @@
       <c r="I120" s="10"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="15.75" customHeight="1">
       <c r="A121" s="10"/>
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
@@ -2132,7 +2093,7 @@
       <c r="I121" s="10"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="15.75" customHeight="1">
       <c r="A122" s="10"/>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
@@ -2140,7 +2101,7 @@
       <c r="I122" s="10"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="15.75" customHeight="1">
       <c r="A123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
@@ -2148,7 +2109,7 @@
       <c r="I123" s="10"/>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="15.75" customHeight="1">
       <c r="A124" s="10"/>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
@@ -2156,7 +2117,7 @@
       <c r="I124" s="10"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="15.75" customHeight="1">
       <c r="A125" s="10"/>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
@@ -2164,7 +2125,7 @@
       <c r="I125" s="10"/>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="15.75" customHeight="1">
       <c r="A126" s="10"/>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
@@ -2172,7 +2133,7 @@
       <c r="I126" s="10"/>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="15.75" customHeight="1">
       <c r="A127" s="10"/>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
@@ -2180,7 +2141,7 @@
       <c r="I127" s="10"/>
       <c r="K127" s="10"/>
     </row>
-    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="15.75" customHeight="1">
       <c r="A128" s="10"/>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
@@ -2188,7 +2149,7 @@
       <c r="I128" s="10"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" ht="15.75" customHeight="1">
       <c r="A129" s="10"/>
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
@@ -2196,7 +2157,7 @@
       <c r="I129" s="10"/>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="15.75" customHeight="1">
       <c r="A130" s="10"/>
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
@@ -2204,7 +2165,7 @@
       <c r="I130" s="10"/>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" ht="15.75" customHeight="1">
       <c r="A131" s="10"/>
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
@@ -2212,7 +2173,7 @@
       <c r="I131" s="10"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" ht="15.75" customHeight="1">
       <c r="A132" s="10"/>
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
@@ -2220,7 +2181,7 @@
       <c r="I132" s="10"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="15.75" customHeight="1">
       <c r="A133" s="10"/>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
@@ -2228,7 +2189,7 @@
       <c r="I133" s="10"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="15.75" customHeight="1">
       <c r="A134" s="10"/>
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
@@ -2236,7 +2197,7 @@
       <c r="I134" s="10"/>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" ht="15.75" customHeight="1">
       <c r="A135" s="10"/>
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
@@ -2244,7 +2205,7 @@
       <c r="I135" s="10"/>
       <c r="K135" s="10"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="15.75" customHeight="1">
       <c r="A136" s="10"/>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
@@ -2252,7 +2213,7 @@
       <c r="I136" s="10"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" ht="15.75" customHeight="1">
       <c r="A137" s="10"/>
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
@@ -2260,7 +2221,7 @@
       <c r="I137" s="10"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" ht="15.75" customHeight="1">
       <c r="A138" s="10"/>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
@@ -2268,7 +2229,7 @@
       <c r="I138" s="10"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="15.75" customHeight="1">
       <c r="A139" s="10"/>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
@@ -2276,7 +2237,7 @@
       <c r="I139" s="10"/>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="15.75" customHeight="1">
       <c r="A140" s="10"/>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
@@ -2284,7 +2245,7 @@
       <c r="I140" s="10"/>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" ht="15.75" customHeight="1">
       <c r="A141" s="10"/>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
@@ -2292,7 +2253,7 @@
       <c r="I141" s="10"/>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="15.75" customHeight="1">
       <c r="A142" s="10"/>
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
@@ -2300,7 +2261,7 @@
       <c r="I142" s="10"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" ht="15.75" customHeight="1">
       <c r="A143" s="10"/>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
@@ -2308,7 +2269,7 @@
       <c r="I143" s="10"/>
       <c r="K143" s="10"/>
     </row>
-    <row r="144" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" ht="15.75" customHeight="1">
       <c r="A144" s="10"/>
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
@@ -2316,7 +2277,7 @@
       <c r="I144" s="10"/>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" ht="15.75" customHeight="1">
       <c r="A145" s="10"/>
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
@@ -2324,7 +2285,7 @@
       <c r="I145" s="10"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" ht="15.75" customHeight="1">
       <c r="A146" s="10"/>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
@@ -2332,7 +2293,7 @@
       <c r="I146" s="10"/>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" ht="15.75" customHeight="1">
       <c r="A147" s="10"/>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
@@ -2340,7 +2301,7 @@
       <c r="I147" s="10"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" ht="15.75" customHeight="1">
       <c r="A148" s="10"/>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
@@ -2348,7 +2309,7 @@
       <c r="I148" s="10"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" ht="15.75" customHeight="1">
       <c r="A149" s="10"/>
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
@@ -2356,7 +2317,7 @@
       <c r="I149" s="10"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" ht="15.75" customHeight="1">
       <c r="A150" s="10"/>
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
@@ -2364,7 +2325,7 @@
       <c r="I150" s="10"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="15.75" customHeight="1">
       <c r="A151" s="10"/>
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
@@ -2372,7 +2333,7 @@
       <c r="I151" s="10"/>
       <c r="K151" s="10"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" ht="15.75" customHeight="1">
       <c r="A152" s="10"/>
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
@@ -2380,7 +2341,7 @@
       <c r="I152" s="10"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" ht="15.75" customHeight="1">
       <c r="A153" s="10"/>
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
@@ -2388,7 +2349,7 @@
       <c r="I153" s="10"/>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="15.75" customHeight="1">
       <c r="A154" s="10"/>
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
@@ -2396,7 +2357,7 @@
       <c r="I154" s="10"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" ht="15.75" customHeight="1">
       <c r="A155" s="10"/>
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
@@ -2404,7 +2365,7 @@
       <c r="I155" s="10"/>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" ht="15.75" customHeight="1">
       <c r="A156" s="10"/>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
@@ -2412,7 +2373,7 @@
       <c r="I156" s="10"/>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="15.75" customHeight="1">
       <c r="A157" s="10"/>
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
@@ -2420,7 +2381,7 @@
       <c r="I157" s="10"/>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" ht="15.75" customHeight="1">
       <c r="A158" s="10"/>
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
@@ -2428,7 +2389,7 @@
       <c r="I158" s="10"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" ht="15.75" customHeight="1">
       <c r="A159" s="10"/>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
@@ -2436,7 +2397,7 @@
       <c r="I159" s="10"/>
       <c r="K159" s="10"/>
     </row>
-    <row r="160" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" ht="15.75" customHeight="1">
       <c r="A160" s="10"/>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
@@ -2444,7 +2405,7 @@
       <c r="I160" s="10"/>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="15.75" customHeight="1">
       <c r="A161" s="10"/>
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
@@ -2452,7 +2413,7 @@
       <c r="I161" s="10"/>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" ht="15.75" customHeight="1">
       <c r="A162" s="10"/>
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
@@ -2460,7 +2421,7 @@
       <c r="I162" s="10"/>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" ht="15.75" customHeight="1">
       <c r="A163" s="10"/>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
@@ -2468,7 +2429,7 @@
       <c r="I163" s="10"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" ht="15.75" customHeight="1">
       <c r="A164" s="10"/>
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
@@ -2476,7 +2437,7 @@
       <c r="I164" s="10"/>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" ht="15.75" customHeight="1">
       <c r="A165" s="10"/>
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
@@ -2484,7 +2445,7 @@
       <c r="I165" s="10"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" ht="15.75" customHeight="1">
       <c r="A166" s="10"/>
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
@@ -2492,7 +2453,7 @@
       <c r="I166" s="10"/>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" ht="15.75" customHeight="1">
       <c r="A167" s="10"/>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
@@ -2500,7 +2461,7 @@
       <c r="I167" s="10"/>
       <c r="K167" s="10"/>
     </row>
-    <row r="168" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" ht="15.75" customHeight="1">
       <c r="A168" s="10"/>
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
@@ -2508,7 +2469,7 @@
       <c r="I168" s="10"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" ht="15.75" customHeight="1">
       <c r="A169" s="10"/>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
@@ -2516,7 +2477,7 @@
       <c r="I169" s="10"/>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" ht="15.75" customHeight="1">
       <c r="A170" s="10"/>
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
@@ -2524,7 +2485,7 @@
       <c r="I170" s="10"/>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" ht="15.75" customHeight="1">
       <c r="A171" s="10"/>
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
@@ -2532,7 +2493,7 @@
       <c r="I171" s="10"/>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" ht="15.75" customHeight="1">
       <c r="A172" s="10"/>
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
@@ -2540,7 +2501,7 @@
       <c r="I172" s="10"/>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" ht="15.75" customHeight="1">
       <c r="A173" s="10"/>
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
@@ -2548,7 +2509,7 @@
       <c r="I173" s="10"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" ht="15.75" customHeight="1">
       <c r="A174" s="10"/>
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
@@ -2556,7 +2517,7 @@
       <c r="I174" s="10"/>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" ht="15.75" customHeight="1">
       <c r="A175" s="10"/>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
@@ -2564,7 +2525,7 @@
       <c r="I175" s="10"/>
       <c r="K175" s="10"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" ht="15.75" customHeight="1">
       <c r="A176" s="10"/>
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
@@ -2572,7 +2533,7 @@
       <c r="I176" s="10"/>
       <c r="K176" s="10"/>
     </row>
-    <row r="177" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" ht="15.75" customHeight="1">
       <c r="A177" s="10"/>
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
@@ -2580,7 +2541,7 @@
       <c r="I177" s="10"/>
       <c r="K177" s="10"/>
     </row>
-    <row r="178" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" ht="15.75" customHeight="1">
       <c r="A178" s="10"/>
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
@@ -2588,7 +2549,7 @@
       <c r="I178" s="10"/>
       <c r="K178" s="10"/>
     </row>
-    <row r="179" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" ht="15.75" customHeight="1">
       <c r="A179" s="10"/>
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
@@ -2596,7 +2557,7 @@
       <c r="I179" s="10"/>
       <c r="K179" s="10"/>
     </row>
-    <row r="180" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" ht="15.75" customHeight="1">
       <c r="A180" s="10"/>
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
@@ -2604,7 +2565,7 @@
       <c r="I180" s="10"/>
       <c r="K180" s="10"/>
     </row>
-    <row r="181" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" ht="15.75" customHeight="1">
       <c r="A181" s="10"/>
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
@@ -2612,7 +2573,7 @@
       <c r="I181" s="10"/>
       <c r="K181" s="10"/>
     </row>
-    <row r="182" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" ht="15.75" customHeight="1">
       <c r="A182" s="10"/>
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
@@ -2620,7 +2581,7 @@
       <c r="I182" s="10"/>
       <c r="K182" s="10"/>
     </row>
-    <row r="183" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" ht="15.75" customHeight="1">
       <c r="A183" s="10"/>
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
@@ -2628,7 +2589,7 @@
       <c r="I183" s="10"/>
       <c r="K183" s="10"/>
     </row>
-    <row r="184" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" ht="15.75" customHeight="1">
       <c r="A184" s="10"/>
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
@@ -2636,7 +2597,7 @@
       <c r="I184" s="10"/>
       <c r="K184" s="10"/>
     </row>
-    <row r="185" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" ht="15.75" customHeight="1">
       <c r="A185" s="10"/>
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
@@ -2644,7 +2605,7 @@
       <c r="I185" s="10"/>
       <c r="K185" s="10"/>
     </row>
-    <row r="186" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" ht="15.75" customHeight="1">
       <c r="A186" s="10"/>
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
@@ -2652,7 +2613,7 @@
       <c r="I186" s="10"/>
       <c r="K186" s="10"/>
     </row>
-    <row r="187" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" ht="15.75" customHeight="1">
       <c r="A187" s="10"/>
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
@@ -2660,7 +2621,7 @@
       <c r="I187" s="10"/>
       <c r="K187" s="10"/>
     </row>
-    <row r="188" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" ht="15.75" customHeight="1">
       <c r="A188" s="10"/>
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
@@ -2668,7 +2629,7 @@
       <c r="I188" s="10"/>
       <c r="K188" s="10"/>
     </row>
-    <row r="189" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" ht="15.75" customHeight="1">
       <c r="A189" s="10"/>
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
@@ -2676,7 +2637,7 @@
       <c r="I189" s="10"/>
       <c r="K189" s="10"/>
     </row>
-    <row r="190" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" ht="15.75" customHeight="1">
       <c r="A190" s="10"/>
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
@@ -2684,7 +2645,7 @@
       <c r="I190" s="10"/>
       <c r="K190" s="10"/>
     </row>
-    <row r="191" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" ht="15.75" customHeight="1">
       <c r="A191" s="10"/>
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
@@ -2692,7 +2653,7 @@
       <c r="I191" s="10"/>
       <c r="K191" s="10"/>
     </row>
-    <row r="192" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" ht="15.75" customHeight="1">
       <c r="A192" s="10"/>
       <c r="E192" s="10"/>
       <c r="F192" s="10"/>
@@ -2700,7 +2661,7 @@
       <c r="I192" s="10"/>
       <c r="K192" s="10"/>
     </row>
-    <row r="193" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" ht="15.75" customHeight="1">
       <c r="A193" s="10"/>
       <c r="E193" s="10"/>
       <c r="F193" s="10"/>
@@ -2708,7 +2669,7 @@
       <c r="I193" s="10"/>
       <c r="K193" s="10"/>
     </row>
-    <row r="194" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" ht="15.75" customHeight="1">
       <c r="A194" s="10"/>
       <c r="E194" s="10"/>
       <c r="F194" s="10"/>
@@ -2716,7 +2677,7 @@
       <c r="I194" s="10"/>
       <c r="K194" s="10"/>
     </row>
-    <row r="195" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" ht="15.75" customHeight="1">
       <c r="A195" s="10"/>
       <c r="E195" s="10"/>
       <c r="F195" s="10"/>
@@ -2724,7 +2685,7 @@
       <c r="I195" s="10"/>
       <c r="K195" s="10"/>
     </row>
-    <row r="196" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" ht="15.75" customHeight="1">
       <c r="A196" s="10"/>
       <c r="E196" s="10"/>
       <c r="F196" s="10"/>
@@ -2732,7 +2693,7 @@
       <c r="I196" s="10"/>
       <c r="K196" s="10"/>
     </row>
-    <row r="197" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" ht="15.75" customHeight="1">
       <c r="A197" s="10"/>
       <c r="E197" s="10"/>
       <c r="F197" s="10"/>
@@ -2740,7 +2701,7 @@
       <c r="I197" s="10"/>
       <c r="K197" s="10"/>
     </row>
-    <row r="198" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" ht="15.75" customHeight="1">
       <c r="A198" s="10"/>
       <c r="E198" s="10"/>
       <c r="F198" s="10"/>
@@ -2748,7 +2709,7 @@
       <c r="I198" s="10"/>
       <c r="K198" s="10"/>
     </row>
-    <row r="199" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" ht="15.75" customHeight="1">
       <c r="A199" s="10"/>
       <c r="E199" s="10"/>
       <c r="F199" s="10"/>
@@ -2756,7 +2717,7 @@
       <c r="I199" s="10"/>
       <c r="K199" s="10"/>
     </row>
-    <row r="200" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" ht="15.75" customHeight="1">
       <c r="A200" s="10"/>
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
@@ -2764,7 +2725,7 @@
       <c r="I200" s="10"/>
       <c r="K200" s="10"/>
     </row>
-    <row r="201" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" ht="15.75" customHeight="1">
       <c r="A201" s="10"/>
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
@@ -2772,7 +2733,7 @@
       <c r="I201" s="10"/>
       <c r="K201" s="10"/>
     </row>
-    <row r="202" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" ht="15.75" customHeight="1">
       <c r="A202" s="10"/>
       <c r="E202" s="10"/>
       <c r="F202" s="10"/>
@@ -2780,7 +2741,7 @@
       <c r="I202" s="10"/>
       <c r="K202" s="10"/>
     </row>
-    <row r="203" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" ht="15.75" customHeight="1">
       <c r="A203" s="10"/>
       <c r="E203" s="10"/>
       <c r="F203" s="10"/>
@@ -2788,7 +2749,7 @@
       <c r="I203" s="10"/>
       <c r="K203" s="10"/>
     </row>
-    <row r="204" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" ht="15.75" customHeight="1">
       <c r="A204" s="10"/>
       <c r="E204" s="10"/>
       <c r="F204" s="10"/>
@@ -2796,7 +2757,7 @@
       <c r="I204" s="10"/>
       <c r="K204" s="10"/>
     </row>
-    <row r="205" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" ht="15.75" customHeight="1">
       <c r="A205" s="10"/>
       <c r="E205" s="10"/>
       <c r="F205" s="10"/>
@@ -2804,7 +2765,7 @@
       <c r="I205" s="10"/>
       <c r="K205" s="10"/>
     </row>
-    <row r="206" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" ht="15.75" customHeight="1">
       <c r="A206" s="10"/>
       <c r="E206" s="10"/>
       <c r="F206" s="10"/>
@@ -2812,7 +2773,7 @@
       <c r="I206" s="10"/>
       <c r="K206" s="10"/>
     </row>
-    <row r="207" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" ht="15.75" customHeight="1">
       <c r="A207" s="10"/>
       <c r="E207" s="10"/>
       <c r="F207" s="10"/>
@@ -2820,7 +2781,7 @@
       <c r="I207" s="10"/>
       <c r="K207" s="10"/>
     </row>
-    <row r="208" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" ht="15.75" customHeight="1">
       <c r="A208" s="10"/>
       <c r="E208" s="10"/>
       <c r="F208" s="10"/>
@@ -2828,7 +2789,7 @@
       <c r="I208" s="10"/>
       <c r="K208" s="10"/>
     </row>
-    <row r="209" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" ht="15.75" customHeight="1">
       <c r="A209" s="10"/>
       <c r="E209" s="10"/>
       <c r="F209" s="10"/>
@@ -2836,7 +2797,7 @@
       <c r="I209" s="10"/>
       <c r="K209" s="10"/>
     </row>
-    <row r="210" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" ht="15.75" customHeight="1">
       <c r="A210" s="10"/>
       <c r="E210" s="10"/>
       <c r="F210" s="10"/>
@@ -2844,7 +2805,7 @@
       <c r="I210" s="10"/>
       <c r="K210" s="10"/>
     </row>
-    <row r="211" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" ht="15.75" customHeight="1">
       <c r="A211" s="10"/>
       <c r="E211" s="10"/>
       <c r="F211" s="10"/>
@@ -2852,7 +2813,7 @@
       <c r="I211" s="10"/>
       <c r="K211" s="10"/>
     </row>
-    <row r="212" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" ht="15.75" customHeight="1">
       <c r="A212" s="10"/>
       <c r="E212" s="10"/>
       <c r="F212" s="10"/>
@@ -2860,7 +2821,7 @@
       <c r="I212" s="10"/>
       <c r="K212" s="10"/>
     </row>
-    <row r="213" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" ht="15.75" customHeight="1">
       <c r="A213" s="10"/>
       <c r="E213" s="10"/>
       <c r="F213" s="10"/>
@@ -2868,7 +2829,7 @@
       <c r="I213" s="10"/>
       <c r="K213" s="10"/>
     </row>
-    <row r="214" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" ht="15.75" customHeight="1">
       <c r="A214" s="10"/>
       <c r="E214" s="10"/>
       <c r="F214" s="10"/>
@@ -2876,7 +2837,7 @@
       <c r="I214" s="10"/>
       <c r="K214" s="10"/>
     </row>
-    <row r="215" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" ht="15.75" customHeight="1">
       <c r="A215" s="10"/>
       <c r="E215" s="10"/>
       <c r="F215" s="10"/>
@@ -2884,7 +2845,7 @@
       <c r="I215" s="10"/>
       <c r="K215" s="10"/>
     </row>
-    <row r="216" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" ht="15.75" customHeight="1">
       <c r="A216" s="10"/>
       <c r="E216" s="10"/>
       <c r="F216" s="10"/>
@@ -2892,7 +2853,7 @@
       <c r="I216" s="10"/>
       <c r="K216" s="10"/>
     </row>
-    <row r="217" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" ht="15.75" customHeight="1">
       <c r="A217" s="10"/>
       <c r="E217" s="10"/>
       <c r="F217" s="10"/>
@@ -2900,7 +2861,7 @@
       <c r="I217" s="10"/>
       <c r="K217" s="10"/>
     </row>
-    <row r="218" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" ht="15.75" customHeight="1">
       <c r="A218" s="10"/>
       <c r="E218" s="10"/>
       <c r="F218" s="10"/>
@@ -2908,7 +2869,7 @@
       <c r="I218" s="10"/>
       <c r="K218" s="10"/>
     </row>
-    <row r="219" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" ht="15.75" customHeight="1">
       <c r="A219" s="10"/>
       <c r="E219" s="10"/>
       <c r="F219" s="10"/>
@@ -2916,7 +2877,7 @@
       <c r="I219" s="10"/>
       <c r="K219" s="10"/>
     </row>
-    <row r="220" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" ht="15.75" customHeight="1">
       <c r="A220" s="10"/>
       <c r="E220" s="10"/>
       <c r="F220" s="10"/>
@@ -2924,7 +2885,7 @@
       <c r="I220" s="10"/>
       <c r="K220" s="10"/>
     </row>
-    <row r="221" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" ht="15.75" customHeight="1">
       <c r="A221" s="10"/>
       <c r="E221" s="10"/>
       <c r="F221" s="10"/>
@@ -2932,7 +2893,7 @@
       <c r="I221" s="10"/>
       <c r="K221" s="10"/>
     </row>
-    <row r="222" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" ht="15.75" customHeight="1">
       <c r="A222" s="10"/>
       <c r="E222" s="10"/>
       <c r="F222" s="10"/>
@@ -2940,7 +2901,7 @@
       <c r="I222" s="10"/>
       <c r="K222" s="10"/>
     </row>
-    <row r="223" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" ht="15.75" customHeight="1">
       <c r="A223" s="10"/>
       <c r="E223" s="10"/>
       <c r="F223" s="10"/>
@@ -2948,7 +2909,7 @@
       <c r="I223" s="10"/>
       <c r="K223" s="10"/>
     </row>
-    <row r="224" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" ht="15.75" customHeight="1">
       <c r="A224" s="10"/>
       <c r="E224" s="10"/>
       <c r="F224" s="10"/>
@@ -2956,7 +2917,7 @@
       <c r="I224" s="10"/>
       <c r="K224" s="10"/>
     </row>
-    <row r="225" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" ht="15.75" customHeight="1">
       <c r="A225" s="10"/>
       <c r="E225" s="10"/>
       <c r="F225" s="10"/>
@@ -2964,7 +2925,7 @@
       <c r="I225" s="10"/>
       <c r="K225" s="10"/>
     </row>
-    <row r="226" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" ht="15.75" customHeight="1">
       <c r="A226" s="10"/>
       <c r="E226" s="10"/>
       <c r="F226" s="10"/>
@@ -2972,7 +2933,7 @@
       <c r="I226" s="10"/>
       <c r="K226" s="10"/>
     </row>
-    <row r="227" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" ht="15.75" customHeight="1">
       <c r="A227" s="10"/>
       <c r="E227" s="10"/>
       <c r="F227" s="10"/>
@@ -2980,7 +2941,7 @@
       <c r="I227" s="10"/>
       <c r="K227" s="10"/>
     </row>
-    <row r="228" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" ht="15.75" customHeight="1">
       <c r="A228" s="10"/>
       <c r="E228" s="10"/>
       <c r="F228" s="10"/>
@@ -2988,7 +2949,7 @@
       <c r="I228" s="10"/>
       <c r="K228" s="10"/>
     </row>
-    <row r="229" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" ht="15.75" customHeight="1">
       <c r="A229" s="10"/>
       <c r="E229" s="10"/>
       <c r="F229" s="10"/>
@@ -2996,7 +2957,7 @@
       <c r="I229" s="10"/>
       <c r="K229" s="10"/>
     </row>
-    <row r="230" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" ht="15.75" customHeight="1">
       <c r="A230" s="10"/>
       <c r="E230" s="10"/>
       <c r="F230" s="10"/>
@@ -3004,7 +2965,7 @@
       <c r="I230" s="10"/>
       <c r="K230" s="10"/>
     </row>
-    <row r="231" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" ht="15.75" customHeight="1">
       <c r="A231" s="10"/>
       <c r="E231" s="10"/>
       <c r="F231" s="10"/>
@@ -3012,7 +2973,7 @@
       <c r="I231" s="10"/>
       <c r="K231" s="10"/>
     </row>
-    <row r="232" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" ht="15.75" customHeight="1">
       <c r="A232" s="10"/>
       <c r="E232" s="10"/>
       <c r="F232" s="10"/>
@@ -3020,7 +2981,7 @@
       <c r="I232" s="10"/>
       <c r="K232" s="10"/>
     </row>
-    <row r="233" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" ht="15.75" customHeight="1">
       <c r="A233" s="10"/>
       <c r="E233" s="10"/>
       <c r="F233" s="10"/>
@@ -3028,7 +2989,7 @@
       <c r="I233" s="10"/>
       <c r="K233" s="10"/>
     </row>
-    <row r="234" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" ht="15.75" customHeight="1">
       <c r="A234" s="10"/>
       <c r="E234" s="10"/>
       <c r="F234" s="10"/>
@@ -3036,7 +2997,7 @@
       <c r="I234" s="10"/>
       <c r="K234" s="10"/>
     </row>
-    <row r="235" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" ht="15.75" customHeight="1">
       <c r="A235" s="10"/>
       <c r="E235" s="10"/>
       <c r="F235" s="10"/>
@@ -3044,7 +3005,7 @@
       <c r="I235" s="10"/>
       <c r="K235" s="10"/>
     </row>
-    <row r="236" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" ht="15.75" customHeight="1">
       <c r="A236" s="10"/>
       <c r="E236" s="10"/>
       <c r="F236" s="10"/>
@@ -3052,7 +3013,7 @@
       <c r="I236" s="10"/>
       <c r="K236" s="10"/>
     </row>
-    <row r="237" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" ht="15.75" customHeight="1">
       <c r="A237" s="10"/>
       <c r="E237" s="10"/>
       <c r="F237" s="10"/>
@@ -3060,7 +3021,7 @@
       <c r="I237" s="10"/>
       <c r="K237" s="10"/>
     </row>
-    <row r="238" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" ht="15.75" customHeight="1">
       <c r="A238" s="10"/>
       <c r="E238" s="10"/>
       <c r="F238" s="10"/>
@@ -3068,7 +3029,7 @@
       <c r="I238" s="10"/>
       <c r="K238" s="10"/>
     </row>
-    <row r="239" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" ht="15.75" customHeight="1">
       <c r="A239" s="10"/>
       <c r="E239" s="10"/>
       <c r="F239" s="10"/>
@@ -3076,7 +3037,7 @@
       <c r="I239" s="10"/>
       <c r="K239" s="10"/>
     </row>
-    <row r="240" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" ht="15.75" customHeight="1">
       <c r="A240" s="10"/>
       <c r="E240" s="10"/>
       <c r="F240" s="10"/>
@@ -3084,7 +3045,7 @@
       <c r="I240" s="10"/>
       <c r="K240" s="10"/>
     </row>
-    <row r="241" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" ht="15.75" customHeight="1">
       <c r="A241" s="10"/>
       <c r="E241" s="10"/>
       <c r="F241" s="10"/>
@@ -3092,7 +3053,7 @@
       <c r="I241" s="10"/>
       <c r="K241" s="10"/>
     </row>
-    <row r="242" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" ht="15.75" customHeight="1">
       <c r="A242" s="10"/>
       <c r="E242" s="10"/>
       <c r="F242" s="10"/>
@@ -3100,7 +3061,7 @@
       <c r="I242" s="10"/>
       <c r="K242" s="10"/>
     </row>
-    <row r="243" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" ht="15.75" customHeight="1">
       <c r="A243" s="10"/>
       <c r="E243" s="10"/>
       <c r="F243" s="10"/>
@@ -3108,7 +3069,7 @@
       <c r="I243" s="10"/>
       <c r="K243" s="10"/>
     </row>
-    <row r="244" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" ht="15.75" customHeight="1">
       <c r="A244" s="10"/>
       <c r="E244" s="10"/>
       <c r="F244" s="10"/>
@@ -3116,7 +3077,7 @@
       <c r="I244" s="10"/>
       <c r="K244" s="10"/>
     </row>
-    <row r="245" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" ht="15.75" customHeight="1">
       <c r="A245" s="10"/>
       <c r="E245" s="10"/>
       <c r="F245" s="10"/>
@@ -3124,7 +3085,7 @@
       <c r="I245" s="10"/>
       <c r="K245" s="10"/>
     </row>
-    <row r="246" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" ht="15.75" customHeight="1">
       <c r="A246" s="10"/>
       <c r="E246" s="10"/>
       <c r="F246" s="10"/>
@@ -3132,7 +3093,7 @@
       <c r="I246" s="10"/>
       <c r="K246" s="10"/>
     </row>
-    <row r="247" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" ht="15.75" customHeight="1">
       <c r="A247" s="10"/>
       <c r="E247" s="10"/>
       <c r="F247" s="10"/>
@@ -3140,7 +3101,7 @@
       <c r="I247" s="10"/>
       <c r="K247" s="10"/>
     </row>
-    <row r="248" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" ht="15.75" customHeight="1">
       <c r="A248" s="10"/>
       <c r="E248" s="10"/>
       <c r="F248" s="10"/>
@@ -3148,7 +3109,7 @@
       <c r="I248" s="10"/>
       <c r="K248" s="10"/>
     </row>
-    <row r="249" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" ht="15.75" customHeight="1">
       <c r="A249" s="10"/>
       <c r="E249" s="10"/>
       <c r="F249" s="10"/>
@@ -3156,7 +3117,7 @@
       <c r="I249" s="10"/>
       <c r="K249" s="10"/>
     </row>
-    <row r="250" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" ht="15.75" customHeight="1">
       <c r="A250" s="10"/>
       <c r="E250" s="10"/>
       <c r="F250" s="10"/>
@@ -3164,7 +3125,7 @@
       <c r="I250" s="10"/>
       <c r="K250" s="10"/>
     </row>
-    <row r="251" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" ht="15.75" customHeight="1">
       <c r="A251" s="10"/>
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
@@ -3172,7 +3133,7 @@
       <c r="I251" s="10"/>
       <c r="K251" s="10"/>
     </row>
-    <row r="252" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" ht="15.75" customHeight="1">
       <c r="A252" s="10"/>
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
@@ -3180,7 +3141,7 @@
       <c r="I252" s="10"/>
       <c r="K252" s="10"/>
     </row>
-    <row r="253" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" ht="15.75" customHeight="1">
       <c r="A253" s="10"/>
       <c r="E253" s="10"/>
       <c r="F253" s="10"/>
@@ -3188,7 +3149,7 @@
       <c r="I253" s="10"/>
       <c r="K253" s="10"/>
     </row>
-    <row r="254" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" ht="15.75" customHeight="1">
       <c r="A254" s="10"/>
       <c r="E254" s="10"/>
       <c r="F254" s="10"/>
@@ -3196,7 +3157,7 @@
       <c r="I254" s="10"/>
       <c r="K254" s="10"/>
     </row>
-    <row r="255" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" ht="15.75" customHeight="1">
       <c r="A255" s="10"/>
       <c r="E255" s="10"/>
       <c r="F255" s="10"/>
@@ -3204,7 +3165,7 @@
       <c r="I255" s="10"/>
       <c r="K255" s="10"/>
     </row>
-    <row r="256" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" ht="15.75" customHeight="1">
       <c r="A256" s="10"/>
       <c r="E256" s="10"/>
       <c r="F256" s="10"/>
@@ -3212,7 +3173,7 @@
       <c r="I256" s="10"/>
       <c r="K256" s="10"/>
     </row>
-    <row r="257" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" ht="15.75" customHeight="1">
       <c r="A257" s="10"/>
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
@@ -3220,7 +3181,7 @@
       <c r="I257" s="10"/>
       <c r="K257" s="10"/>
     </row>
-    <row r="258" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" ht="15.75" customHeight="1">
       <c r="A258" s="10"/>
       <c r="E258" s="10"/>
       <c r="F258" s="10"/>
@@ -3228,7 +3189,7 @@
       <c r="I258" s="10"/>
       <c r="K258" s="10"/>
     </row>
-    <row r="259" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" ht="15.75" customHeight="1">
       <c r="A259" s="10"/>
       <c r="E259" s="10"/>
       <c r="F259" s="10"/>
@@ -3236,7 +3197,7 @@
       <c r="I259" s="10"/>
       <c r="K259" s="10"/>
     </row>
-    <row r="260" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" ht="15.75" customHeight="1">
       <c r="A260" s="10"/>
       <c r="E260" s="10"/>
       <c r="F260" s="10"/>
@@ -3244,7 +3205,7 @@
       <c r="I260" s="10"/>
       <c r="K260" s="10"/>
     </row>
-    <row r="261" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" ht="15.75" customHeight="1">
       <c r="A261" s="10"/>
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
@@ -3252,7 +3213,7 @@
       <c r="I261" s="10"/>
       <c r="K261" s="10"/>
     </row>
-    <row r="262" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" ht="15.75" customHeight="1">
       <c r="A262" s="10"/>
       <c r="E262" s="10"/>
       <c r="F262" s="10"/>
@@ -3260,7 +3221,7 @@
       <c r="I262" s="10"/>
       <c r="K262" s="10"/>
     </row>
-    <row r="263" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" ht="15.75" customHeight="1">
       <c r="A263" s="10"/>
       <c r="E263" s="10"/>
       <c r="F263" s="10"/>
@@ -3268,7 +3229,7 @@
       <c r="I263" s="10"/>
       <c r="K263" s="10"/>
     </row>
-    <row r="264" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" ht="15.75" customHeight="1">
       <c r="A264" s="10"/>
       <c r="E264" s="10"/>
       <c r="F264" s="10"/>
@@ -3276,7 +3237,7 @@
       <c r="I264" s="10"/>
       <c r="K264" s="10"/>
     </row>
-    <row r="265" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" ht="15.75" customHeight="1">
       <c r="A265" s="10"/>
       <c r="E265" s="10"/>
       <c r="F265" s="10"/>
@@ -3284,7 +3245,7 @@
       <c r="I265" s="10"/>
       <c r="K265" s="10"/>
     </row>
-    <row r="266" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" ht="15.75" customHeight="1">
       <c r="A266" s="10"/>
       <c r="E266" s="10"/>
       <c r="F266" s="10"/>
@@ -3292,7 +3253,7 @@
       <c r="I266" s="10"/>
       <c r="K266" s="10"/>
     </row>
-    <row r="267" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" ht="15.75" customHeight="1">
       <c r="A267" s="10"/>
       <c r="E267" s="10"/>
       <c r="F267" s="10"/>
@@ -3300,7 +3261,7 @@
       <c r="I267" s="10"/>
       <c r="K267" s="10"/>
     </row>
-    <row r="268" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" ht="15.75" customHeight="1">
       <c r="A268" s="10"/>
       <c r="E268" s="10"/>
       <c r="F268" s="10"/>
@@ -3308,7 +3269,7 @@
       <c r="I268" s="10"/>
       <c r="K268" s="10"/>
     </row>
-    <row r="269" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" ht="15.75" customHeight="1">
       <c r="A269" s="10"/>
       <c r="E269" s="10"/>
       <c r="F269" s="10"/>
@@ -3316,7 +3277,7 @@
       <c r="I269" s="10"/>
       <c r="K269" s="10"/>
     </row>
-    <row r="270" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" ht="15.75" customHeight="1">
       <c r="A270" s="10"/>
       <c r="E270" s="10"/>
       <c r="F270" s="10"/>
@@ -3324,7 +3285,7 @@
       <c r="I270" s="10"/>
       <c r="K270" s="10"/>
     </row>
-    <row r="271" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" ht="15.75" customHeight="1">
       <c r="A271" s="10"/>
       <c r="E271" s="10"/>
       <c r="F271" s="10"/>
@@ -3332,7 +3293,7 @@
       <c r="I271" s="10"/>
       <c r="K271" s="10"/>
     </row>
-    <row r="272" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" ht="15.75" customHeight="1">
       <c r="A272" s="10"/>
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
@@ -3340,7 +3301,7 @@
       <c r="I272" s="10"/>
       <c r="K272" s="10"/>
     </row>
-    <row r="273" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" ht="15.75" customHeight="1">
       <c r="A273" s="10"/>
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
@@ -3348,7 +3309,7 @@
       <c r="I273" s="10"/>
       <c r="K273" s="10"/>
     </row>
-    <row r="274" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" ht="15.75" customHeight="1">
       <c r="A274" s="10"/>
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
@@ -3356,7 +3317,7 @@
       <c r="I274" s="10"/>
       <c r="K274" s="10"/>
     </row>
-    <row r="275" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" ht="15.75" customHeight="1">
       <c r="A275" s="10"/>
       <c r="E275" s="10"/>
       <c r="F275" s="10"/>
@@ -3364,7 +3325,7 @@
       <c r="I275" s="10"/>
       <c r="K275" s="10"/>
     </row>
-    <row r="276" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" ht="15.75" customHeight="1">
       <c r="A276" s="10"/>
       <c r="E276" s="10"/>
       <c r="F276" s="10"/>
@@ -3372,7 +3333,7 @@
       <c r="I276" s="10"/>
       <c r="K276" s="10"/>
     </row>
-    <row r="277" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" ht="15.75" customHeight="1">
       <c r="A277" s="10"/>
       <c r="E277" s="10"/>
       <c r="F277" s="10"/>
@@ -3380,7 +3341,7 @@
       <c r="I277" s="10"/>
       <c r="K277" s="10"/>
     </row>
-    <row r="278" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" ht="15.75" customHeight="1">
       <c r="A278" s="10"/>
       <c r="E278" s="10"/>
       <c r="F278" s="10"/>
@@ -3388,7 +3349,7 @@
       <c r="I278" s="10"/>
       <c r="K278" s="10"/>
     </row>
-    <row r="279" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" ht="15.75" customHeight="1">
       <c r="A279" s="10"/>
       <c r="E279" s="10"/>
       <c r="F279" s="10"/>
@@ -3396,7 +3357,7 @@
       <c r="I279" s="10"/>
       <c r="K279" s="10"/>
     </row>
-    <row r="280" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" ht="15.75" customHeight="1">
       <c r="A280" s="10"/>
       <c r="E280" s="10"/>
       <c r="F280" s="10"/>
@@ -3404,7 +3365,7 @@
       <c r="I280" s="10"/>
       <c r="K280" s="10"/>
     </row>
-    <row r="281" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" ht="15.75" customHeight="1">
       <c r="A281" s="10"/>
       <c r="E281" s="10"/>
       <c r="F281" s="10"/>
@@ -3412,7 +3373,7 @@
       <c r="I281" s="10"/>
       <c r="K281" s="10"/>
     </row>
-    <row r="282" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" ht="15.75" customHeight="1">
       <c r="A282" s="10"/>
       <c r="E282" s="10"/>
       <c r="F282" s="10"/>
@@ -3420,7 +3381,7 @@
       <c r="I282" s="10"/>
       <c r="K282" s="10"/>
     </row>
-    <row r="283" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" ht="15.75" customHeight="1">
       <c r="A283" s="10"/>
       <c r="E283" s="10"/>
       <c r="F283" s="10"/>
@@ -3428,7 +3389,7 @@
       <c r="I283" s="10"/>
       <c r="K283" s="10"/>
     </row>
-    <row r="284" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" ht="15.75" customHeight="1">
       <c r="A284" s="10"/>
       <c r="E284" s="10"/>
       <c r="F284" s="10"/>
@@ -3436,7 +3397,7 @@
       <c r="I284" s="10"/>
       <c r="K284" s="10"/>
     </row>
-    <row r="285" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" ht="15.75" customHeight="1">
       <c r="A285" s="10"/>
       <c r="E285" s="10"/>
       <c r="F285" s="10"/>
@@ -3444,7 +3405,7 @@
       <c r="I285" s="10"/>
       <c r="K285" s="10"/>
     </row>
-    <row r="286" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" ht="15.75" customHeight="1">
       <c r="A286" s="10"/>
       <c r="E286" s="10"/>
       <c r="F286" s="10"/>
@@ -3452,7 +3413,7 @@
       <c r="I286" s="10"/>
       <c r="K286" s="10"/>
     </row>
-    <row r="287" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" ht="15.75" customHeight="1">
       <c r="A287" s="10"/>
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
@@ -3460,7 +3421,7 @@
       <c r="I287" s="10"/>
       <c r="K287" s="10"/>
     </row>
-    <row r="288" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" ht="15.75" customHeight="1">
       <c r="A288" s="10"/>
       <c r="E288" s="10"/>
       <c r="F288" s="10"/>
@@ -3468,7 +3429,7 @@
       <c r="I288" s="10"/>
       <c r="K288" s="10"/>
     </row>
-    <row r="289" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" ht="15.75" customHeight="1">
       <c r="A289" s="10"/>
       <c r="E289" s="10"/>
       <c r="F289" s="10"/>
@@ -3476,7 +3437,7 @@
       <c r="I289" s="10"/>
       <c r="K289" s="10"/>
     </row>
-    <row r="290" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" ht="15.75" customHeight="1">
       <c r="A290" s="10"/>
       <c r="E290" s="10"/>
       <c r="F290" s="10"/>
@@ -3484,7 +3445,7 @@
       <c r="I290" s="10"/>
       <c r="K290" s="10"/>
     </row>
-    <row r="291" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" ht="15.75" customHeight="1">
       <c r="A291" s="10"/>
       <c r="E291" s="10"/>
       <c r="F291" s="10"/>
@@ -3492,7 +3453,7 @@
       <c r="I291" s="10"/>
       <c r="K291" s="10"/>
     </row>
-    <row r="292" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" ht="15.75" customHeight="1">
       <c r="A292" s="10"/>
       <c r="E292" s="10"/>
       <c r="F292" s="10"/>
@@ -3500,7 +3461,7 @@
       <c r="I292" s="10"/>
       <c r="K292" s="10"/>
     </row>
-    <row r="293" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" ht="15.75" customHeight="1">
       <c r="A293" s="10"/>
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
@@ -3508,7 +3469,7 @@
       <c r="I293" s="10"/>
       <c r="K293" s="10"/>
     </row>
-    <row r="294" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" ht="15.75" customHeight="1">
       <c r="A294" s="10"/>
       <c r="E294" s="10"/>
       <c r="F294" s="10"/>
@@ -3516,7 +3477,7 @@
       <c r="I294" s="10"/>
       <c r="K294" s="10"/>
     </row>
-    <row r="295" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" ht="15.75" customHeight="1">
       <c r="A295" s="10"/>
       <c r="E295" s="10"/>
       <c r="F295" s="10"/>
@@ -3524,7 +3485,7 @@
       <c r="I295" s="10"/>
       <c r="K295" s="10"/>
     </row>
-    <row r="296" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" ht="15.75" customHeight="1">
       <c r="A296" s="10"/>
       <c r="E296" s="10"/>
       <c r="F296" s="10"/>
@@ -3532,7 +3493,7 @@
       <c r="I296" s="10"/>
       <c r="K296" s="10"/>
     </row>
-    <row r="297" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" ht="15.75" customHeight="1">
       <c r="A297" s="10"/>
       <c r="E297" s="10"/>
       <c r="F297" s="10"/>
@@ -3540,7 +3501,7 @@
       <c r="I297" s="10"/>
       <c r="K297" s="10"/>
     </row>
-    <row r="298" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" ht="15.75" customHeight="1">
       <c r="A298" s="10"/>
       <c r="E298" s="10"/>
       <c r="F298" s="10"/>
@@ -3548,7 +3509,7 @@
       <c r="I298" s="10"/>
       <c r="K298" s="10"/>
     </row>
-    <row r="299" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" ht="15.75" customHeight="1">
       <c r="A299" s="10"/>
       <c r="E299" s="10"/>
       <c r="F299" s="10"/>
@@ -3556,7 +3517,7 @@
       <c r="I299" s="10"/>
       <c r="K299" s="10"/>
     </row>
-    <row r="300" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" ht="15.75" customHeight="1">
       <c r="A300" s="10"/>
       <c r="E300" s="10"/>
       <c r="F300" s="10"/>
@@ -3564,7 +3525,7 @@
       <c r="I300" s="10"/>
       <c r="K300" s="10"/>
     </row>
-    <row r="301" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" ht="15.75" customHeight="1">
       <c r="A301" s="10"/>
       <c r="E301" s="10"/>
       <c r="F301" s="10"/>
@@ -3572,7 +3533,7 @@
       <c r="I301" s="10"/>
       <c r="K301" s="10"/>
     </row>
-    <row r="302" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" ht="15.75" customHeight="1">
       <c r="A302" s="10"/>
       <c r="E302" s="10"/>
       <c r="F302" s="10"/>
@@ -3580,7 +3541,7 @@
       <c r="I302" s="10"/>
       <c r="K302" s="10"/>
     </row>
-    <row r="303" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" ht="15.75" customHeight="1">
       <c r="A303" s="10"/>
       <c r="E303" s="10"/>
       <c r="F303" s="10"/>
@@ -3588,7 +3549,7 @@
       <c r="I303" s="10"/>
       <c r="K303" s="10"/>
     </row>
-    <row r="304" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" ht="15.75" customHeight="1">
       <c r="A304" s="10"/>
       <c r="E304" s="10"/>
       <c r="F304" s="10"/>
@@ -3596,7 +3557,7 @@
       <c r="I304" s="10"/>
       <c r="K304" s="10"/>
     </row>
-    <row r="305" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" ht="15.75" customHeight="1">
       <c r="A305" s="10"/>
       <c r="E305" s="10"/>
       <c r="F305" s="10"/>
@@ -3604,7 +3565,7 @@
       <c r="I305" s="10"/>
       <c r="K305" s="10"/>
     </row>
-    <row r="306" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" ht="15.75" customHeight="1">
       <c r="A306" s="10"/>
       <c r="E306" s="10"/>
       <c r="F306" s="10"/>
@@ -3612,7 +3573,7 @@
       <c r="I306" s="10"/>
       <c r="K306" s="10"/>
     </row>
-    <row r="307" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" ht="15.75" customHeight="1">
       <c r="A307" s="10"/>
       <c r="E307" s="10"/>
       <c r="F307" s="10"/>
@@ -3620,7 +3581,7 @@
       <c r="I307" s="10"/>
       <c r="K307" s="10"/>
     </row>
-    <row r="308" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" ht="15.75" customHeight="1">
       <c r="A308" s="10"/>
       <c r="E308" s="10"/>
       <c r="F308" s="10"/>
@@ -3628,7 +3589,7 @@
       <c r="I308" s="10"/>
       <c r="K308" s="10"/>
     </row>
-    <row r="309" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" ht="15.75" customHeight="1">
       <c r="A309" s="10"/>
       <c r="E309" s="10"/>
       <c r="F309" s="10"/>
@@ -3636,7 +3597,7 @@
       <c r="I309" s="10"/>
       <c r="K309" s="10"/>
     </row>
-    <row r="310" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" ht="15.75" customHeight="1">
       <c r="A310" s="10"/>
       <c r="E310" s="10"/>
       <c r="F310" s="10"/>
@@ -3644,7 +3605,7 @@
       <c r="I310" s="10"/>
       <c r="K310" s="10"/>
     </row>
-    <row r="311" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" ht="15.75" customHeight="1">
       <c r="A311" s="10"/>
       <c r="E311" s="10"/>
       <c r="F311" s="10"/>
@@ -3652,7 +3613,7 @@
       <c r="I311" s="10"/>
       <c r="K311" s="10"/>
     </row>
-    <row r="312" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" ht="15.75" customHeight="1">
       <c r="A312" s="10"/>
       <c r="E312" s="10"/>
       <c r="F312" s="10"/>
@@ -3660,7 +3621,7 @@
       <c r="I312" s="10"/>
       <c r="K312" s="10"/>
     </row>
-    <row r="313" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" ht="15.75" customHeight="1">
       <c r="A313" s="10"/>
       <c r="E313" s="10"/>
       <c r="F313" s="10"/>
@@ -3668,7 +3629,7 @@
       <c r="I313" s="10"/>
       <c r="K313" s="10"/>
     </row>
-    <row r="314" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" ht="15.75" customHeight="1">
       <c r="A314" s="10"/>
       <c r="E314" s="10"/>
       <c r="F314" s="10"/>
@@ -3676,7 +3637,7 @@
       <c r="I314" s="10"/>
       <c r="K314" s="10"/>
     </row>
-    <row r="315" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" ht="15.75" customHeight="1">
       <c r="A315" s="10"/>
       <c r="E315" s="10"/>
       <c r="F315" s="10"/>
@@ -3684,7 +3645,7 @@
       <c r="I315" s="10"/>
       <c r="K315" s="10"/>
     </row>
-    <row r="316" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" ht="15.75" customHeight="1">
       <c r="A316" s="10"/>
       <c r="E316" s="10"/>
       <c r="F316" s="10"/>
@@ -3692,7 +3653,7 @@
       <c r="I316" s="10"/>
       <c r="K316" s="10"/>
     </row>
-    <row r="317" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" ht="15.75" customHeight="1">
       <c r="A317" s="10"/>
       <c r="E317" s="10"/>
       <c r="F317" s="10"/>
@@ -3700,7 +3661,7 @@
       <c r="I317" s="10"/>
       <c r="K317" s="10"/>
     </row>
-    <row r="318" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" ht="15.75" customHeight="1">
       <c r="A318" s="10"/>
       <c r="E318" s="10"/>
       <c r="F318" s="10"/>
@@ -3708,7 +3669,7 @@
       <c r="I318" s="10"/>
       <c r="K318" s="10"/>
     </row>
-    <row r="319" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" ht="15.75" customHeight="1">
       <c r="A319" s="10"/>
       <c r="E319" s="10"/>
       <c r="F319" s="10"/>
@@ -3716,7 +3677,7 @@
       <c r="I319" s="10"/>
       <c r="K319" s="10"/>
     </row>
-    <row r="320" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" ht="15.75" customHeight="1">
       <c r="A320" s="10"/>
       <c r="E320" s="10"/>
       <c r="F320" s="10"/>
@@ -3724,7 +3685,7 @@
       <c r="I320" s="10"/>
       <c r="K320" s="10"/>
     </row>
-    <row r="321" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" ht="15.75" customHeight="1">
       <c r="A321" s="10"/>
       <c r="E321" s="10"/>
       <c r="F321" s="10"/>
@@ -3732,7 +3693,7 @@
       <c r="I321" s="10"/>
       <c r="K321" s="10"/>
     </row>
-    <row r="322" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" ht="15.75" customHeight="1">
       <c r="A322" s="10"/>
       <c r="E322" s="10"/>
       <c r="F322" s="10"/>
@@ -3740,7 +3701,7 @@
       <c r="I322" s="10"/>
       <c r="K322" s="10"/>
     </row>
-    <row r="323" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" ht="15.75" customHeight="1">
       <c r="A323" s="10"/>
       <c r="E323" s="10"/>
       <c r="F323" s="10"/>
@@ -3748,7 +3709,7 @@
       <c r="I323" s="10"/>
       <c r="K323" s="10"/>
     </row>
-    <row r="324" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" ht="15.75" customHeight="1">
       <c r="A324" s="10"/>
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
@@ -3756,7 +3717,7 @@
       <c r="I324" s="10"/>
       <c r="K324" s="10"/>
     </row>
-    <row r="325" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" ht="15.75" customHeight="1">
       <c r="A325" s="10"/>
       <c r="E325" s="10"/>
       <c r="F325" s="10"/>
@@ -3764,7 +3725,7 @@
       <c r="I325" s="10"/>
       <c r="K325" s="10"/>
     </row>
-    <row r="326" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" ht="15.75" customHeight="1">
       <c r="A326" s="10"/>
       <c r="E326" s="10"/>
       <c r="F326" s="10"/>
@@ -3772,7 +3733,7 @@
       <c r="I326" s="10"/>
       <c r="K326" s="10"/>
     </row>
-    <row r="327" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" ht="15.75" customHeight="1">
       <c r="A327" s="10"/>
       <c r="E327" s="10"/>
       <c r="F327" s="10"/>
@@ -3780,7 +3741,7 @@
       <c r="I327" s="10"/>
       <c r="K327" s="10"/>
     </row>
-    <row r="328" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" ht="15.75" customHeight="1">
       <c r="A328" s="10"/>
       <c r="E328" s="10"/>
       <c r="F328" s="10"/>
@@ -3788,7 +3749,7 @@
       <c r="I328" s="10"/>
       <c r="K328" s="10"/>
     </row>
-    <row r="329" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" ht="15.75" customHeight="1">
       <c r="A329" s="10"/>
       <c r="E329" s="10"/>
       <c r="F329" s="10"/>
@@ -3796,7 +3757,7 @@
       <c r="I329" s="10"/>
       <c r="K329" s="10"/>
     </row>
-    <row r="330" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" ht="15.75" customHeight="1">
       <c r="A330" s="10"/>
       <c r="E330" s="10"/>
       <c r="F330" s="10"/>
@@ -3804,7 +3765,7 @@
       <c r="I330" s="10"/>
       <c r="K330" s="10"/>
     </row>
-    <row r="331" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" ht="15.75" customHeight="1">
       <c r="A331" s="10"/>
       <c r="E331" s="10"/>
       <c r="F331" s="10"/>
@@ -3812,7 +3773,7 @@
       <c r="I331" s="10"/>
       <c r="K331" s="10"/>
     </row>
-    <row r="332" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" ht="15.75" customHeight="1">
       <c r="A332" s="10"/>
       <c r="E332" s="10"/>
       <c r="F332" s="10"/>
@@ -3820,7 +3781,7 @@
       <c r="I332" s="10"/>
       <c r="K332" s="10"/>
     </row>
-    <row r="333" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" ht="15.75" customHeight="1">
       <c r="A333" s="10"/>
       <c r="E333" s="10"/>
       <c r="F333" s="10"/>
@@ -3828,7 +3789,7 @@
       <c r="I333" s="10"/>
       <c r="K333" s="10"/>
     </row>
-    <row r="334" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" ht="15.75" customHeight="1">
       <c r="A334" s="10"/>
       <c r="E334" s="10"/>
       <c r="F334" s="10"/>
@@ -3836,7 +3797,7 @@
       <c r="I334" s="10"/>
       <c r="K334" s="10"/>
     </row>
-    <row r="335" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" ht="15.75" customHeight="1">
       <c r="A335" s="10"/>
       <c r="E335" s="10"/>
       <c r="F335" s="10"/>
@@ -3844,7 +3805,7 @@
       <c r="I335" s="10"/>
       <c r="K335" s="10"/>
     </row>
-    <row r="336" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" ht="15.75" customHeight="1">
       <c r="A336" s="10"/>
       <c r="E336" s="10"/>
       <c r="F336" s="10"/>
@@ -3852,7 +3813,7 @@
       <c r="I336" s="10"/>
       <c r="K336" s="10"/>
     </row>
-    <row r="337" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" ht="15.75" customHeight="1">
       <c r="A337" s="10"/>
       <c r="E337" s="10"/>
       <c r="F337" s="10"/>
@@ -3860,7 +3821,7 @@
       <c r="I337" s="10"/>
       <c r="K337" s="10"/>
     </row>
-    <row r="338" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" ht="15.75" customHeight="1">
       <c r="A338" s="10"/>
       <c r="E338" s="10"/>
       <c r="F338" s="10"/>
@@ -3868,7 +3829,7 @@
       <c r="I338" s="10"/>
       <c r="K338" s="10"/>
     </row>
-    <row r="339" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" ht="15.75" customHeight="1">
       <c r="A339" s="10"/>
       <c r="E339" s="10"/>
       <c r="F339" s="10"/>
@@ -3876,7 +3837,7 @@
       <c r="I339" s="10"/>
       <c r="K339" s="10"/>
     </row>
-    <row r="340" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" ht="15.75" customHeight="1">
       <c r="A340" s="10"/>
       <c r="E340" s="10"/>
       <c r="F340" s="10"/>
@@ -3884,7 +3845,7 @@
       <c r="I340" s="10"/>
       <c r="K340" s="10"/>
     </row>
-    <row r="341" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" ht="15.75" customHeight="1">
       <c r="A341" s="10"/>
       <c r="E341" s="10"/>
       <c r="F341" s="10"/>
@@ -3892,7 +3853,7 @@
       <c r="I341" s="10"/>
       <c r="K341" s="10"/>
     </row>
-    <row r="342" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" ht="15.75" customHeight="1">
       <c r="A342" s="10"/>
       <c r="E342" s="10"/>
       <c r="F342" s="10"/>
@@ -3900,7 +3861,7 @@
       <c r="I342" s="10"/>
       <c r="K342" s="10"/>
     </row>
-    <row r="343" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" ht="15.75" customHeight="1">
       <c r="A343" s="10"/>
       <c r="E343" s="10"/>
       <c r="F343" s="10"/>
@@ -3908,7 +3869,7 @@
       <c r="I343" s="10"/>
       <c r="K343" s="10"/>
     </row>
-    <row r="344" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" ht="15.75" customHeight="1">
       <c r="A344" s="10"/>
       <c r="E344" s="10"/>
       <c r="F344" s="10"/>
@@ -3916,7 +3877,7 @@
       <c r="I344" s="10"/>
       <c r="K344" s="10"/>
     </row>
-    <row r="345" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" ht="15.75" customHeight="1">
       <c r="A345" s="10"/>
       <c r="E345" s="10"/>
       <c r="F345" s="10"/>
@@ -3924,7 +3885,7 @@
       <c r="I345" s="10"/>
       <c r="K345" s="10"/>
     </row>
-    <row r="346" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" ht="15.75" customHeight="1">
       <c r="A346" s="10"/>
       <c r="E346" s="10"/>
       <c r="F346" s="10"/>
@@ -3932,7 +3893,7 @@
       <c r="I346" s="10"/>
       <c r="K346" s="10"/>
     </row>
-    <row r="347" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" ht="15.75" customHeight="1">
       <c r="A347" s="10"/>
       <c r="E347" s="10"/>
       <c r="F347" s="10"/>
@@ -3940,7 +3901,7 @@
       <c r="I347" s="10"/>
       <c r="K347" s="10"/>
     </row>
-    <row r="348" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" ht="15.75" customHeight="1">
       <c r="A348" s="10"/>
       <c r="E348" s="10"/>
       <c r="F348" s="10"/>
@@ -3948,7 +3909,7 @@
       <c r="I348" s="10"/>
       <c r="K348" s="10"/>
     </row>
-    <row r="349" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" ht="15.75" customHeight="1">
       <c r="A349" s="10"/>
       <c r="E349" s="10"/>
       <c r="F349" s="10"/>
@@ -3956,7 +3917,7 @@
       <c r="I349" s="10"/>
       <c r="K349" s="10"/>
     </row>
-    <row r="350" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" ht="15.75" customHeight="1">
       <c r="A350" s="10"/>
       <c r="E350" s="10"/>
       <c r="F350" s="10"/>
@@ -3964,7 +3925,7 @@
       <c r="I350" s="10"/>
       <c r="K350" s="10"/>
     </row>
-    <row r="351" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" ht="15.75" customHeight="1">
       <c r="A351" s="10"/>
       <c r="E351" s="10"/>
       <c r="F351" s="10"/>
@@ -3972,7 +3933,7 @@
       <c r="I351" s="10"/>
       <c r="K351" s="10"/>
     </row>
-    <row r="352" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" ht="15.75" customHeight="1">
       <c r="A352" s="10"/>
       <c r="E352" s="10"/>
       <c r="F352" s="10"/>
@@ -3980,7 +3941,7 @@
       <c r="I352" s="10"/>
       <c r="K352" s="10"/>
     </row>
-    <row r="353" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" ht="15.75" customHeight="1">
       <c r="A353" s="10"/>
       <c r="E353" s="10"/>
       <c r="F353" s="10"/>
@@ -3988,7 +3949,7 @@
       <c r="I353" s="10"/>
       <c r="K353" s="10"/>
     </row>
-    <row r="354" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" ht="15.75" customHeight="1">
       <c r="A354" s="10"/>
       <c r="E354" s="10"/>
       <c r="F354" s="10"/>
@@ -3996,7 +3957,7 @@
       <c r="I354" s="10"/>
       <c r="K354" s="10"/>
     </row>
-    <row r="355" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" ht="15.75" customHeight="1">
       <c r="A355" s="10"/>
       <c r="E355" s="10"/>
       <c r="F355" s="10"/>
@@ -4004,7 +3965,7 @@
       <c r="I355" s="10"/>
       <c r="K355" s="10"/>
     </row>
-    <row r="356" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" ht="15.75" customHeight="1">
       <c r="A356" s="10"/>
       <c r="E356" s="10"/>
       <c r="F356" s="10"/>
@@ -4012,7 +3973,7 @@
       <c r="I356" s="10"/>
       <c r="K356" s="10"/>
     </row>
-    <row r="357" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" ht="15.75" customHeight="1">
       <c r="A357" s="10"/>
       <c r="E357" s="10"/>
       <c r="F357" s="10"/>
@@ -4020,7 +3981,7 @@
       <c r="I357" s="10"/>
       <c r="K357" s="10"/>
     </row>
-    <row r="358" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" ht="15.75" customHeight="1">
       <c r="A358" s="10"/>
       <c r="E358" s="10"/>
       <c r="F358" s="10"/>
@@ -4028,7 +3989,7 @@
       <c r="I358" s="10"/>
       <c r="K358" s="10"/>
     </row>
-    <row r="359" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" ht="15.75" customHeight="1">
       <c r="A359" s="10"/>
       <c r="E359" s="10"/>
       <c r="F359" s="10"/>
@@ -4036,7 +3997,7 @@
       <c r="I359" s="10"/>
       <c r="K359" s="10"/>
     </row>
-    <row r="360" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" ht="15.75" customHeight="1">
       <c r="A360" s="10"/>
       <c r="E360" s="10"/>
       <c r="F360" s="10"/>
@@ -4044,7 +4005,7 @@
       <c r="I360" s="10"/>
       <c r="K360" s="10"/>
     </row>
-    <row r="361" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" ht="15.75" customHeight="1">
       <c r="A361" s="10"/>
       <c r="E361" s="10"/>
       <c r="F361" s="10"/>
@@ -4052,7 +4013,7 @@
       <c r="I361" s="10"/>
       <c r="K361" s="10"/>
     </row>
-    <row r="362" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" ht="15.75" customHeight="1">
       <c r="A362" s="10"/>
       <c r="E362" s="10"/>
       <c r="F362" s="10"/>
@@ -4060,7 +4021,7 @@
       <c r="I362" s="10"/>
       <c r="K362" s="10"/>
     </row>
-    <row r="363" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" ht="15.75" customHeight="1">
       <c r="A363" s="10"/>
       <c r="E363" s="10"/>
       <c r="F363" s="10"/>
@@ -4068,7 +4029,7 @@
       <c r="I363" s="10"/>
       <c r="K363" s="10"/>
     </row>
-    <row r="364" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" ht="15.75" customHeight="1">
       <c r="A364" s="10"/>
       <c r="E364" s="10"/>
       <c r="F364" s="10"/>
@@ -4076,7 +4037,7 @@
       <c r="I364" s="10"/>
       <c r="K364" s="10"/>
     </row>
-    <row r="365" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" ht="15.75" customHeight="1">
       <c r="A365" s="10"/>
       <c r="E365" s="10"/>
       <c r="F365" s="10"/>
@@ -4084,7 +4045,7 @@
       <c r="I365" s="10"/>
       <c r="K365" s="10"/>
     </row>
-    <row r="366" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" ht="15.75" customHeight="1">
       <c r="A366" s="10"/>
       <c r="E366" s="10"/>
       <c r="F366" s="10"/>
@@ -4092,7 +4053,7 @@
       <c r="I366" s="10"/>
       <c r="K366" s="10"/>
     </row>
-    <row r="367" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" ht="15.75" customHeight="1">
       <c r="A367" s="10"/>
       <c r="E367" s="10"/>
       <c r="F367" s="10"/>
@@ -4100,7 +4061,7 @@
       <c r="I367" s="10"/>
       <c r="K367" s="10"/>
     </row>
-    <row r="368" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" ht="15.75" customHeight="1">
       <c r="A368" s="10"/>
       <c r="E368" s="10"/>
       <c r="F368" s="10"/>
@@ -4108,7 +4069,7 @@
       <c r="I368" s="10"/>
       <c r="K368" s="10"/>
     </row>
-    <row r="369" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" ht="15.75" customHeight="1">
       <c r="A369" s="10"/>
       <c r="E369" s="10"/>
       <c r="F369" s="10"/>
@@ -4116,7 +4077,7 @@
       <c r="I369" s="10"/>
       <c r="K369" s="10"/>
     </row>
-    <row r="370" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" ht="15.75" customHeight="1">
       <c r="A370" s="10"/>
       <c r="E370" s="10"/>
       <c r="F370" s="10"/>
@@ -4124,7 +4085,7 @@
       <c r="I370" s="10"/>
       <c r="K370" s="10"/>
     </row>
-    <row r="371" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" ht="15.75" customHeight="1">
       <c r="A371" s="10"/>
       <c r="E371" s="10"/>
       <c r="F371" s="10"/>
@@ -4132,7 +4093,7 @@
       <c r="I371" s="10"/>
       <c r="K371" s="10"/>
     </row>
-    <row r="372" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" ht="15.75" customHeight="1">
       <c r="A372" s="10"/>
       <c r="E372" s="10"/>
       <c r="F372" s="10"/>
@@ -4140,7 +4101,7 @@
       <c r="I372" s="10"/>
       <c r="K372" s="10"/>
     </row>
-    <row r="373" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" ht="15.75" customHeight="1">
       <c r="A373" s="10"/>
       <c r="E373" s="10"/>
       <c r="F373" s="10"/>
@@ -4148,7 +4109,7 @@
       <c r="I373" s="10"/>
       <c r="K373" s="10"/>
     </row>
-    <row r="374" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" ht="15.75" customHeight="1">
       <c r="A374" s="10"/>
       <c r="E374" s="10"/>
       <c r="F374" s="10"/>
@@ -4156,7 +4117,7 @@
       <c r="I374" s="10"/>
       <c r="K374" s="10"/>
     </row>
-    <row r="375" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" ht="15.75" customHeight="1">
       <c r="A375" s="10"/>
       <c r="E375" s="10"/>
       <c r="F375" s="10"/>
@@ -4164,7 +4125,7 @@
       <c r="I375" s="10"/>
       <c r="K375" s="10"/>
     </row>
-    <row r="376" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" ht="15.75" customHeight="1">
       <c r="A376" s="10"/>
       <c r="E376" s="10"/>
       <c r="F376" s="10"/>
@@ -4172,7 +4133,7 @@
       <c r="I376" s="10"/>
       <c r="K376" s="10"/>
     </row>
-    <row r="377" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" ht="15.75" customHeight="1">
       <c r="A377" s="10"/>
       <c r="E377" s="10"/>
       <c r="F377" s="10"/>
@@ -4180,7 +4141,7 @@
       <c r="I377" s="10"/>
       <c r="K377" s="10"/>
     </row>
-    <row r="378" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" ht="15.75" customHeight="1">
       <c r="A378" s="10"/>
       <c r="E378" s="10"/>
       <c r="F378" s="10"/>
@@ -4188,7 +4149,7 @@
       <c r="I378" s="10"/>
       <c r="K378" s="10"/>
     </row>
-    <row r="379" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" ht="15.75" customHeight="1">
       <c r="A379" s="10"/>
       <c r="E379" s="10"/>
       <c r="F379" s="10"/>
@@ -4196,7 +4157,7 @@
       <c r="I379" s="10"/>
       <c r="K379" s="10"/>
     </row>
-    <row r="380" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" ht="15.75" customHeight="1">
       <c r="A380" s="10"/>
       <c r="E380" s="10"/>
       <c r="F380" s="10"/>
@@ -4204,7 +4165,7 @@
       <c r="I380" s="10"/>
       <c r="K380" s="10"/>
     </row>
-    <row r="381" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" ht="15.75" customHeight="1">
       <c r="A381" s="10"/>
       <c r="E381" s="10"/>
       <c r="F381" s="10"/>
@@ -4212,7 +4173,7 @@
       <c r="I381" s="10"/>
       <c r="K381" s="10"/>
     </row>
-    <row r="382" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" ht="15.75" customHeight="1">
       <c r="A382" s="10"/>
       <c r="E382" s="10"/>
       <c r="F382" s="10"/>
@@ -4220,7 +4181,7 @@
       <c r="I382" s="10"/>
       <c r="K382" s="10"/>
     </row>
-    <row r="383" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" ht="15.75" customHeight="1">
       <c r="A383" s="10"/>
       <c r="E383" s="10"/>
       <c r="F383" s="10"/>
@@ -4228,7 +4189,7 @@
       <c r="I383" s="10"/>
       <c r="K383" s="10"/>
     </row>
-    <row r="384" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" ht="15.75" customHeight="1">
       <c r="A384" s="10"/>
       <c r="E384" s="10"/>
       <c r="F384" s="10"/>
@@ -4236,7 +4197,7 @@
       <c r="I384" s="10"/>
       <c r="K384" s="10"/>
     </row>
-    <row r="385" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" ht="15.75" customHeight="1">
       <c r="A385" s="10"/>
       <c r="E385" s="10"/>
       <c r="F385" s="10"/>
@@ -4244,7 +4205,7 @@
       <c r="I385" s="10"/>
       <c r="K385" s="10"/>
     </row>
-    <row r="386" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" ht="15.75" customHeight="1">
       <c r="A386" s="10"/>
       <c r="E386" s="10"/>
       <c r="F386" s="10"/>
@@ -4252,7 +4213,7 @@
       <c r="I386" s="10"/>
       <c r="K386" s="10"/>
     </row>
-    <row r="387" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" ht="15.75" customHeight="1">
       <c r="A387" s="10"/>
       <c r="E387" s="10"/>
       <c r="F387" s="10"/>
@@ -4260,7 +4221,7 @@
       <c r="I387" s="10"/>
       <c r="K387" s="10"/>
     </row>
-    <row r="388" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" ht="15.75" customHeight="1">
       <c r="A388" s="10"/>
       <c r="E388" s="10"/>
       <c r="F388" s="10"/>
@@ -4268,7 +4229,7 @@
       <c r="I388" s="10"/>
       <c r="K388" s="10"/>
     </row>
-    <row r="389" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" ht="15.75" customHeight="1">
       <c r="A389" s="10"/>
       <c r="E389" s="10"/>
       <c r="F389" s="10"/>
@@ -4276,7 +4237,7 @@
       <c r="I389" s="10"/>
       <c r="K389" s="10"/>
     </row>
-    <row r="390" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" ht="15.75" customHeight="1">
       <c r="A390" s="10"/>
       <c r="E390" s="10"/>
       <c r="F390" s="10"/>
@@ -4284,7 +4245,7 @@
       <c r="I390" s="10"/>
       <c r="K390" s="10"/>
     </row>
-    <row r="391" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" ht="15.75" customHeight="1">
       <c r="A391" s="10"/>
       <c r="E391" s="10"/>
       <c r="F391" s="10"/>
@@ -4292,7 +4253,7 @@
       <c r="I391" s="10"/>
       <c r="K391" s="10"/>
     </row>
-    <row r="392" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" ht="15.75" customHeight="1">
       <c r="A392" s="10"/>
       <c r="E392" s="10"/>
       <c r="F392" s="10"/>
@@ -4300,7 +4261,7 @@
       <c r="I392" s="10"/>
       <c r="K392" s="10"/>
     </row>
-    <row r="393" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" ht="15.75" customHeight="1">
       <c r="A393" s="10"/>
       <c r="E393" s="10"/>
       <c r="F393" s="10"/>
@@ -4308,7 +4269,7 @@
       <c r="I393" s="10"/>
       <c r="K393" s="10"/>
     </row>
-    <row r="394" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" ht="15.75" customHeight="1">
       <c r="A394" s="10"/>
       <c r="E394" s="10"/>
       <c r="F394" s="10"/>
@@ -4316,7 +4277,7 @@
       <c r="I394" s="10"/>
       <c r="K394" s="10"/>
     </row>
-    <row r="395" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" ht="15.75" customHeight="1">
       <c r="A395" s="10"/>
       <c r="E395" s="10"/>
       <c r="F395" s="10"/>
@@ -4324,7 +4285,7 @@
       <c r="I395" s="10"/>
       <c r="K395" s="10"/>
     </row>
-    <row r="396" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" ht="15.75" customHeight="1">
       <c r="A396" s="10"/>
       <c r="E396" s="10"/>
       <c r="F396" s="10"/>
@@ -4332,7 +4293,7 @@
       <c r="I396" s="10"/>
       <c r="K396" s="10"/>
     </row>
-    <row r="397" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" ht="15.75" customHeight="1">
       <c r="A397" s="10"/>
       <c r="E397" s="10"/>
       <c r="F397" s="10"/>
@@ -4340,7 +4301,7 @@
       <c r="I397" s="10"/>
       <c r="K397" s="10"/>
     </row>
-    <row r="398" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" ht="15.75" customHeight="1">
       <c r="A398" s="10"/>
       <c r="E398" s="10"/>
       <c r="F398" s="10"/>
@@ -4348,7 +4309,7 @@
       <c r="I398" s="10"/>
       <c r="K398" s="10"/>
     </row>
-    <row r="399" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" ht="15.75" customHeight="1">
       <c r="A399" s="10"/>
       <c r="E399" s="10"/>
       <c r="F399" s="10"/>
@@ -4356,7 +4317,7 @@
       <c r="I399" s="10"/>
       <c r="K399" s="10"/>
     </row>
-    <row r="400" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" ht="15.75" customHeight="1">
       <c r="A400" s="10"/>
       <c r="E400" s="10"/>
       <c r="F400" s="10"/>
@@ -4364,7 +4325,7 @@
       <c r="I400" s="10"/>
       <c r="K400" s="10"/>
     </row>
-    <row r="401" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" ht="15.75" customHeight="1">
       <c r="A401" s="10"/>
       <c r="E401" s="10"/>
       <c r="F401" s="10"/>
@@ -4372,7 +4333,7 @@
       <c r="I401" s="10"/>
       <c r="K401" s="10"/>
     </row>
-    <row r="402" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11" ht="15.75" customHeight="1">
       <c r="A402" s="10"/>
       <c r="E402" s="10"/>
       <c r="F402" s="10"/>
@@ -4380,7 +4341,7 @@
       <c r="I402" s="10"/>
       <c r="K402" s="10"/>
     </row>
-    <row r="403" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11" ht="15.75" customHeight="1">
       <c r="A403" s="10"/>
       <c r="E403" s="10"/>
       <c r="F403" s="10"/>
@@ -4388,7 +4349,7 @@
       <c r="I403" s="10"/>
       <c r="K403" s="10"/>
     </row>
-    <row r="404" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" ht="15.75" customHeight="1">
       <c r="A404" s="10"/>
       <c r="E404" s="10"/>
       <c r="F404" s="10"/>
@@ -4396,7 +4357,7 @@
       <c r="I404" s="10"/>
       <c r="K404" s="10"/>
     </row>
-    <row r="405" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" ht="15.75" customHeight="1">
       <c r="A405" s="10"/>
       <c r="E405" s="10"/>
       <c r="F405" s="10"/>
@@ -4404,7 +4365,7 @@
       <c r="I405" s="10"/>
       <c r="K405" s="10"/>
     </row>
-    <row r="406" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" ht="15.75" customHeight="1">
       <c r="A406" s="10"/>
       <c r="E406" s="10"/>
       <c r="F406" s="10"/>
@@ -4412,7 +4373,7 @@
       <c r="I406" s="10"/>
       <c r="K406" s="10"/>
     </row>
-    <row r="407" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11" ht="15.75" customHeight="1">
       <c r="A407" s="10"/>
       <c r="E407" s="10"/>
       <c r="F407" s="10"/>
@@ -4420,7 +4381,7 @@
       <c r="I407" s="10"/>
       <c r="K407" s="10"/>
     </row>
-    <row r="408" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11" ht="15.75" customHeight="1">
       <c r="A408" s="10"/>
       <c r="E408" s="10"/>
       <c r="F408" s="10"/>
@@ -4428,7 +4389,7 @@
       <c r="I408" s="10"/>
       <c r="K408" s="10"/>
     </row>
-    <row r="409" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11" ht="15.75" customHeight="1">
       <c r="A409" s="10"/>
       <c r="E409" s="10"/>
       <c r="F409" s="10"/>
@@ -4436,7 +4397,7 @@
       <c r="I409" s="10"/>
       <c r="K409" s="10"/>
     </row>
-    <row r="410" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11" ht="15.75" customHeight="1">
       <c r="A410" s="10"/>
       <c r="E410" s="10"/>
       <c r="F410" s="10"/>
@@ -4444,7 +4405,7 @@
       <c r="I410" s="10"/>
       <c r="K410" s="10"/>
     </row>
-    <row r="411" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11" ht="15.75" customHeight="1">
       <c r="A411" s="10"/>
       <c r="E411" s="10"/>
       <c r="F411" s="10"/>
@@ -4452,7 +4413,7 @@
       <c r="I411" s="10"/>
       <c r="K411" s="10"/>
     </row>
-    <row r="412" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11" ht="15.75" customHeight="1">
       <c r="A412" s="10"/>
       <c r="E412" s="10"/>
       <c r="F412" s="10"/>
@@ -4460,7 +4421,7 @@
       <c r="I412" s="10"/>
       <c r="K412" s="10"/>
     </row>
-    <row r="413" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11" ht="15.75" customHeight="1">
       <c r="A413" s="10"/>
       <c r="E413" s="10"/>
       <c r="F413" s="10"/>
@@ -4468,7 +4429,7 @@
       <c r="I413" s="10"/>
       <c r="K413" s="10"/>
     </row>
-    <row r="414" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11" ht="15.75" customHeight="1">
       <c r="A414" s="10"/>
       <c r="E414" s="10"/>
       <c r="F414" s="10"/>
@@ -4476,7 +4437,7 @@
       <c r="I414" s="10"/>
       <c r="K414" s="10"/>
     </row>
-    <row r="415" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11" ht="15.75" customHeight="1">
       <c r="A415" s="10"/>
       <c r="E415" s="10"/>
       <c r="F415" s="10"/>
@@ -4484,7 +4445,7 @@
       <c r="I415" s="10"/>
       <c r="K415" s="10"/>
     </row>
-    <row r="416" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11" ht="15.75" customHeight="1">
       <c r="A416" s="10"/>
       <c r="E416" s="10"/>
       <c r="F416" s="10"/>
@@ -4492,7 +4453,7 @@
       <c r="I416" s="10"/>
       <c r="K416" s="10"/>
     </row>
-    <row r="417" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11" ht="15.75" customHeight="1">
       <c r="A417" s="10"/>
       <c r="E417" s="10"/>
       <c r="F417" s="10"/>
@@ -4500,7 +4461,7 @@
       <c r="I417" s="10"/>
       <c r="K417" s="10"/>
     </row>
-    <row r="418" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11" ht="15.75" customHeight="1">
       <c r="A418" s="10"/>
       <c r="E418" s="10"/>
       <c r="F418" s="10"/>
@@ -4508,7 +4469,7 @@
       <c r="I418" s="10"/>
       <c r="K418" s="10"/>
     </row>
-    <row r="419" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:11" ht="15.75" customHeight="1">
       <c r="A419" s="10"/>
       <c r="E419" s="10"/>
       <c r="F419" s="10"/>
@@ -4516,7 +4477,7 @@
       <c r="I419" s="10"/>
       <c r="K419" s="10"/>
     </row>
-    <row r="420" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" ht="15.75" customHeight="1">
       <c r="A420" s="10"/>
       <c r="E420" s="10"/>
       <c r="F420" s="10"/>
@@ -4524,7 +4485,7 @@
       <c r="I420" s="10"/>
       <c r="K420" s="10"/>
     </row>
-    <row r="421" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11" ht="15.75" customHeight="1">
       <c r="A421" s="10"/>
       <c r="E421" s="10"/>
       <c r="F421" s="10"/>
@@ -4532,7 +4493,7 @@
       <c r="I421" s="10"/>
       <c r="K421" s="10"/>
     </row>
-    <row r="422" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:11" ht="15.75" customHeight="1">
       <c r="A422" s="10"/>
       <c r="E422" s="10"/>
       <c r="F422" s="10"/>
@@ -4540,7 +4501,7 @@
       <c r="I422" s="10"/>
       <c r="K422" s="10"/>
     </row>
-    <row r="423" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11" ht="15.75" customHeight="1">
       <c r="A423" s="10"/>
       <c r="E423" s="10"/>
       <c r="F423" s="10"/>
@@ -4548,7 +4509,7 @@
       <c r="I423" s="10"/>
       <c r="K423" s="10"/>
     </row>
-    <row r="424" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:11" ht="15.75" customHeight="1">
       <c r="A424" s="10"/>
       <c r="E424" s="10"/>
       <c r="F424" s="10"/>
@@ -4556,7 +4517,7 @@
       <c r="I424" s="10"/>
       <c r="K424" s="10"/>
     </row>
-    <row r="425" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:11" ht="15.75" customHeight="1">
       <c r="A425" s="10"/>
       <c r="E425" s="10"/>
       <c r="F425" s="10"/>
@@ -4564,7 +4525,7 @@
       <c r="I425" s="10"/>
       <c r="K425" s="10"/>
     </row>
-    <row r="426" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:11" ht="15.75" customHeight="1">
       <c r="A426" s="10"/>
       <c r="E426" s="10"/>
       <c r="F426" s="10"/>
@@ -4572,7 +4533,7 @@
       <c r="I426" s="10"/>
       <c r="K426" s="10"/>
     </row>
-    <row r="427" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:11" ht="15.75" customHeight="1">
       <c r="A427" s="10"/>
       <c r="E427" s="10"/>
       <c r="F427" s="10"/>
@@ -4580,7 +4541,7 @@
       <c r="I427" s="10"/>
       <c r="K427" s="10"/>
     </row>
-    <row r="428" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:11" ht="15.75" customHeight="1">
       <c r="A428" s="10"/>
       <c r="E428" s="10"/>
       <c r="F428" s="10"/>
@@ -4588,7 +4549,7 @@
       <c r="I428" s="10"/>
       <c r="K428" s="10"/>
     </row>
-    <row r="429" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:11" ht="15.75" customHeight="1">
       <c r="A429" s="10"/>
       <c r="E429" s="10"/>
       <c r="F429" s="10"/>
@@ -4596,7 +4557,7 @@
       <c r="I429" s="10"/>
       <c r="K429" s="10"/>
     </row>
-    <row r="430" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:11" ht="15.75" customHeight="1">
       <c r="A430" s="10"/>
       <c r="E430" s="10"/>
       <c r="F430" s="10"/>
@@ -4604,7 +4565,7 @@
       <c r="I430" s="10"/>
       <c r="K430" s="10"/>
     </row>
-    <row r="431" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:11" ht="15.75" customHeight="1">
       <c r="A431" s="10"/>
       <c r="E431" s="10"/>
       <c r="F431" s="10"/>
@@ -4612,7 +4573,7 @@
       <c r="I431" s="10"/>
       <c r="K431" s="10"/>
     </row>
-    <row r="432" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:11" ht="15.75" customHeight="1">
       <c r="A432" s="10"/>
       <c r="E432" s="10"/>
       <c r="F432" s="10"/>
@@ -4620,7 +4581,7 @@
       <c r="I432" s="10"/>
       <c r="K432" s="10"/>
     </row>
-    <row r="433" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:11" ht="15.75" customHeight="1">
       <c r="A433" s="10"/>
       <c r="E433" s="10"/>
       <c r="F433" s="10"/>
@@ -4628,7 +4589,7 @@
       <c r="I433" s="10"/>
       <c r="K433" s="10"/>
     </row>
-    <row r="434" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:11" ht="15.75" customHeight="1">
       <c r="A434" s="10"/>
       <c r="E434" s="10"/>
       <c r="F434" s="10"/>
@@ -4636,7 +4597,7 @@
       <c r="I434" s="10"/>
       <c r="K434" s="10"/>
     </row>
-    <row r="435" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:11" ht="15.75" customHeight="1">
       <c r="A435" s="10"/>
       <c r="E435" s="10"/>
       <c r="F435" s="10"/>
@@ -4644,7 +4605,7 @@
       <c r="I435" s="10"/>
       <c r="K435" s="10"/>
     </row>
-    <row r="436" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:11" ht="15.75" customHeight="1">
       <c r="A436" s="10"/>
       <c r="E436" s="10"/>
       <c r="F436" s="10"/>
@@ -4652,7 +4613,7 @@
       <c r="I436" s="10"/>
       <c r="K436" s="10"/>
     </row>
-    <row r="437" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:11" ht="15.75" customHeight="1">
       <c r="A437" s="10"/>
       <c r="E437" s="10"/>
       <c r="F437" s="10"/>
@@ -4660,7 +4621,7 @@
       <c r="I437" s="10"/>
       <c r="K437" s="10"/>
     </row>
-    <row r="438" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:11" ht="15.75" customHeight="1">
       <c r="A438" s="10"/>
       <c r="E438" s="10"/>
       <c r="F438" s="10"/>
@@ -4668,7 +4629,7 @@
       <c r="I438" s="10"/>
       <c r="K438" s="10"/>
     </row>
-    <row r="439" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:11" ht="15.75" customHeight="1">
       <c r="A439" s="10"/>
       <c r="E439" s="10"/>
       <c r="F439" s="10"/>
@@ -4676,7 +4637,7 @@
       <c r="I439" s="10"/>
       <c r="K439" s="10"/>
     </row>
-    <row r="440" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:11" ht="15.75" customHeight="1">
       <c r="A440" s="10"/>
       <c r="E440" s="10"/>
       <c r="F440" s="10"/>
@@ -4684,7 +4645,7 @@
       <c r="I440" s="10"/>
       <c r="K440" s="10"/>
     </row>
-    <row r="441" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:11" ht="15.75" customHeight="1">
       <c r="A441" s="10"/>
       <c r="E441" s="10"/>
       <c r="F441" s="10"/>
@@ -4692,7 +4653,7 @@
       <c r="I441" s="10"/>
       <c r="K441" s="10"/>
     </row>
-    <row r="442" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:11" ht="15.75" customHeight="1">
       <c r="A442" s="10"/>
       <c r="E442" s="10"/>
       <c r="F442" s="10"/>
@@ -4700,7 +4661,7 @@
       <c r="I442" s="10"/>
       <c r="K442" s="10"/>
     </row>
-    <row r="443" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:11" ht="15.75" customHeight="1">
       <c r="A443" s="10"/>
       <c r="E443" s="10"/>
       <c r="F443" s="10"/>
@@ -4708,7 +4669,7 @@
       <c r="I443" s="10"/>
       <c r="K443" s="10"/>
     </row>
-    <row r="444" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:11" ht="15.75" customHeight="1">
       <c r="A444" s="10"/>
       <c r="E444" s="10"/>
       <c r="F444" s="10"/>
@@ -4716,7 +4677,7 @@
       <c r="I444" s="10"/>
       <c r="K444" s="10"/>
     </row>
-    <row r="445" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:11" ht="15.75" customHeight="1">
       <c r="A445" s="10"/>
       <c r="E445" s="10"/>
       <c r="F445" s="10"/>
@@ -4724,7 +4685,7 @@
       <c r="I445" s="10"/>
       <c r="K445" s="10"/>
     </row>
-    <row r="446" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:11" ht="15.75" customHeight="1">
       <c r="A446" s="10"/>
       <c r="E446" s="10"/>
       <c r="F446" s="10"/>
@@ -4732,7 +4693,7 @@
       <c r="I446" s="10"/>
       <c r="K446" s="10"/>
     </row>
-    <row r="447" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:11" ht="15.75" customHeight="1">
       <c r="A447" s="10"/>
       <c r="E447" s="10"/>
       <c r="F447" s="10"/>
@@ -4740,7 +4701,7 @@
       <c r="I447" s="10"/>
       <c r="K447" s="10"/>
     </row>
-    <row r="448" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:11" ht="15.75" customHeight="1">
       <c r="A448" s="10"/>
       <c r="E448" s="10"/>
       <c r="F448" s="10"/>
@@ -4748,7 +4709,7 @@
       <c r="I448" s="10"/>
       <c r="K448" s="10"/>
     </row>
-    <row r="449" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:11" ht="15.75" customHeight="1">
       <c r="A449" s="10"/>
       <c r="E449" s="10"/>
       <c r="F449" s="10"/>
@@ -4756,7 +4717,7 @@
       <c r="I449" s="10"/>
       <c r="K449" s="10"/>
     </row>
-    <row r="450" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:11" ht="15.75" customHeight="1">
       <c r="A450" s="10"/>
       <c r="E450" s="10"/>
       <c r="F450" s="10"/>
@@ -4764,7 +4725,7 @@
       <c r="I450" s="10"/>
       <c r="K450" s="10"/>
     </row>
-    <row r="451" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:11" ht="15.75" customHeight="1">
       <c r="A451" s="10"/>
       <c r="E451" s="10"/>
       <c r="F451" s="10"/>
@@ -4772,7 +4733,7 @@
       <c r="I451" s="10"/>
       <c r="K451" s="10"/>
     </row>
-    <row r="452" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:11" ht="15.75" customHeight="1">
       <c r="A452" s="10"/>
       <c r="E452" s="10"/>
       <c r="F452" s="10"/>
@@ -4780,7 +4741,7 @@
       <c r="I452" s="10"/>
       <c r="K452" s="10"/>
     </row>
-    <row r="453" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:11" ht="15.75" customHeight="1">
       <c r="A453" s="10"/>
       <c r="E453" s="10"/>
       <c r="F453" s="10"/>
@@ -4788,7 +4749,7 @@
       <c r="I453" s="10"/>
       <c r="K453" s="10"/>
     </row>
-    <row r="454" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:11" ht="15.75" customHeight="1">
       <c r="A454" s="10"/>
       <c r="E454" s="10"/>
       <c r="F454" s="10"/>
@@ -4796,7 +4757,7 @@
       <c r="I454" s="10"/>
       <c r="K454" s="10"/>
     </row>
-    <row r="455" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:11" ht="15.75" customHeight="1">
       <c r="A455" s="10"/>
       <c r="E455" s="10"/>
       <c r="F455" s="10"/>
@@ -4804,7 +4765,7 @@
       <c r="I455" s="10"/>
       <c r="K455" s="10"/>
     </row>
-    <row r="456" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:11" ht="15.75" customHeight="1">
       <c r="A456" s="10"/>
       <c r="E456" s="10"/>
       <c r="F456" s="10"/>
@@ -4812,7 +4773,7 @@
       <c r="I456" s="10"/>
       <c r="K456" s="10"/>
     </row>
-    <row r="457" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:11" ht="15.75" customHeight="1">
       <c r="A457" s="10"/>
       <c r="E457" s="10"/>
       <c r="F457" s="10"/>
@@ -4820,7 +4781,7 @@
       <c r="I457" s="10"/>
       <c r="K457" s="10"/>
     </row>
-    <row r="458" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:11" ht="15.75" customHeight="1">
       <c r="A458" s="10"/>
       <c r="E458" s="10"/>
       <c r="F458" s="10"/>
@@ -4828,7 +4789,7 @@
       <c r="I458" s="10"/>
       <c r="K458" s="10"/>
     </row>
-    <row r="459" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:11" ht="15.75" customHeight="1">
       <c r="A459" s="10"/>
       <c r="E459" s="10"/>
       <c r="F459" s="10"/>
@@ -4836,7 +4797,7 @@
       <c r="I459" s="10"/>
       <c r="K459" s="10"/>
     </row>
-    <row r="460" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:11" ht="15.75" customHeight="1">
       <c r="A460" s="10"/>
       <c r="E460" s="10"/>
       <c r="F460" s="10"/>
@@ -4844,7 +4805,7 @@
       <c r="I460" s="10"/>
       <c r="K460" s="10"/>
     </row>
-    <row r="461" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:11" ht="15.75" customHeight="1">
       <c r="A461" s="10"/>
       <c r="E461" s="10"/>
       <c r="F461" s="10"/>
@@ -4852,7 +4813,7 @@
       <c r="I461" s="10"/>
       <c r="K461" s="10"/>
     </row>
-    <row r="462" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:11" ht="15.75" customHeight="1">
       <c r="A462" s="10"/>
       <c r="E462" s="10"/>
       <c r="F462" s="10"/>
@@ -4860,7 +4821,7 @@
       <c r="I462" s="10"/>
       <c r="K462" s="10"/>
     </row>
-    <row r="463" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:11" ht="15.75" customHeight="1">
       <c r="A463" s="10"/>
       <c r="E463" s="10"/>
       <c r="F463" s="10"/>
@@ -4868,7 +4829,7 @@
       <c r="I463" s="10"/>
       <c r="K463" s="10"/>
     </row>
-    <row r="464" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:11" ht="15.75" customHeight="1">
       <c r="A464" s="10"/>
       <c r="E464" s="10"/>
       <c r="F464" s="10"/>
@@ -4876,7 +4837,7 @@
       <c r="I464" s="10"/>
       <c r="K464" s="10"/>
     </row>
-    <row r="465" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:11" ht="15.75" customHeight="1">
       <c r="A465" s="10"/>
       <c r="E465" s="10"/>
       <c r="F465" s="10"/>
@@ -4884,7 +4845,7 @@
       <c r="I465" s="10"/>
       <c r="K465" s="10"/>
     </row>
-    <row r="466" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:11" ht="15.75" customHeight="1">
       <c r="A466" s="10"/>
       <c r="E466" s="10"/>
       <c r="F466" s="10"/>
@@ -4892,7 +4853,7 @@
       <c r="I466" s="10"/>
       <c r="K466" s="10"/>
     </row>
-    <row r="467" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:11" ht="15.75" customHeight="1">
       <c r="A467" s="10"/>
       <c r="E467" s="10"/>
       <c r="F467" s="10"/>
@@ -4900,7 +4861,7 @@
       <c r="I467" s="10"/>
       <c r="K467" s="10"/>
     </row>
-    <row r="468" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:11" ht="15.75" customHeight="1">
       <c r="A468" s="10"/>
       <c r="E468" s="10"/>
       <c r="F468" s="10"/>
@@ -4908,7 +4869,7 @@
       <c r="I468" s="10"/>
       <c r="K468" s="10"/>
     </row>
-    <row r="469" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:11" ht="15.75" customHeight="1">
       <c r="A469" s="10"/>
       <c r="E469" s="10"/>
       <c r="F469" s="10"/>
@@ -4916,7 +4877,7 @@
       <c r="I469" s="10"/>
       <c r="K469" s="10"/>
     </row>
-    <row r="470" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:11" ht="15.75" customHeight="1">
       <c r="A470" s="10"/>
       <c r="E470" s="10"/>
       <c r="F470" s="10"/>
@@ -4924,7 +4885,7 @@
       <c r="I470" s="10"/>
       <c r="K470" s="10"/>
     </row>
-    <row r="471" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:11" ht="15.75" customHeight="1">
       <c r="A471" s="10"/>
       <c r="E471" s="10"/>
       <c r="F471" s="10"/>
@@ -4932,7 +4893,7 @@
       <c r="I471" s="10"/>
       <c r="K471" s="10"/>
     </row>
-    <row r="472" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:11" ht="15.75" customHeight="1">
       <c r="A472" s="10"/>
       <c r="E472" s="10"/>
       <c r="F472" s="10"/>
@@ -4940,7 +4901,7 @@
       <c r="I472" s="10"/>
       <c r="K472" s="10"/>
     </row>
-    <row r="473" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:11" ht="15.75" customHeight="1">
       <c r="A473" s="10"/>
       <c r="E473" s="10"/>
       <c r="F473" s="10"/>
@@ -4948,7 +4909,7 @@
       <c r="I473" s="10"/>
       <c r="K473" s="10"/>
     </row>
-    <row r="474" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:11" ht="15.75" customHeight="1">
       <c r="A474" s="10"/>
       <c r="E474" s="10"/>
       <c r="F474" s="10"/>
@@ -4956,7 +4917,7 @@
       <c r="I474" s="10"/>
       <c r="K474" s="10"/>
     </row>
-    <row r="475" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:11" ht="15.75" customHeight="1">
       <c r="A475" s="10"/>
       <c r="E475" s="10"/>
       <c r="F475" s="10"/>
@@ -4964,7 +4925,7 @@
       <c r="I475" s="10"/>
       <c r="K475" s="10"/>
     </row>
-    <row r="476" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:11" ht="15.75" customHeight="1">
       <c r="A476" s="10"/>
       <c r="E476" s="10"/>
       <c r="F476" s="10"/>
@@ -4972,7 +4933,7 @@
       <c r="I476" s="10"/>
       <c r="K476" s="10"/>
     </row>
-    <row r="477" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:11" ht="15.75" customHeight="1">
       <c r="A477" s="10"/>
       <c r="E477" s="10"/>
       <c r="F477" s="10"/>
@@ -4980,7 +4941,7 @@
       <c r="I477" s="10"/>
       <c r="K477" s="10"/>
     </row>
-    <row r="478" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:11" ht="15.75" customHeight="1">
       <c r="A478" s="10"/>
       <c r="E478" s="10"/>
       <c r="F478" s="10"/>
@@ -4988,7 +4949,7 @@
       <c r="I478" s="10"/>
       <c r="K478" s="10"/>
     </row>
-    <row r="479" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:11" ht="15.75" customHeight="1">
       <c r="A479" s="10"/>
       <c r="E479" s="10"/>
       <c r="F479" s="10"/>
@@ -4996,7 +4957,7 @@
       <c r="I479" s="10"/>
       <c r="K479" s="10"/>
     </row>
-    <row r="480" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:11" ht="15.75" customHeight="1">
       <c r="A480" s="10"/>
       <c r="E480" s="10"/>
       <c r="F480" s="10"/>
@@ -5004,7 +4965,7 @@
       <c r="I480" s="10"/>
       <c r="K480" s="10"/>
     </row>
-    <row r="481" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:11" ht="15.75" customHeight="1">
       <c r="A481" s="10"/>
       <c r="E481" s="10"/>
       <c r="F481" s="10"/>
@@ -5012,7 +4973,7 @@
       <c r="I481" s="10"/>
       <c r="K481" s="10"/>
     </row>
-    <row r="482" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:11" ht="15.75" customHeight="1">
       <c r="A482" s="10"/>
       <c r="E482" s="10"/>
       <c r="F482" s="10"/>
@@ -5020,7 +4981,7 @@
       <c r="I482" s="10"/>
       <c r="K482" s="10"/>
     </row>
-    <row r="483" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:11" ht="15.75" customHeight="1">
       <c r="A483" s="10"/>
       <c r="E483" s="10"/>
       <c r="F483" s="10"/>
@@ -5028,7 +4989,7 @@
       <c r="I483" s="10"/>
       <c r="K483" s="10"/>
     </row>
-    <row r="484" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:11" ht="15.75" customHeight="1">
       <c r="A484" s="10"/>
       <c r="E484" s="10"/>
       <c r="F484" s="10"/>
@@ -5036,7 +4997,7 @@
       <c r="I484" s="10"/>
       <c r="K484" s="10"/>
     </row>
-    <row r="485" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:11" ht="15.75" customHeight="1">
       <c r="A485" s="10"/>
       <c r="E485" s="10"/>
       <c r="F485" s="10"/>
@@ -5044,7 +5005,7 @@
       <c r="I485" s="10"/>
       <c r="K485" s="10"/>
     </row>
-    <row r="486" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:11" ht="15.75" customHeight="1">
       <c r="A486" s="10"/>
       <c r="E486" s="10"/>
       <c r="F486" s="10"/>
@@ -5052,7 +5013,7 @@
       <c r="I486" s="10"/>
       <c r="K486" s="10"/>
     </row>
-    <row r="487" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:11" ht="15.75" customHeight="1">
       <c r="A487" s="10"/>
       <c r="E487" s="10"/>
       <c r="F487" s="10"/>
@@ -5060,7 +5021,7 @@
       <c r="I487" s="10"/>
       <c r="K487" s="10"/>
     </row>
-    <row r="488" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:11" ht="15.75" customHeight="1">
       <c r="A488" s="10"/>
       <c r="E488" s="10"/>
       <c r="F488" s="10"/>
@@ -5068,7 +5029,7 @@
       <c r="I488" s="10"/>
       <c r="K488" s="10"/>
     </row>
-    <row r="489" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:11" ht="15.75" customHeight="1">
       <c r="A489" s="10"/>
       <c r="E489" s="10"/>
       <c r="F489" s="10"/>
@@ -5076,7 +5037,7 @@
       <c r="I489" s="10"/>
       <c r="K489" s="10"/>
     </row>
-    <row r="490" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:11" ht="15.75" customHeight="1">
       <c r="A490" s="10"/>
       <c r="E490" s="10"/>
       <c r="F490" s="10"/>
@@ -5084,7 +5045,7 @@
       <c r="I490" s="10"/>
       <c r="K490" s="10"/>
     </row>
-    <row r="491" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:11" ht="15.75" customHeight="1">
       <c r="A491" s="10"/>
       <c r="E491" s="10"/>
       <c r="F491" s="10"/>
@@ -5092,7 +5053,7 @@
       <c r="I491" s="10"/>
       <c r="K491" s="10"/>
     </row>
-    <row r="492" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:11" ht="15.75" customHeight="1">
       <c r="A492" s="10"/>
       <c r="E492" s="10"/>
       <c r="F492" s="10"/>
@@ -5100,7 +5061,7 @@
       <c r="I492" s="10"/>
       <c r="K492" s="10"/>
     </row>
-    <row r="493" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:11" ht="15.75" customHeight="1">
       <c r="A493" s="10"/>
       <c r="E493" s="10"/>
       <c r="F493" s="10"/>
@@ -5108,7 +5069,7 @@
       <c r="I493" s="10"/>
       <c r="K493" s="10"/>
     </row>
-    <row r="494" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:11" ht="15.75" customHeight="1">
       <c r="A494" s="10"/>
       <c r="E494" s="10"/>
       <c r="F494" s="10"/>
@@ -5116,7 +5077,7 @@
       <c r="I494" s="10"/>
       <c r="K494" s="10"/>
     </row>
-    <row r="495" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:11" ht="15.75" customHeight="1">
       <c r="A495" s="10"/>
       <c r="E495" s="10"/>
       <c r="F495" s="10"/>
@@ -5124,7 +5085,7 @@
       <c r="I495" s="10"/>
       <c r="K495" s="10"/>
     </row>
-    <row r="496" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:11" ht="15.75" customHeight="1">
       <c r="A496" s="10"/>
       <c r="E496" s="10"/>
       <c r="F496" s="10"/>
@@ -5132,7 +5093,7 @@
       <c r="I496" s="10"/>
       <c r="K496" s="10"/>
     </row>
-    <row r="497" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:11" ht="15.75" customHeight="1">
       <c r="A497" s="10"/>
       <c r="E497" s="10"/>
       <c r="F497" s="10"/>
@@ -5140,7 +5101,7 @@
       <c r="I497" s="10"/>
       <c r="K497" s="10"/>
     </row>
-    <row r="498" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:11" ht="15.75" customHeight="1">
       <c r="A498" s="10"/>
       <c r="E498" s="10"/>
       <c r="F498" s="10"/>
@@ -5148,7 +5109,7 @@
       <c r="I498" s="10"/>
       <c r="K498" s="10"/>
     </row>
-    <row r="499" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:11" ht="15.75" customHeight="1">
       <c r="A499" s="10"/>
       <c r="E499" s="10"/>
       <c r="F499" s="10"/>
@@ -5156,7 +5117,7 @@
       <c r="I499" s="10"/>
       <c r="K499" s="10"/>
     </row>
-    <row r="500" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:11" ht="15.75" customHeight="1">
       <c r="A500" s="10"/>
       <c r="E500" s="10"/>
       <c r="F500" s="10"/>
@@ -5164,7 +5125,7 @@
       <c r="I500" s="10"/>
       <c r="K500" s="10"/>
     </row>
-    <row r="501" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:11" ht="15.75" customHeight="1">
       <c r="A501" s="10"/>
       <c r="E501" s="10"/>
       <c r="F501" s="10"/>
@@ -5172,7 +5133,7 @@
       <c r="I501" s="10"/>
       <c r="K501" s="10"/>
     </row>
-    <row r="502" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:11" ht="15.75" customHeight="1">
       <c r="A502" s="10"/>
       <c r="E502" s="10"/>
       <c r="F502" s="10"/>
@@ -5180,7 +5141,7 @@
       <c r="I502" s="10"/>
       <c r="K502" s="10"/>
     </row>
-    <row r="503" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:11" ht="15.75" customHeight="1">
       <c r="A503" s="10"/>
       <c r="E503" s="10"/>
       <c r="F503" s="10"/>
@@ -5188,7 +5149,7 @@
       <c r="I503" s="10"/>
       <c r="K503" s="10"/>
     </row>
-    <row r="504" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:11" ht="15.75" customHeight="1">
       <c r="A504" s="10"/>
       <c r="E504" s="10"/>
       <c r="F504" s="10"/>
@@ -5196,7 +5157,7 @@
       <c r="I504" s="10"/>
       <c r="K504" s="10"/>
     </row>
-    <row r="505" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:11" ht="15.75" customHeight="1">
       <c r="A505" s="10"/>
       <c r="E505" s="10"/>
       <c r="F505" s="10"/>
@@ -5204,7 +5165,7 @@
       <c r="I505" s="10"/>
       <c r="K505" s="10"/>
     </row>
-    <row r="506" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:11" ht="15.75" customHeight="1">
       <c r="A506" s="10"/>
       <c r="E506" s="10"/>
       <c r="F506" s="10"/>
@@ -5212,7 +5173,7 @@
       <c r="I506" s="10"/>
       <c r="K506" s="10"/>
     </row>
-    <row r="507" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:11" ht="15.75" customHeight="1">
       <c r="A507" s="10"/>
       <c r="E507" s="10"/>
       <c r="F507" s="10"/>
@@ -5220,7 +5181,7 @@
       <c r="I507" s="10"/>
       <c r="K507" s="10"/>
     </row>
-    <row r="508" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:11" ht="15.75" customHeight="1">
       <c r="A508" s="10"/>
       <c r="E508" s="10"/>
       <c r="F508" s="10"/>
@@ -5228,7 +5189,7 @@
       <c r="I508" s="10"/>
       <c r="K508" s="10"/>
     </row>
-    <row r="509" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:11" ht="15.75" customHeight="1">
       <c r="A509" s="10"/>
       <c r="E509" s="10"/>
       <c r="F509" s="10"/>
@@ -5236,7 +5197,7 @@
       <c r="I509" s="10"/>
       <c r="K509" s="10"/>
     </row>
-    <row r="510" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:11" ht="15.75" customHeight="1">
       <c r="A510" s="10"/>
       <c r="E510" s="10"/>
       <c r="F510" s="10"/>
@@ -5244,7 +5205,7 @@
       <c r="I510" s="10"/>
       <c r="K510" s="10"/>
     </row>
-    <row r="511" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:11" ht="15.75" customHeight="1">
       <c r="A511" s="10"/>
       <c r="E511" s="10"/>
       <c r="F511" s="10"/>
@@ -5252,7 +5213,7 @@
       <c r="I511" s="10"/>
       <c r="K511" s="10"/>
     </row>
-    <row r="512" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:11" ht="15.75" customHeight="1">
       <c r="A512" s="10"/>
       <c r="E512" s="10"/>
       <c r="F512" s="10"/>
@@ -5260,7 +5221,7 @@
       <c r="I512" s="10"/>
       <c r="K512" s="10"/>
     </row>
-    <row r="513" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:11" ht="15.75" customHeight="1">
       <c r="A513" s="10"/>
       <c r="E513" s="10"/>
       <c r="F513" s="10"/>
@@ -5268,7 +5229,7 @@
       <c r="I513" s="10"/>
       <c r="K513" s="10"/>
     </row>
-    <row r="514" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:11" ht="15.75" customHeight="1">
       <c r="A514" s="10"/>
       <c r="E514" s="10"/>
       <c r="F514" s="10"/>
@@ -5276,7 +5237,7 @@
       <c r="I514" s="10"/>
       <c r="K514" s="10"/>
     </row>
-    <row r="515" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:11" ht="15.75" customHeight="1">
       <c r="A515" s="10"/>
       <c r="E515" s="10"/>
       <c r="F515" s="10"/>
@@ -5284,7 +5245,7 @@
       <c r="I515" s="10"/>
       <c r="K515" s="10"/>
     </row>
-    <row r="516" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:11" ht="15.75" customHeight="1">
       <c r="A516" s="10"/>
       <c r="E516" s="10"/>
       <c r="F516" s="10"/>
@@ -5292,7 +5253,7 @@
       <c r="I516" s="10"/>
       <c r="K516" s="10"/>
     </row>
-    <row r="517" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:11" ht="15.75" customHeight="1">
       <c r="A517" s="10"/>
       <c r="E517" s="10"/>
       <c r="F517" s="10"/>
@@ -5300,7 +5261,7 @@
       <c r="I517" s="10"/>
       <c r="K517" s="10"/>
     </row>
-    <row r="518" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:11" ht="15.75" customHeight="1">
       <c r="A518" s="10"/>
       <c r="E518" s="10"/>
       <c r="F518" s="10"/>
@@ -5308,7 +5269,7 @@
       <c r="I518" s="10"/>
       <c r="K518" s="10"/>
     </row>
-    <row r="519" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:11" ht="15.75" customHeight="1">
       <c r="A519" s="10"/>
       <c r="E519" s="10"/>
       <c r="F519" s="10"/>
@@ -5316,7 +5277,7 @@
       <c r="I519" s="10"/>
       <c r="K519" s="10"/>
     </row>
-    <row r="520" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:11" ht="15.75" customHeight="1">
       <c r="A520" s="10"/>
       <c r="E520" s="10"/>
       <c r="F520" s="10"/>
@@ -5324,7 +5285,7 @@
       <c r="I520" s="10"/>
       <c r="K520" s="10"/>
     </row>
-    <row r="521" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:11" ht="15.75" customHeight="1">
       <c r="A521" s="10"/>
       <c r="E521" s="10"/>
       <c r="F521" s="10"/>
@@ -5332,7 +5293,7 @@
       <c r="I521" s="10"/>
       <c r="K521" s="10"/>
     </row>
-    <row r="522" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:11" ht="15.75" customHeight="1">
       <c r="A522" s="10"/>
       <c r="E522" s="10"/>
       <c r="F522" s="10"/>
@@ -5340,7 +5301,7 @@
       <c r="I522" s="10"/>
       <c r="K522" s="10"/>
     </row>
-    <row r="523" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:11" ht="15.75" customHeight="1">
       <c r="A523" s="10"/>
       <c r="E523" s="10"/>
       <c r="F523" s="10"/>
@@ -5348,7 +5309,7 @@
       <c r="I523" s="10"/>
       <c r="K523" s="10"/>
     </row>
-    <row r="524" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:11" ht="15.75" customHeight="1">
       <c r="A524" s="10"/>
       <c r="E524" s="10"/>
       <c r="F524" s="10"/>
@@ -5356,7 +5317,7 @@
       <c r="I524" s="10"/>
       <c r="K524" s="10"/>
     </row>
-    <row r="525" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:11" ht="15.75" customHeight="1">
       <c r="A525" s="10"/>
       <c r="E525" s="10"/>
       <c r="F525" s="10"/>
@@ -5364,7 +5325,7 @@
       <c r="I525" s="10"/>
       <c r="K525" s="10"/>
     </row>
-    <row r="526" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:11" ht="15.75" customHeight="1">
       <c r="A526" s="10"/>
       <c r="E526" s="10"/>
       <c r="F526" s="10"/>
@@ -5372,7 +5333,7 @@
       <c r="I526" s="10"/>
       <c r="K526" s="10"/>
     </row>
-    <row r="527" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:11" ht="15.75" customHeight="1">
       <c r="A527" s="10"/>
       <c r="E527" s="10"/>
       <c r="F527" s="10"/>
@@ -5380,7 +5341,7 @@
       <c r="I527" s="10"/>
       <c r="K527" s="10"/>
     </row>
-    <row r="528" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:11" ht="15.75" customHeight="1">
       <c r="A528" s="10"/>
       <c r="E528" s="10"/>
       <c r="F528" s="10"/>
@@ -5388,7 +5349,7 @@
       <c r="I528" s="10"/>
       <c r="K528" s="10"/>
     </row>
-    <row r="529" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:11" ht="15.75" customHeight="1">
       <c r="A529" s="10"/>
       <c r="E529" s="10"/>
       <c r="F529" s="10"/>
@@ -5396,7 +5357,7 @@
       <c r="I529" s="10"/>
       <c r="K529" s="10"/>
     </row>
-    <row r="530" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:11" ht="15.75" customHeight="1">
       <c r="A530" s="10"/>
       <c r="E530" s="10"/>
       <c r="F530" s="10"/>
@@ -5404,7 +5365,7 @@
       <c r="I530" s="10"/>
       <c r="K530" s="10"/>
     </row>
-    <row r="531" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:11" ht="15.75" customHeight="1">
       <c r="A531" s="10"/>
       <c r="E531" s="10"/>
       <c r="F531" s="10"/>
@@ -5412,7 +5373,7 @@
       <c r="I531" s="10"/>
       <c r="K531" s="10"/>
     </row>
-    <row r="532" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:11" ht="15.75" customHeight="1">
       <c r="A532" s="10"/>
       <c r="E532" s="10"/>
       <c r="F532" s="10"/>
@@ -5420,7 +5381,7 @@
       <c r="I532" s="10"/>
       <c r="K532" s="10"/>
     </row>
-    <row r="533" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:11" ht="15.75" customHeight="1">
       <c r="A533" s="10"/>
       <c r="E533" s="10"/>
       <c r="F533" s="10"/>
@@ -5428,7 +5389,7 @@
       <c r="I533" s="10"/>
       <c r="K533" s="10"/>
     </row>
-    <row r="534" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:11" ht="15.75" customHeight="1">
       <c r="A534" s="10"/>
       <c r="E534" s="10"/>
       <c r="F534" s="10"/>
@@ -5436,7 +5397,7 @@
       <c r="I534" s="10"/>
       <c r="K534" s="10"/>
     </row>
-    <row r="535" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:11" ht="15.75" customHeight="1">
       <c r="A535" s="10"/>
       <c r="E535" s="10"/>
       <c r="F535" s="10"/>
@@ -5444,7 +5405,7 @@
       <c r="I535" s="10"/>
       <c r="K535" s="10"/>
     </row>
-    <row r="536" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:11" ht="15.75" customHeight="1">
       <c r="A536" s="10"/>
       <c r="E536" s="10"/>
       <c r="F536" s="10"/>
@@ -5452,7 +5413,7 @@
       <c r="I536" s="10"/>
       <c r="K536" s="10"/>
     </row>
-    <row r="537" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:11" ht="15.75" customHeight="1">
       <c r="A537" s="10"/>
       <c r="E537" s="10"/>
       <c r="F537" s="10"/>
@@ -5460,7 +5421,7 @@
       <c r="I537" s="10"/>
       <c r="K537" s="10"/>
     </row>
-    <row r="538" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:11" ht="15.75" customHeight="1">
       <c r="A538" s="10"/>
       <c r="E538" s="10"/>
       <c r="F538" s="10"/>
@@ -5468,7 +5429,7 @@
       <c r="I538" s="10"/>
       <c r="K538" s="10"/>
     </row>
-    <row r="539" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:11" ht="15.75" customHeight="1">
       <c r="A539" s="10"/>
       <c r="E539" s="10"/>
       <c r="F539" s="10"/>
@@ -5476,7 +5437,7 @@
       <c r="I539" s="10"/>
       <c r="K539" s="10"/>
     </row>
-    <row r="540" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:11" ht="15.75" customHeight="1">
       <c r="A540" s="10"/>
       <c r="E540" s="10"/>
       <c r="F540" s="10"/>
@@ -5484,7 +5445,7 @@
       <c r="I540" s="10"/>
       <c r="K540" s="10"/>
     </row>
-    <row r="541" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:11" ht="15.75" customHeight="1">
       <c r="A541" s="10"/>
       <c r="E541" s="10"/>
       <c r="F541" s="10"/>
@@ -5492,7 +5453,7 @@
       <c r="I541" s="10"/>
       <c r="K541" s="10"/>
     </row>
-    <row r="542" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:11" ht="15.75" customHeight="1">
       <c r="A542" s="10"/>
       <c r="E542" s="10"/>
       <c r="F542" s="10"/>
@@ -5500,7 +5461,7 @@
       <c r="I542" s="10"/>
       <c r="K542" s="10"/>
     </row>
-    <row r="543" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:11" ht="15.75" customHeight="1">
       <c r="A543" s="10"/>
       <c r="E543" s="10"/>
       <c r="F543" s="10"/>
@@ -5508,7 +5469,7 @@
       <c r="I543" s="10"/>
       <c r="K543" s="10"/>
     </row>
-    <row r="544" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:11" ht="15.75" customHeight="1">
       <c r="A544" s="10"/>
       <c r="E544" s="10"/>
       <c r="F544" s="10"/>
@@ -5516,7 +5477,7 @@
       <c r="I544" s="10"/>
       <c r="K544" s="10"/>
     </row>
-    <row r="545" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:11" ht="15.75" customHeight="1">
       <c r="A545" s="10"/>
       <c r="E545" s="10"/>
       <c r="F545" s="10"/>
@@ -5524,7 +5485,7 @@
       <c r="I545" s="10"/>
       <c r="K545" s="10"/>
     </row>
-    <row r="546" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:11" ht="15.75" customHeight="1">
       <c r="A546" s="10"/>
       <c r="E546" s="10"/>
       <c r="F546" s="10"/>
@@ -5532,7 +5493,7 @@
       <c r="I546" s="10"/>
       <c r="K546" s="10"/>
     </row>
-    <row r="547" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:11" ht="15.75" customHeight="1">
       <c r="A547" s="10"/>
       <c r="E547" s="10"/>
       <c r="F547" s="10"/>
@@ -5540,7 +5501,7 @@
       <c r="I547" s="10"/>
       <c r="K547" s="10"/>
     </row>
-    <row r="548" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:11" ht="15.75" customHeight="1">
       <c r="A548" s="10"/>
       <c r="E548" s="10"/>
       <c r="F548" s="10"/>
@@ -5548,7 +5509,7 @@
       <c r="I548" s="10"/>
       <c r="K548" s="10"/>
     </row>
-    <row r="549" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:11" ht="15.75" customHeight="1">
       <c r="A549" s="10"/>
       <c r="E549" s="10"/>
       <c r="F549" s="10"/>
@@ -5556,7 +5517,7 @@
       <c r="I549" s="10"/>
       <c r="K549" s="10"/>
     </row>
-    <row r="550" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:11" ht="15.75" customHeight="1">
       <c r="A550" s="10"/>
       <c r="E550" s="10"/>
       <c r="F550" s="10"/>
@@ -5564,7 +5525,7 @@
       <c r="I550" s="10"/>
       <c r="K550" s="10"/>
     </row>
-    <row r="551" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:11" ht="15.75" customHeight="1">
       <c r="A551" s="10"/>
       <c r="E551" s="10"/>
       <c r="F551" s="10"/>
@@ -5572,7 +5533,7 @@
       <c r="I551" s="10"/>
       <c r="K551" s="10"/>
     </row>
-    <row r="552" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:11" ht="15.75" customHeight="1">
       <c r="A552" s="10"/>
       <c r="E552" s="10"/>
       <c r="F552" s="10"/>
@@ -5580,7 +5541,7 @@
       <c r="I552" s="10"/>
       <c r="K552" s="10"/>
     </row>
-    <row r="553" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:11" ht="15.75" customHeight="1">
       <c r="A553" s="10"/>
       <c r="E553" s="10"/>
       <c r="F553" s="10"/>
@@ -5588,7 +5549,7 @@
       <c r="I553" s="10"/>
       <c r="K553" s="10"/>
     </row>
-    <row r="554" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:11" ht="15.75" customHeight="1">
       <c r="A554" s="10"/>
       <c r="E554" s="10"/>
       <c r="F554" s="10"/>
@@ -5596,7 +5557,7 @@
       <c r="I554" s="10"/>
       <c r="K554" s="10"/>
     </row>
-    <row r="555" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:11" ht="15.75" customHeight="1">
       <c r="A555" s="10"/>
       <c r="E555" s="10"/>
       <c r="F555" s="10"/>
@@ -5604,7 +5565,7 @@
       <c r="I555" s="10"/>
       <c r="K555" s="10"/>
     </row>
-    <row r="556" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:11" ht="15.75" customHeight="1">
       <c r="A556" s="10"/>
       <c r="E556" s="10"/>
       <c r="F556" s="10"/>
@@ -5612,7 +5573,7 @@
       <c r="I556" s="10"/>
       <c r="K556" s="10"/>
     </row>
-    <row r="557" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:11" ht="15.75" customHeight="1">
       <c r="A557" s="10"/>
       <c r="E557" s="10"/>
       <c r="F557" s="10"/>
@@ -5620,7 +5581,7 @@
       <c r="I557" s="10"/>
       <c r="K557" s="10"/>
     </row>
-    <row r="558" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:11" ht="15.75" customHeight="1">
       <c r="A558" s="10"/>
       <c r="E558" s="10"/>
       <c r="F558" s="10"/>
@@ -5628,7 +5589,7 @@
       <c r="I558" s="10"/>
       <c r="K558" s="10"/>
     </row>
-    <row r="559" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:11" ht="15.75" customHeight="1">
       <c r="A559" s="10"/>
       <c r="E559" s="10"/>
       <c r="F559" s="10"/>
@@ -5636,7 +5597,7 @@
       <c r="I559" s="10"/>
       <c r="K559" s="10"/>
     </row>
-    <row r="560" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:11" ht="15.75" customHeight="1">
       <c r="A560" s="10"/>
       <c r="E560" s="10"/>
       <c r="F560" s="10"/>
@@ -5644,7 +5605,7 @@
       <c r="I560" s="10"/>
       <c r="K560" s="10"/>
     </row>
-    <row r="561" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:11" ht="15.75" customHeight="1">
       <c r="A561" s="10"/>
       <c r="E561" s="10"/>
       <c r="F561" s="10"/>
@@ -5652,7 +5613,7 @@
       <c r="I561" s="10"/>
       <c r="K561" s="10"/>
     </row>
-    <row r="562" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:11" ht="15.75" customHeight="1">
       <c r="A562" s="10"/>
       <c r="E562" s="10"/>
       <c r="F562" s="10"/>
@@ -5660,7 +5621,7 @@
       <c r="I562" s="10"/>
       <c r="K562" s="10"/>
     </row>
-    <row r="563" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:11" ht="15.75" customHeight="1">
       <c r="A563" s="10"/>
       <c r="E563" s="10"/>
       <c r="F563" s="10"/>
@@ -5668,7 +5629,7 @@
       <c r="I563" s="10"/>
       <c r="K563" s="10"/>
     </row>
-    <row r="564" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:11" ht="15.75" customHeight="1">
       <c r="A564" s="10"/>
       <c r="E564" s="10"/>
       <c r="F564" s="10"/>
@@ -5676,7 +5637,7 @@
       <c r="I564" s="10"/>
       <c r="K564" s="10"/>
     </row>
-    <row r="565" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:11" ht="15.75" customHeight="1">
       <c r="A565" s="10"/>
       <c r="E565" s="10"/>
       <c r="F565" s="10"/>
@@ -5684,7 +5645,7 @@
       <c r="I565" s="10"/>
       <c r="K565" s="10"/>
     </row>
-    <row r="566" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:11" ht="15.75" customHeight="1">
       <c r="A566" s="10"/>
       <c r="E566" s="10"/>
       <c r="F566" s="10"/>
@@ -5692,7 +5653,7 @@
       <c r="I566" s="10"/>
       <c r="K566" s="10"/>
     </row>
-    <row r="567" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:11" ht="15.75" customHeight="1">
       <c r="A567" s="10"/>
       <c r="E567" s="10"/>
       <c r="F567" s="10"/>
@@ -5700,7 +5661,7 @@
       <c r="I567" s="10"/>
       <c r="K567" s="10"/>
     </row>
-    <row r="568" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:11" ht="15.75" customHeight="1">
       <c r="A568" s="10"/>
       <c r="E568" s="10"/>
       <c r="F568" s="10"/>
@@ -5708,7 +5669,7 @@
       <c r="I568" s="10"/>
       <c r="K568" s="10"/>
     </row>
-    <row r="569" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:11" ht="15.75" customHeight="1">
       <c r="A569" s="10"/>
       <c r="E569" s="10"/>
       <c r="F569" s="10"/>
@@ -5716,7 +5677,7 @@
       <c r="I569" s="10"/>
       <c r="K569" s="10"/>
     </row>
-    <row r="570" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:11" ht="15.75" customHeight="1">
       <c r="A570" s="10"/>
       <c r="E570" s="10"/>
       <c r="F570" s="10"/>
@@ -5724,7 +5685,7 @@
       <c r="I570" s="10"/>
       <c r="K570" s="10"/>
     </row>
-    <row r="571" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:11" ht="15.75" customHeight="1">
       <c r="A571" s="10"/>
       <c r="E571" s="10"/>
       <c r="F571" s="10"/>
@@ -5732,7 +5693,7 @@
       <c r="I571" s="10"/>
       <c r="K571" s="10"/>
     </row>
-    <row r="572" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:11" ht="15.75" customHeight="1">
       <c r="A572" s="10"/>
       <c r="E572" s="10"/>
       <c r="F572" s="10"/>
@@ -5740,7 +5701,7 @@
       <c r="I572" s="10"/>
       <c r="K572" s="10"/>
     </row>
-    <row r="573" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:11" ht="15.75" customHeight="1">
       <c r="A573" s="10"/>
       <c r="E573" s="10"/>
       <c r="F573" s="10"/>
@@ -5748,7 +5709,7 @@
       <c r="I573" s="10"/>
       <c r="K573" s="10"/>
     </row>
-    <row r="574" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:11" ht="15.75" customHeight="1">
       <c r="A574" s="10"/>
       <c r="E574" s="10"/>
       <c r="F574" s="10"/>
@@ -5756,7 +5717,7 @@
       <c r="I574" s="10"/>
       <c r="K574" s="10"/>
     </row>
-    <row r="575" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:11" ht="15.75" customHeight="1">
       <c r="A575" s="10"/>
       <c r="E575" s="10"/>
       <c r="F575" s="10"/>
@@ -5764,7 +5725,7 @@
       <c r="I575" s="10"/>
       <c r="K575" s="10"/>
     </row>
-    <row r="576" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:11" ht="15.75" customHeight="1">
       <c r="A576" s="10"/>
       <c r="E576" s="10"/>
       <c r="F576" s="10"/>
@@ -5772,7 +5733,7 @@
       <c r="I576" s="10"/>
       <c r="K576" s="10"/>
     </row>
-    <row r="577" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:11" ht="15.75" customHeight="1">
       <c r="A577" s="10"/>
       <c r="E577" s="10"/>
       <c r="F577" s="10"/>
@@ -5780,7 +5741,7 @@
       <c r="I577" s="10"/>
       <c r="K577" s="10"/>
     </row>
-    <row r="578" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:11" ht="15.75" customHeight="1">
       <c r="A578" s="10"/>
       <c r="E578" s="10"/>
       <c r="F578" s="10"/>
@@ -5788,7 +5749,7 @@
       <c r="I578" s="10"/>
       <c r="K578" s="10"/>
     </row>
-    <row r="579" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:11" ht="15.75" customHeight="1">
       <c r="A579" s="10"/>
       <c r="E579" s="10"/>
       <c r="F579" s="10"/>
@@ -5796,7 +5757,7 @@
       <c r="I579" s="10"/>
       <c r="K579" s="10"/>
     </row>
-    <row r="580" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:11" ht="15.75" customHeight="1">
       <c r="A580" s="10"/>
       <c r="E580" s="10"/>
       <c r="F580" s="10"/>
@@ -5804,7 +5765,7 @@
       <c r="I580" s="10"/>
       <c r="K580" s="10"/>
     </row>
-    <row r="581" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:11" ht="15.75" customHeight="1">
       <c r="A581" s="10"/>
       <c r="E581" s="10"/>
       <c r="F581" s="10"/>
@@ -5812,7 +5773,7 @@
       <c r="I581" s="10"/>
       <c r="K581" s="10"/>
     </row>
-    <row r="582" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:11" ht="15.75" customHeight="1">
       <c r="A582" s="10"/>
       <c r="E582" s="10"/>
       <c r="F582" s="10"/>
@@ -5820,7 +5781,7 @@
       <c r="I582" s="10"/>
       <c r="K582" s="10"/>
     </row>
-    <row r="583" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:11" ht="15.75" customHeight="1">
       <c r="A583" s="10"/>
       <c r="E583" s="10"/>
       <c r="F583" s="10"/>
@@ -5828,7 +5789,7 @@
       <c r="I583" s="10"/>
       <c r="K583" s="10"/>
     </row>
-    <row r="584" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:11" ht="15.75" customHeight="1">
       <c r="A584" s="10"/>
       <c r="E584" s="10"/>
       <c r="F584" s="10"/>
@@ -5836,7 +5797,7 @@
       <c r="I584" s="10"/>
       <c r="K584" s="10"/>
     </row>
-    <row r="585" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:11" ht="15.75" customHeight="1">
       <c r="A585" s="10"/>
       <c r="E585" s="10"/>
       <c r="F585" s="10"/>
@@ -5844,7 +5805,7 @@
       <c r="I585" s="10"/>
       <c r="K585" s="10"/>
     </row>
-    <row r="586" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:11" ht="15.75" customHeight="1">
       <c r="A586" s="10"/>
       <c r="E586" s="10"/>
       <c r="F586" s="10"/>
@@ -5852,7 +5813,7 @@
       <c r="I586" s="10"/>
       <c r="K586" s="10"/>
     </row>
-    <row r="587" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:11" ht="15.75" customHeight="1">
       <c r="A587" s="10"/>
       <c r="E587" s="10"/>
       <c r="F587" s="10"/>
@@ -5860,7 +5821,7 @@
       <c r="I587" s="10"/>
       <c r="K587" s="10"/>
     </row>
-    <row r="588" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:11" ht="15.75" customHeight="1">
       <c r="A588" s="10"/>
       <c r="E588" s="10"/>
       <c r="F588" s="10"/>
@@ -5868,7 +5829,7 @@
       <c r="I588" s="10"/>
       <c r="K588" s="10"/>
     </row>
-    <row r="589" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:11" ht="15.75" customHeight="1">
       <c r="A589" s="10"/>
       <c r="E589" s="10"/>
       <c r="F589" s="10"/>
@@ -5876,7 +5837,7 @@
       <c r="I589" s="10"/>
       <c r="K589" s="10"/>
     </row>
-    <row r="590" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:11" ht="15.75" customHeight="1">
       <c r="A590" s="10"/>
       <c r="E590" s="10"/>
       <c r="F590" s="10"/>
@@ -5884,7 +5845,7 @@
       <c r="I590" s="10"/>
       <c r="K590" s="10"/>
     </row>
-    <row r="591" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:11" ht="15.75" customHeight="1">
       <c r="A591" s="10"/>
       <c r="E591" s="10"/>
       <c r="F591" s="10"/>
@@ -5892,7 +5853,7 @@
       <c r="I591" s="10"/>
       <c r="K591" s="10"/>
     </row>
-    <row r="592" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:11" ht="15.75" customHeight="1">
       <c r="A592" s="10"/>
       <c r="E592" s="10"/>
       <c r="F592" s="10"/>
@@ -5900,7 +5861,7 @@
       <c r="I592" s="10"/>
       <c r="K592" s="10"/>
     </row>
-    <row r="593" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:11" ht="15.75" customHeight="1">
       <c r="A593" s="10"/>
       <c r="E593" s="10"/>
       <c r="F593" s="10"/>
@@ -5908,7 +5869,7 @@
       <c r="I593" s="10"/>
       <c r="K593" s="10"/>
     </row>
-    <row r="594" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:11" ht="15.75" customHeight="1">
       <c r="A594" s="10"/>
       <c r="E594" s="10"/>
       <c r="F594" s="10"/>
@@ -5916,7 +5877,7 @@
       <c r="I594" s="10"/>
       <c r="K594" s="10"/>
     </row>
-    <row r="595" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:11" ht="15.75" customHeight="1">
       <c r="A595" s="10"/>
       <c r="E595" s="10"/>
       <c r="F595" s="10"/>
@@ -5924,7 +5885,7 @@
       <c r="I595" s="10"/>
       <c r="K595" s="10"/>
     </row>
-    <row r="596" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:11" ht="15.75" customHeight="1">
       <c r="A596" s="10"/>
       <c r="E596" s="10"/>
       <c r="F596" s="10"/>
@@ -5932,7 +5893,7 @@
       <c r="I596" s="10"/>
       <c r="K596" s="10"/>
     </row>
-    <row r="597" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:11" ht="15.75" customHeight="1">
       <c r="A597" s="10"/>
       <c r="E597" s="10"/>
       <c r="F597" s="10"/>
@@ -5940,7 +5901,7 @@
       <c r="I597" s="10"/>
       <c r="K597" s="10"/>
     </row>
-    <row r="598" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:11" ht="15.75" customHeight="1">
       <c r="A598" s="10"/>
       <c r="E598" s="10"/>
       <c r="F598" s="10"/>
@@ -5948,7 +5909,7 @@
       <c r="I598" s="10"/>
       <c r="K598" s="10"/>
     </row>
-    <row r="599" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:11" ht="15.75" customHeight="1">
       <c r="A599" s="10"/>
       <c r="E599" s="10"/>
       <c r="F599" s="10"/>
@@ -5956,7 +5917,7 @@
       <c r="I599" s="10"/>
       <c r="K599" s="10"/>
     </row>
-    <row r="600" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:11" ht="15.75" customHeight="1">
       <c r="A600" s="10"/>
       <c r="E600" s="10"/>
       <c r="F600" s="10"/>
@@ -5964,7 +5925,7 @@
       <c r="I600" s="10"/>
       <c r="K600" s="10"/>
     </row>
-    <row r="601" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:11" ht="15.75" customHeight="1">
       <c r="A601" s="10"/>
       <c r="E601" s="10"/>
       <c r="F601" s="10"/>
@@ -5972,7 +5933,7 @@
       <c r="I601" s="10"/>
       <c r="K601" s="10"/>
     </row>
-    <row r="602" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:11" ht="15.75" customHeight="1">
       <c r="A602" s="10"/>
       <c r="E602" s="10"/>
       <c r="F602" s="10"/>
@@ -5980,7 +5941,7 @@
       <c r="I602" s="10"/>
       <c r="K602" s="10"/>
     </row>
-    <row r="603" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:11" ht="15.75" customHeight="1">
       <c r="A603" s="10"/>
       <c r="E603" s="10"/>
       <c r="F603" s="10"/>
@@ -5988,7 +5949,7 @@
       <c r="I603" s="10"/>
       <c r="K603" s="10"/>
     </row>
-    <row r="604" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:11" ht="15.75" customHeight="1">
       <c r="A604" s="10"/>
       <c r="E604" s="10"/>
       <c r="F604" s="10"/>
@@ -5996,7 +5957,7 @@
       <c r="I604" s="10"/>
       <c r="K604" s="10"/>
     </row>
-    <row r="605" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:11" ht="15.75" customHeight="1">
       <c r="A605" s="10"/>
       <c r="E605" s="10"/>
       <c r="F605" s="10"/>
@@ -6004,7 +5965,7 @@
       <c r="I605" s="10"/>
       <c r="K605" s="10"/>
     </row>
-    <row r="606" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:11" ht="15.75" customHeight="1">
       <c r="A606" s="10"/>
       <c r="E606" s="10"/>
       <c r="F606" s="10"/>
@@ -6012,7 +5973,7 @@
       <c r="I606" s="10"/>
       <c r="K606" s="10"/>
     </row>
-    <row r="607" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:11" ht="15.75" customHeight="1">
       <c r="A607" s="10"/>
       <c r="E607" s="10"/>
       <c r="F607" s="10"/>
@@ -6020,7 +5981,7 @@
       <c r="I607" s="10"/>
       <c r="K607" s="10"/>
     </row>
-    <row r="608" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:11" ht="15.75" customHeight="1">
       <c r="A608" s="10"/>
       <c r="E608" s="10"/>
       <c r="F608" s="10"/>
@@ -6028,7 +5989,7 @@
       <c r="I608" s="10"/>
       <c r="K608" s="10"/>
     </row>
-    <row r="609" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:11" ht="15.75" customHeight="1">
       <c r="A609" s="10"/>
       <c r="E609" s="10"/>
       <c r="F609" s="10"/>
@@ -6036,7 +5997,7 @@
       <c r="I609" s="10"/>
       <c r="K609" s="10"/>
     </row>
-    <row r="610" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:11" ht="15.75" customHeight="1">
       <c r="A610" s="10"/>
       <c r="E610" s="10"/>
       <c r="F610" s="10"/>
@@ -6044,7 +6005,7 @@
       <c r="I610" s="10"/>
       <c r="K610" s="10"/>
     </row>
-    <row r="611" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:11" ht="15.75" customHeight="1">
       <c r="A611" s="10"/>
       <c r="E611" s="10"/>
       <c r="F611" s="10"/>
@@ -6052,7 +6013,7 @@
       <c r="I611" s="10"/>
       <c r="K611" s="10"/>
     </row>
-    <row r="612" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:11" ht="15.75" customHeight="1">
       <c r="A612" s="10"/>
       <c r="E612" s="10"/>
       <c r="F612" s="10"/>
@@ -6060,7 +6021,7 @@
       <c r="I612" s="10"/>
       <c r="K612" s="10"/>
     </row>
-    <row r="613" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:11" ht="15.75" customHeight="1">
       <c r="A613" s="10"/>
       <c r="E613" s="10"/>
       <c r="F613" s="10"/>
@@ -6068,7 +6029,7 @@
       <c r="I613" s="10"/>
       <c r="K613" s="10"/>
     </row>
-    <row r="614" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:11" ht="15.75" customHeight="1">
       <c r="A614" s="10"/>
       <c r="E614" s="10"/>
       <c r="F614" s="10"/>
@@ -6076,7 +6037,7 @@
       <c r="I614" s="10"/>
       <c r="K614" s="10"/>
     </row>
-    <row r="615" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:11" ht="15.75" customHeight="1">
       <c r="A615" s="10"/>
       <c r="E615" s="10"/>
       <c r="F615" s="10"/>
@@ -6084,7 +6045,7 @@
       <c r="I615" s="10"/>
       <c r="K615" s="10"/>
     </row>
-    <row r="616" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:11" ht="15.75" customHeight="1">
       <c r="A616" s="10"/>
       <c r="E616" s="10"/>
       <c r="F616" s="10"/>
@@ -6092,7 +6053,7 @@
       <c r="I616" s="10"/>
       <c r="K616" s="10"/>
     </row>
-    <row r="617" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:11" ht="15.75" customHeight="1">
       <c r="A617" s="10"/>
       <c r="E617" s="10"/>
       <c r="F617" s="10"/>
@@ -6100,7 +6061,7 @@
       <c r="I617" s="10"/>
       <c r="K617" s="10"/>
     </row>
-    <row r="618" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:11" ht="15.75" customHeight="1">
       <c r="A618" s="10"/>
       <c r="E618" s="10"/>
       <c r="F618" s="10"/>
@@ -6108,7 +6069,7 @@
       <c r="I618" s="10"/>
       <c r="K618" s="10"/>
     </row>
-    <row r="619" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:11" ht="15.75" customHeight="1">
       <c r="A619" s="10"/>
       <c r="E619" s="10"/>
       <c r="F619" s="10"/>
@@ -6116,7 +6077,7 @@
       <c r="I619" s="10"/>
       <c r="K619" s="10"/>
     </row>
-    <row r="620" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:11" ht="15.75" customHeight="1">
       <c r="A620" s="10"/>
       <c r="E620" s="10"/>
       <c r="F620" s="10"/>
@@ -6124,7 +6085,7 @@
       <c r="I620" s="10"/>
       <c r="K620" s="10"/>
     </row>
-    <row r="621" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:11" ht="15.75" customHeight="1">
       <c r="A621" s="10"/>
       <c r="E621" s="10"/>
       <c r="F621" s="10"/>
@@ -6132,7 +6093,7 @@
       <c r="I621" s="10"/>
       <c r="K621" s="10"/>
     </row>
-    <row r="622" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:11" ht="15.75" customHeight="1">
       <c r="A622" s="10"/>
       <c r="E622" s="10"/>
       <c r="F622" s="10"/>
@@ -6140,7 +6101,7 @@
       <c r="I622" s="10"/>
       <c r="K622" s="10"/>
     </row>
-    <row r="623" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:11" ht="15.75" customHeight="1">
       <c r="A623" s="10"/>
       <c r="E623" s="10"/>
       <c r="F623" s="10"/>
@@ -6148,7 +6109,7 @@
       <c r="I623" s="10"/>
       <c r="K623" s="10"/>
     </row>
-    <row r="624" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:11" ht="15.75" customHeight="1">
       <c r="A624" s="10"/>
       <c r="E624" s="10"/>
       <c r="F624" s="10"/>
@@ -6156,7 +6117,7 @@
       <c r="I624" s="10"/>
       <c r="K624" s="10"/>
     </row>
-    <row r="625" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:11" ht="15.75" customHeight="1">
       <c r="A625" s="10"/>
       <c r="E625" s="10"/>
       <c r="F625" s="10"/>
@@ -6164,7 +6125,7 @@
       <c r="I625" s="10"/>
       <c r="K625" s="10"/>
     </row>
-    <row r="626" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:11" ht="15.75" customHeight="1">
       <c r="A626" s="10"/>
       <c r="E626" s="10"/>
       <c r="F626" s="10"/>
@@ -6172,7 +6133,7 @@
       <c r="I626" s="10"/>
       <c r="K626" s="10"/>
     </row>
-    <row r="627" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:11" ht="15.75" customHeight="1">
       <c r="A627" s="10"/>
       <c r="E627" s="10"/>
       <c r="F627" s="10"/>
@@ -6180,7 +6141,7 @@
       <c r="I627" s="10"/>
       <c r="K627" s="10"/>
     </row>
-    <row r="628" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:11" ht="15.75" customHeight="1">
       <c r="A628" s="10"/>
       <c r="E628" s="10"/>
       <c r="F628" s="10"/>
@@ -6188,7 +6149,7 @@
       <c r="I628" s="10"/>
       <c r="K628" s="10"/>
     </row>
-    <row r="629" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:11" ht="15.75" customHeight="1">
       <c r="A629" s="10"/>
       <c r="E629" s="10"/>
       <c r="F629" s="10"/>
@@ -6196,7 +6157,7 @@
       <c r="I629" s="10"/>
       <c r="K629" s="10"/>
     </row>
-    <row r="630" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:11" ht="15.75" customHeight="1">
       <c r="A630" s="10"/>
       <c r="E630" s="10"/>
       <c r="F630" s="10"/>
@@ -6204,7 +6165,7 @@
       <c r="I630" s="10"/>
       <c r="K630" s="10"/>
     </row>
-    <row r="631" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:11" ht="15.75" customHeight="1">
       <c r="A631" s="10"/>
       <c r="E631" s="10"/>
       <c r="F631" s="10"/>
@@ -6212,7 +6173,7 @@
       <c r="I631" s="10"/>
       <c r="K631" s="10"/>
     </row>
-    <row r="632" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:11" ht="15.75" customHeight="1">
       <c r="A632" s="10"/>
       <c r="E632" s="10"/>
       <c r="F632" s="10"/>
@@ -6220,7 +6181,7 @@
       <c r="I632" s="10"/>
       <c r="K632" s="10"/>
     </row>
-    <row r="633" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:11" ht="15.75" customHeight="1">
       <c r="A633" s="10"/>
       <c r="E633" s="10"/>
       <c r="F633" s="10"/>
@@ -6228,7 +6189,7 @@
       <c r="I633" s="10"/>
       <c r="K633" s="10"/>
     </row>
-    <row r="634" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:11" ht="15.75" customHeight="1">
       <c r="A634" s="10"/>
       <c r="E634" s="10"/>
       <c r="F634" s="10"/>
@@ -6236,7 +6197,7 @@
       <c r="I634" s="10"/>
       <c r="K634" s="10"/>
     </row>
-    <row r="635" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:11" ht="15.75" customHeight="1">
       <c r="A635" s="10"/>
       <c r="E635" s="10"/>
       <c r="F635" s="10"/>
@@ -6244,7 +6205,7 @@
       <c r="I635" s="10"/>
       <c r="K635" s="10"/>
     </row>
-    <row r="636" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:11" ht="15.75" customHeight="1">
       <c r="A636" s="10"/>
       <c r="E636" s="10"/>
       <c r="F636" s="10"/>
@@ -6252,7 +6213,7 @@
       <c r="I636" s="10"/>
       <c r="K636" s="10"/>
     </row>
-    <row r="637" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:11" ht="15.75" customHeight="1">
       <c r="A637" s="10"/>
       <c r="E637" s="10"/>
       <c r="F637" s="10"/>
@@ -6260,7 +6221,7 @@
       <c r="I637" s="10"/>
       <c r="K637" s="10"/>
     </row>
-    <row r="638" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:11" ht="15.75" customHeight="1">
       <c r="A638" s="10"/>
       <c r="E638" s="10"/>
       <c r="F638" s="10"/>
@@ -6268,7 +6229,7 @@
       <c r="I638" s="10"/>
       <c r="K638" s="10"/>
     </row>
-    <row r="639" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:11" ht="15.75" customHeight="1">
       <c r="A639" s="10"/>
       <c r="E639" s="10"/>
       <c r="F639" s="10"/>
@@ -6276,7 +6237,7 @@
       <c r="I639" s="10"/>
       <c r="K639" s="10"/>
     </row>
-    <row r="640" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:11" ht="15.75" customHeight="1">
       <c r="A640" s="10"/>
       <c r="E640" s="10"/>
       <c r="F640" s="10"/>
@@ -6284,7 +6245,7 @@
       <c r="I640" s="10"/>
       <c r="K640" s="10"/>
     </row>
-    <row r="641" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:11" ht="15.75" customHeight="1">
       <c r="A641" s="10"/>
       <c r="E641" s="10"/>
       <c r="F641" s="10"/>
@@ -6292,7 +6253,7 @@
       <c r="I641" s="10"/>
       <c r="K641" s="10"/>
     </row>
-    <row r="642" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:11" ht="15.75" customHeight="1">
       <c r="A642" s="10"/>
       <c r="E642" s="10"/>
       <c r="F642" s="10"/>
@@ -6300,7 +6261,7 @@
       <c r="I642" s="10"/>
       <c r="K642" s="10"/>
     </row>
-    <row r="643" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:11" ht="15.75" customHeight="1">
       <c r="A643" s="10"/>
       <c r="E643" s="10"/>
       <c r="F643" s="10"/>
@@ -6308,7 +6269,7 @@
       <c r="I643" s="10"/>
       <c r="K643" s="10"/>
     </row>
-    <row r="644" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:11" ht="15.75" customHeight="1">
       <c r="A644" s="10"/>
       <c r="E644" s="10"/>
       <c r="F644" s="10"/>
@@ -6316,7 +6277,7 @@
       <c r="I644" s="10"/>
       <c r="K644" s="10"/>
     </row>
-    <row r="645" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:11" ht="15.75" customHeight="1">
       <c r="A645" s="10"/>
       <c r="E645" s="10"/>
       <c r="F645" s="10"/>
@@ -6324,7 +6285,7 @@
       <c r="I645" s="10"/>
       <c r="K645" s="10"/>
     </row>
-    <row r="646" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:11" ht="15.75" customHeight="1">
       <c r="A646" s="10"/>
       <c r="E646" s="10"/>
       <c r="F646" s="10"/>
@@ -6332,7 +6293,7 @@
       <c r="I646" s="10"/>
       <c r="K646" s="10"/>
     </row>
-    <row r="647" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:11" ht="15.75" customHeight="1">
       <c r="A647" s="10"/>
       <c r="E647" s="10"/>
       <c r="F647" s="10"/>
@@ -6340,7 +6301,7 @@
       <c r="I647" s="10"/>
       <c r="K647" s="10"/>
     </row>
-    <row r="648" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:11" ht="15.75" customHeight="1">
       <c r="A648" s="10"/>
       <c r="E648" s="10"/>
       <c r="F648" s="10"/>
@@ -6348,7 +6309,7 @@
       <c r="I648" s="10"/>
       <c r="K648" s="10"/>
     </row>
-    <row r="649" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:11" ht="15.75" customHeight="1">
       <c r="A649" s="10"/>
       <c r="E649" s="10"/>
       <c r="F649" s="10"/>
@@ -6356,7 +6317,7 @@
       <c r="I649" s="10"/>
       <c r="K649" s="10"/>
     </row>
-    <row r="650" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:11" ht="15.75" customHeight="1">
       <c r="A650" s="10"/>
       <c r="E650" s="10"/>
       <c r="F650" s="10"/>
@@ -6364,7 +6325,7 @@
       <c r="I650" s="10"/>
       <c r="K650" s="10"/>
     </row>
-    <row r="651" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:11" ht="15.75" customHeight="1">
       <c r="A651" s="10"/>
       <c r="E651" s="10"/>
       <c r="F651" s="10"/>
@@ -6372,7 +6333,7 @@
       <c r="I651" s="10"/>
       <c r="K651" s="10"/>
     </row>
-    <row r="652" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:11" ht="15.75" customHeight="1">
       <c r="A652" s="10"/>
       <c r="E652" s="10"/>
       <c r="F652" s="10"/>
@@ -6380,7 +6341,7 @@
       <c r="I652" s="10"/>
       <c r="K652" s="10"/>
     </row>
-    <row r="653" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:11" ht="15.75" customHeight="1">
       <c r="A653" s="10"/>
       <c r="E653" s="10"/>
       <c r="F653" s="10"/>
@@ -6388,7 +6349,7 @@
       <c r="I653" s="10"/>
       <c r="K653" s="10"/>
     </row>
-    <row r="654" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:11" ht="15.75" customHeight="1">
       <c r="A654" s="10"/>
       <c r="E654" s="10"/>
       <c r="F654" s="10"/>
@@ -6396,7 +6357,7 @@
       <c r="I654" s="10"/>
       <c r="K654" s="10"/>
     </row>
-    <row r="655" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:11" ht="15.75" customHeight="1">
       <c r="A655" s="10"/>
       <c r="E655" s="10"/>
       <c r="F655" s="10"/>
@@ -6404,7 +6365,7 @@
       <c r="I655" s="10"/>
       <c r="K655" s="10"/>
     </row>
-    <row r="656" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:11" ht="15.75" customHeight="1">
       <c r="A656" s="10"/>
       <c r="E656" s="10"/>
       <c r="F656" s="10"/>
@@ -6412,7 +6373,7 @@
       <c r="I656" s="10"/>
       <c r="K656" s="10"/>
     </row>
-    <row r="657" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:11" ht="15.75" customHeight="1">
       <c r="A657" s="10"/>
       <c r="E657" s="10"/>
       <c r="F657" s="10"/>
@@ -6420,7 +6381,7 @@
       <c r="I657" s="10"/>
       <c r="K657" s="10"/>
     </row>
-    <row r="658" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:11" ht="15.75" customHeight="1">
       <c r="A658" s="10"/>
       <c r="E658" s="10"/>
       <c r="F658" s="10"/>
@@ -6428,7 +6389,7 @@
       <c r="I658" s="10"/>
       <c r="K658" s="10"/>
     </row>
-    <row r="659" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:11" ht="15.75" customHeight="1">
       <c r="A659" s="10"/>
       <c r="E659" s="10"/>
       <c r="F659" s="10"/>
@@ -6436,7 +6397,7 @@
       <c r="I659" s="10"/>
       <c r="K659" s="10"/>
     </row>
-    <row r="660" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:11" ht="15.75" customHeight="1">
       <c r="A660" s="10"/>
       <c r="E660" s="10"/>
       <c r="F660" s="10"/>
@@ -6444,7 +6405,7 @@
       <c r="I660" s="10"/>
       <c r="K660" s="10"/>
     </row>
-    <row r="661" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:11" ht="15.75" customHeight="1">
       <c r="A661" s="10"/>
       <c r="E661" s="10"/>
       <c r="F661" s="10"/>
@@ -6452,7 +6413,7 @@
       <c r="I661" s="10"/>
       <c r="K661" s="10"/>
     </row>
-    <row r="662" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:11" ht="15.75" customHeight="1">
       <c r="A662" s="10"/>
       <c r="E662" s="10"/>
       <c r="F662" s="10"/>
@@ -6460,7 +6421,7 @@
       <c r="I662" s="10"/>
       <c r="K662" s="10"/>
     </row>
-    <row r="663" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:11" ht="15.75" customHeight="1">
       <c r="A663" s="10"/>
       <c r="E663" s="10"/>
       <c r="F663" s="10"/>
@@ -6468,7 +6429,7 @@
       <c r="I663" s="10"/>
       <c r="K663" s="10"/>
     </row>
-    <row r="664" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:11" ht="15.75" customHeight="1">
       <c r="A664" s="10"/>
       <c r="E664" s="10"/>
       <c r="F664" s="10"/>
@@ -6476,7 +6437,7 @@
       <c r="I664" s="10"/>
       <c r="K664" s="10"/>
     </row>
-    <row r="665" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:11" ht="15.75" customHeight="1">
       <c r="A665" s="10"/>
       <c r="E665" s="10"/>
       <c r="F665" s="10"/>
@@ -6484,7 +6445,7 @@
       <c r="I665" s="10"/>
       <c r="K665" s="10"/>
     </row>
-    <row r="666" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:11" ht="15.75" customHeight="1">
       <c r="A666" s="10"/>
       <c r="E666" s="10"/>
       <c r="F666" s="10"/>
@@ -6492,7 +6453,7 @@
       <c r="I666" s="10"/>
       <c r="K666" s="10"/>
     </row>
-    <row r="667" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:11" ht="15.75" customHeight="1">
       <c r="A667" s="10"/>
       <c r="E667" s="10"/>
       <c r="F667" s="10"/>
@@ -6500,7 +6461,7 @@
       <c r="I667" s="10"/>
       <c r="K667" s="10"/>
     </row>
-    <row r="668" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:11" ht="15.75" customHeight="1">
       <c r="A668" s="10"/>
       <c r="E668" s="10"/>
       <c r="F668" s="10"/>
@@ -6508,7 +6469,7 @@
       <c r="I668" s="10"/>
       <c r="K668" s="10"/>
     </row>
-    <row r="669" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:11" ht="15.75" customHeight="1">
       <c r="A669" s="10"/>
       <c r="E669" s="10"/>
       <c r="F669" s="10"/>
@@ -6516,7 +6477,7 @@
       <c r="I669" s="10"/>
       <c r="K669" s="10"/>
     </row>
-    <row r="670" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:11" ht="15.75" customHeight="1">
       <c r="A670" s="10"/>
       <c r="E670" s="10"/>
       <c r="F670" s="10"/>
@@ -6524,7 +6485,7 @@
       <c r="I670" s="10"/>
       <c r="K670" s="10"/>
     </row>
-    <row r="671" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:11" ht="15.75" customHeight="1">
       <c r="A671" s="10"/>
       <c r="E671" s="10"/>
       <c r="F671" s="10"/>
@@ -6532,7 +6493,7 @@
       <c r="I671" s="10"/>
       <c r="K671" s="10"/>
     </row>
-    <row r="672" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:11" ht="15.75" customHeight="1">
       <c r="A672" s="10"/>
       <c r="E672" s="10"/>
       <c r="F672" s="10"/>
@@ -6540,7 +6501,7 @@
       <c r="I672" s="10"/>
       <c r="K672" s="10"/>
     </row>
-    <row r="673" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:11" ht="15.75" customHeight="1">
       <c r="A673" s="10"/>
       <c r="E673" s="10"/>
       <c r="F673" s="10"/>
@@ -6548,7 +6509,7 @@
       <c r="I673" s="10"/>
       <c r="K673" s="10"/>
     </row>
-    <row r="674" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:11" ht="15.75" customHeight="1">
       <c r="A674" s="10"/>
       <c r="E674" s="10"/>
       <c r="F674" s="10"/>
@@ -6556,7 +6517,7 @@
       <c r="I674" s="10"/>
       <c r="K674" s="10"/>
     </row>
-    <row r="675" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:11" ht="15.75" customHeight="1">
       <c r="A675" s="10"/>
       <c r="E675" s="10"/>
       <c r="F675" s="10"/>
@@ -6564,7 +6525,7 @@
       <c r="I675" s="10"/>
       <c r="K675" s="10"/>
     </row>
-    <row r="676" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:11" ht="15.75" customHeight="1">
       <c r="A676" s="10"/>
       <c r="E676" s="10"/>
       <c r="F676" s="10"/>
@@ -6572,7 +6533,7 @@
       <c r="I676" s="10"/>
       <c r="K676" s="10"/>
     </row>
-    <row r="677" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:11" ht="15.75" customHeight="1">
       <c r="A677" s="10"/>
       <c r="E677" s="10"/>
       <c r="F677" s="10"/>
@@ -6580,7 +6541,7 @@
       <c r="I677" s="10"/>
       <c r="K677" s="10"/>
     </row>
-    <row r="678" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:11" ht="15.75" customHeight="1">
       <c r="A678" s="10"/>
       <c r="E678" s="10"/>
       <c r="F678" s="10"/>
@@ -6588,7 +6549,7 @@
       <c r="I678" s="10"/>
       <c r="K678" s="10"/>
     </row>
-    <row r="679" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:11" ht="15.75" customHeight="1">
       <c r="A679" s="10"/>
       <c r="E679" s="10"/>
       <c r="F679" s="10"/>
@@ -6596,7 +6557,7 @@
       <c r="I679" s="10"/>
       <c r="K679" s="10"/>
     </row>
-    <row r="680" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:11" ht="15.75" customHeight="1">
       <c r="A680" s="10"/>
       <c r="E680" s="10"/>
       <c r="F680" s="10"/>
@@ -6604,7 +6565,7 @@
       <c r="I680" s="10"/>
       <c r="K680" s="10"/>
     </row>
-    <row r="681" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:11" ht="15.75" customHeight="1">
       <c r="A681" s="10"/>
       <c r="E681" s="10"/>
       <c r="F681" s="10"/>
@@ -6612,7 +6573,7 @@
       <c r="I681" s="10"/>
       <c r="K681" s="10"/>
     </row>
-    <row r="682" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:11" ht="15.75" customHeight="1">
       <c r="A682" s="10"/>
       <c r="E682" s="10"/>
       <c r="F682" s="10"/>
@@ -6620,7 +6581,7 @@
       <c r="I682" s="10"/>
       <c r="K682" s="10"/>
     </row>
-    <row r="683" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:11" ht="15.75" customHeight="1">
       <c r="A683" s="10"/>
       <c r="E683" s="10"/>
       <c r="F683" s="10"/>
@@ -6628,7 +6589,7 @@
       <c r="I683" s="10"/>
       <c r="K683" s="10"/>
     </row>
-    <row r="684" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:11" ht="15.75" customHeight="1">
       <c r="A684" s="10"/>
       <c r="E684" s="10"/>
       <c r="F684" s="10"/>
@@ -6636,7 +6597,7 @@
       <c r="I684" s="10"/>
       <c r="K684" s="10"/>
     </row>
-    <row r="685" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:11" ht="15.75" customHeight="1">
       <c r="A685" s="10"/>
       <c r="E685" s="10"/>
       <c r="F685" s="10"/>
@@ -6644,7 +6605,7 @@
       <c r="I685" s="10"/>
       <c r="K685" s="10"/>
     </row>
-    <row r="686" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:11" ht="15.75" customHeight="1">
       <c r="A686" s="10"/>
       <c r="E686" s="10"/>
       <c r="F686" s="10"/>
@@ -6652,7 +6613,7 @@
       <c r="I686" s="10"/>
       <c r="K686" s="10"/>
     </row>
-    <row r="687" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:11" ht="15.75" customHeight="1">
       <c r="A687" s="10"/>
       <c r="E687" s="10"/>
       <c r="F687" s="10"/>
@@ -6660,7 +6621,7 @@
       <c r="I687" s="10"/>
       <c r="K687" s="10"/>
     </row>
-    <row r="688" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:11" ht="15.75" customHeight="1">
       <c r="A688" s="10"/>
       <c r="E688" s="10"/>
       <c r="F688" s="10"/>
@@ -6668,7 +6629,7 @@
       <c r="I688" s="10"/>
       <c r="K688" s="10"/>
     </row>
-    <row r="689" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:11" ht="15.75" customHeight="1">
       <c r="A689" s="10"/>
       <c r="E689" s="10"/>
       <c r="F689" s="10"/>
@@ -6676,7 +6637,7 @@
       <c r="I689" s="10"/>
       <c r="K689" s="10"/>
     </row>
-    <row r="690" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:11" ht="15.75" customHeight="1">
       <c r="A690" s="10"/>
       <c r="E690" s="10"/>
       <c r="F690" s="10"/>
@@ -6684,7 +6645,7 @@
       <c r="I690" s="10"/>
       <c r="K690" s="10"/>
     </row>
-    <row r="691" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:11" ht="15.75" customHeight="1">
       <c r="A691" s="10"/>
       <c r="E691" s="10"/>
       <c r="F691" s="10"/>
@@ -6692,7 +6653,7 @@
       <c r="I691" s="10"/>
       <c r="K691" s="10"/>
     </row>
-    <row r="692" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:11" ht="15.75" customHeight="1">
       <c r="A692" s="10"/>
       <c r="E692" s="10"/>
       <c r="F692" s="10"/>
@@ -6700,7 +6661,7 @@
       <c r="I692" s="10"/>
       <c r="K692" s="10"/>
     </row>
-    <row r="693" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:11" ht="15.75" customHeight="1">
       <c r="A693" s="10"/>
       <c r="E693" s="10"/>
       <c r="F693" s="10"/>
@@ -6708,7 +6669,7 @@
       <c r="I693" s="10"/>
       <c r="K693" s="10"/>
     </row>
-    <row r="694" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:11" ht="15.75" customHeight="1">
       <c r="A694" s="10"/>
       <c r="E694" s="10"/>
       <c r="F694" s="10"/>
@@ -6716,7 +6677,7 @@
       <c r="I694" s="10"/>
       <c r="K694" s="10"/>
     </row>
-    <row r="695" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:11" ht="15.75" customHeight="1">
       <c r="A695" s="10"/>
       <c r="E695" s="10"/>
       <c r="F695" s="10"/>
@@ -6724,7 +6685,7 @@
       <c r="I695" s="10"/>
       <c r="K695" s="10"/>
     </row>
-    <row r="696" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:11" ht="15.75" customHeight="1">
       <c r="A696" s="10"/>
       <c r="E696" s="10"/>
       <c r="F696" s="10"/>
@@ -6732,7 +6693,7 @@
       <c r="I696" s="10"/>
       <c r="K696" s="10"/>
     </row>
-    <row r="697" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:11" ht="15.75" customHeight="1">
       <c r="A697" s="10"/>
       <c r="E697" s="10"/>
       <c r="F697" s="10"/>
@@ -6740,7 +6701,7 @@
       <c r="I697" s="10"/>
       <c r="K697" s="10"/>
     </row>
-    <row r="698" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:11" ht="15.75" customHeight="1">
       <c r="A698" s="10"/>
       <c r="E698" s="10"/>
       <c r="F698" s="10"/>
@@ -6748,7 +6709,7 @@
       <c r="I698" s="10"/>
       <c r="K698" s="10"/>
     </row>
-    <row r="699" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:11" ht="15.75" customHeight="1">
       <c r="A699" s="10"/>
       <c r="E699" s="10"/>
       <c r="F699" s="10"/>
@@ -6756,7 +6717,7 @@
       <c r="I699" s="10"/>
       <c r="K699" s="10"/>
     </row>
-    <row r="700" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:11" ht="15.75" customHeight="1">
       <c r="A700" s="10"/>
       <c r="E700" s="10"/>
       <c r="F700" s="10"/>
@@ -6764,7 +6725,7 @@
       <c r="I700" s="10"/>
       <c r="K700" s="10"/>
     </row>
-    <row r="701" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:11" ht="15.75" customHeight="1">
       <c r="A701" s="10"/>
       <c r="E701" s="10"/>
       <c r="F701" s="10"/>
@@ -6772,7 +6733,7 @@
       <c r="I701" s="10"/>
       <c r="K701" s="10"/>
     </row>
-    <row r="702" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:11" ht="15.75" customHeight="1">
       <c r="A702" s="10"/>
       <c r="E702" s="10"/>
       <c r="F702" s="10"/>
@@ -6780,7 +6741,7 @@
       <c r="I702" s="10"/>
       <c r="K702" s="10"/>
     </row>
-    <row r="703" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:11" ht="15.75" customHeight="1">
       <c r="A703" s="10"/>
       <c r="E703" s="10"/>
       <c r="F703" s="10"/>
@@ -6788,7 +6749,7 @@
       <c r="I703" s="10"/>
       <c r="K703" s="10"/>
     </row>
-    <row r="704" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:11" ht="15.75" customHeight="1">
       <c r="A704" s="10"/>
       <c r="E704" s="10"/>
       <c r="F704" s="10"/>
@@ -6796,7 +6757,7 @@
       <c r="I704" s="10"/>
       <c r="K704" s="10"/>
     </row>
-    <row r="705" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:11" ht="15.75" customHeight="1">
       <c r="A705" s="10"/>
       <c r="E705" s="10"/>
       <c r="F705" s="10"/>
@@ -6804,7 +6765,7 @@
       <c r="I705" s="10"/>
       <c r="K705" s="10"/>
     </row>
-    <row r="706" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:11" ht="15.75" customHeight="1">
       <c r="A706" s="10"/>
       <c r="E706" s="10"/>
       <c r="F706" s="10"/>
@@ -6812,7 +6773,7 @@
       <c r="I706" s="10"/>
       <c r="K706" s="10"/>
     </row>
-    <row r="707" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:11" ht="15.75" customHeight="1">
       <c r="A707" s="10"/>
       <c r="E707" s="10"/>
       <c r="F707" s="10"/>
@@ -6820,7 +6781,7 @@
       <c r="I707" s="10"/>
       <c r="K707" s="10"/>
     </row>
-    <row r="708" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:11" ht="15.75" customHeight="1">
       <c r="A708" s="10"/>
       <c r="E708" s="10"/>
       <c r="F708" s="10"/>
@@ -6828,7 +6789,7 @@
       <c r="I708" s="10"/>
       <c r="K708" s="10"/>
     </row>
-    <row r="709" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:11" ht="15.75" customHeight="1">
       <c r="A709" s="10"/>
       <c r="E709" s="10"/>
       <c r="F709" s="10"/>
@@ -6836,7 +6797,7 @@
       <c r="I709" s="10"/>
       <c r="K709" s="10"/>
     </row>
-    <row r="710" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:11" ht="15.75" customHeight="1">
       <c r="A710" s="10"/>
       <c r="E710" s="10"/>
       <c r="F710" s="10"/>
@@ -6844,7 +6805,7 @@
       <c r="I710" s="10"/>
       <c r="K710" s="10"/>
     </row>
-    <row r="711" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:11" ht="15.75" customHeight="1">
       <c r="A711" s="10"/>
       <c r="E711" s="10"/>
       <c r="F711" s="10"/>
@@ -6852,7 +6813,7 @@
       <c r="I711" s="10"/>
       <c r="K711" s="10"/>
     </row>
-    <row r="712" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:11" ht="15.75" customHeight="1">
       <c r="A712" s="10"/>
       <c r="E712" s="10"/>
       <c r="F712" s="10"/>
@@ -6860,7 +6821,7 @@
       <c r="I712" s="10"/>
       <c r="K712" s="10"/>
     </row>
-    <row r="713" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:11" ht="15.75" customHeight="1">
       <c r="A713" s="10"/>
       <c r="E713" s="10"/>
       <c r="F713" s="10"/>
@@ -6868,7 +6829,7 @@
       <c r="I713" s="10"/>
       <c r="K713" s="10"/>
     </row>
-    <row r="714" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:11" ht="15.75" customHeight="1">
       <c r="A714" s="10"/>
       <c r="E714" s="10"/>
       <c r="F714" s="10"/>
@@ -6876,7 +6837,7 @@
       <c r="I714" s="10"/>
       <c r="K714" s="10"/>
     </row>
-    <row r="715" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:11" ht="15.75" customHeight="1">
       <c r="A715" s="10"/>
       <c r="E715" s="10"/>
       <c r="F715" s="10"/>
@@ -6884,7 +6845,7 @@
       <c r="I715" s="10"/>
       <c r="K715" s="10"/>
     </row>
-    <row r="716" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:11" ht="15.75" customHeight="1">
       <c r="A716" s="10"/>
       <c r="E716" s="10"/>
       <c r="F716" s="10"/>
@@ -6892,7 +6853,7 @@
       <c r="I716" s="10"/>
       <c r="K716" s="10"/>
     </row>
-    <row r="717" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:11" ht="15.75" customHeight="1">
       <c r="A717" s="10"/>
       <c r="E717" s="10"/>
       <c r="F717" s="10"/>
@@ -6900,7 +6861,7 @@
       <c r="I717" s="10"/>
       <c r="K717" s="10"/>
     </row>
-    <row r="718" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:11" ht="15.75" customHeight="1">
       <c r="A718" s="10"/>
       <c r="E718" s="10"/>
       <c r="F718" s="10"/>
@@ -6908,7 +6869,7 @@
       <c r="I718" s="10"/>
       <c r="K718" s="10"/>
     </row>
-    <row r="719" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:11" ht="15.75" customHeight="1">
       <c r="A719" s="10"/>
       <c r="E719" s="10"/>
       <c r="F719" s="10"/>
@@ -6916,7 +6877,7 @@
       <c r="I719" s="10"/>
       <c r="K719" s="10"/>
     </row>
-    <row r="720" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:11" ht="15.75" customHeight="1">
       <c r="A720" s="10"/>
       <c r="E720" s="10"/>
       <c r="F720" s="10"/>
@@ -6924,7 +6885,7 @@
       <c r="I720" s="10"/>
       <c r="K720" s="10"/>
     </row>
-    <row r="721" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:11" ht="15.75" customHeight="1">
       <c r="A721" s="10"/>
       <c r="E721" s="10"/>
       <c r="F721" s="10"/>
@@ -6932,7 +6893,7 @@
       <c r="I721" s="10"/>
       <c r="K721" s="10"/>
     </row>
-    <row r="722" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:11" ht="15.75" customHeight="1">
       <c r="A722" s="10"/>
       <c r="E722" s="10"/>
       <c r="F722" s="10"/>
@@ -6940,7 +6901,7 @@
       <c r="I722" s="10"/>
       <c r="K722" s="10"/>
     </row>
-    <row r="723" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:11" ht="15.75" customHeight="1">
       <c r="A723" s="10"/>
       <c r="E723" s="10"/>
       <c r="F723" s="10"/>
@@ -6948,7 +6909,7 @@
       <c r="I723" s="10"/>
       <c r="K723" s="10"/>
     </row>
-    <row r="724" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:11" ht="15.75" customHeight="1">
       <c r="A724" s="10"/>
       <c r="E724" s="10"/>
       <c r="F724" s="10"/>
@@ -6956,7 +6917,7 @@
       <c r="I724" s="10"/>
       <c r="K724" s="10"/>
     </row>
-    <row r="725" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:11" ht="15.75" customHeight="1">
       <c r="A725" s="10"/>
       <c r="E725" s="10"/>
       <c r="F725" s="10"/>
@@ -6964,7 +6925,7 @@
       <c r="I725" s="10"/>
       <c r="K725" s="10"/>
     </row>
-    <row r="726" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:11" ht="15.75" customHeight="1">
       <c r="A726" s="10"/>
       <c r="E726" s="10"/>
       <c r="F726" s="10"/>
@@ -6972,7 +6933,7 @@
       <c r="I726" s="10"/>
       <c r="K726" s="10"/>
     </row>
-    <row r="727" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:11" ht="15.75" customHeight="1">
       <c r="A727" s="10"/>
       <c r="E727" s="10"/>
       <c r="F727" s="10"/>
@@ -6980,7 +6941,7 @@
       <c r="I727" s="10"/>
       <c r="K727" s="10"/>
     </row>
-    <row r="728" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:11" ht="15.75" customHeight="1">
       <c r="A728" s="10"/>
       <c r="E728" s="10"/>
       <c r="F728" s="10"/>
@@ -6988,7 +6949,7 @@
       <c r="I728" s="10"/>
       <c r="K728" s="10"/>
     </row>
-    <row r="729" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:11" ht="15.75" customHeight="1">
       <c r="A729" s="10"/>
       <c r="E729" s="10"/>
       <c r="F729" s="10"/>
@@ -6996,7 +6957,7 @@
       <c r="I729" s="10"/>
       <c r="K729" s="10"/>
     </row>
-    <row r="730" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:11" ht="15.75" customHeight="1">
       <c r="A730" s="10"/>
       <c r="E730" s="10"/>
       <c r="F730" s="10"/>
@@ -7004,7 +6965,7 @@
       <c r="I730" s="10"/>
       <c r="K730" s="10"/>
     </row>
-    <row r="731" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:11" ht="15.75" customHeight="1">
       <c r="A731" s="10"/>
       <c r="E731" s="10"/>
       <c r="F731" s="10"/>
@@ -7012,7 +6973,7 @@
       <c r="I731" s="10"/>
       <c r="K731" s="10"/>
     </row>
-    <row r="732" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:11" ht="15.75" customHeight="1">
       <c r="A732" s="10"/>
       <c r="E732" s="10"/>
       <c r="F732" s="10"/>
@@ -7020,7 +6981,7 @@
       <c r="I732" s="10"/>
       <c r="K732" s="10"/>
     </row>
-    <row r="733" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:11" ht="15.75" customHeight="1">
       <c r="A733" s="10"/>
       <c r="E733" s="10"/>
       <c r="F733" s="10"/>
@@ -7028,7 +6989,7 @@
       <c r="I733" s="10"/>
       <c r="K733" s="10"/>
     </row>
-    <row r="734" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:11" ht="15.75" customHeight="1">
       <c r="A734" s="10"/>
       <c r="E734" s="10"/>
       <c r="F734" s="10"/>
@@ -7036,7 +6997,7 @@
       <c r="I734" s="10"/>
       <c r="K734" s="10"/>
     </row>
-    <row r="735" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:11" ht="15.75" customHeight="1">
       <c r="A735" s="10"/>
       <c r="E735" s="10"/>
       <c r="F735" s="10"/>
@@ -7044,7 +7005,7 @@
       <c r="I735" s="10"/>
       <c r="K735" s="10"/>
     </row>
-    <row r="736" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:11" ht="15.75" customHeight="1">
       <c r="A736" s="10"/>
       <c r="E736" s="10"/>
       <c r="F736" s="10"/>
@@ -7052,7 +7013,7 @@
       <c r="I736" s="10"/>
       <c r="K736" s="10"/>
     </row>
-    <row r="737" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:11" ht="15.75" customHeight="1">
       <c r="A737" s="10"/>
       <c r="E737" s="10"/>
       <c r="F737" s="10"/>
@@ -7060,7 +7021,7 @@
       <c r="I737" s="10"/>
       <c r="K737" s="10"/>
     </row>
-    <row r="738" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:11" ht="15.75" customHeight="1">
       <c r="A738" s="10"/>
       <c r="E738" s="10"/>
       <c r="F738" s="10"/>
@@ -7068,7 +7029,7 @@
       <c r="I738" s="10"/>
       <c r="K738" s="10"/>
     </row>
-    <row r="739" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:11" ht="15.75" customHeight="1">
       <c r="A739" s="10"/>
       <c r="E739" s="10"/>
       <c r="F739" s="10"/>
@@ -7076,7 +7037,7 @@
       <c r="I739" s="10"/>
       <c r="K739" s="10"/>
     </row>
-    <row r="740" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:11" ht="15.75" customHeight="1">
       <c r="A740" s="10"/>
       <c r="E740" s="10"/>
       <c r="F740" s="10"/>
@@ -7084,7 +7045,7 @@
       <c r="I740" s="10"/>
       <c r="K740" s="10"/>
     </row>
-    <row r="741" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:11" ht="15.75" customHeight="1">
       <c r="A741" s="10"/>
       <c r="E741" s="10"/>
       <c r="F741" s="10"/>
@@ -7092,7 +7053,7 @@
       <c r="I741" s="10"/>
       <c r="K741" s="10"/>
     </row>
-    <row r="742" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:11" ht="15.75" customHeight="1">
       <c r="A742" s="10"/>
       <c r="E742" s="10"/>
       <c r="F742" s="10"/>
@@ -7100,7 +7061,7 @@
       <c r="I742" s="10"/>
       <c r="K742" s="10"/>
     </row>
-    <row r="743" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:11" ht="15.75" customHeight="1">
       <c r="A743" s="10"/>
       <c r="E743" s="10"/>
       <c r="F743" s="10"/>
@@ -7108,7 +7069,7 @@
       <c r="I743" s="10"/>
       <c r="K743" s="10"/>
     </row>
-    <row r="744" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:11" ht="15.75" customHeight="1">
       <c r="A744" s="10"/>
       <c r="E744" s="10"/>
       <c r="F744" s="10"/>
@@ -7116,7 +7077,7 @@
       <c r="I744" s="10"/>
       <c r="K744" s="10"/>
     </row>
-    <row r="745" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:11" ht="15.75" customHeight="1">
       <c r="A745" s="10"/>
       <c r="E745" s="10"/>
       <c r="F745" s="10"/>
@@ -7124,7 +7085,7 @@
       <c r="I745" s="10"/>
       <c r="K745" s="10"/>
     </row>
-    <row r="746" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:11" ht="15.75" customHeight="1">
       <c r="A746" s="10"/>
       <c r="E746" s="10"/>
       <c r="F746" s="10"/>
@@ -7132,7 +7093,7 @@
       <c r="I746" s="10"/>
       <c r="K746" s="10"/>
     </row>
-    <row r="747" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:11" ht="15.75" customHeight="1">
       <c r="A747" s="10"/>
       <c r="E747" s="10"/>
       <c r="F747" s="10"/>
@@ -7140,7 +7101,7 @@
       <c r="I747" s="10"/>
       <c r="K747" s="10"/>
     </row>
-    <row r="748" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:11" ht="15.75" customHeight="1">
       <c r="A748" s="10"/>
       <c r="E748" s="10"/>
       <c r="F748" s="10"/>
@@ -7148,7 +7109,7 @@
       <c r="I748" s="10"/>
       <c r="K748" s="10"/>
     </row>
-    <row r="749" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:11" ht="15.75" customHeight="1">
       <c r="A749" s="10"/>
       <c r="E749" s="10"/>
       <c r="F749" s="10"/>
@@ -7156,7 +7117,7 @@
       <c r="I749" s="10"/>
       <c r="K749" s="10"/>
     </row>
-    <row r="750" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:11" ht="15.75" customHeight="1">
       <c r="A750" s="10"/>
       <c r="E750" s="10"/>
       <c r="F750" s="10"/>
@@ -7164,7 +7125,7 @@
       <c r="I750" s="10"/>
       <c r="K750" s="10"/>
     </row>
-    <row r="751" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:11" ht="15.75" customHeight="1">
       <c r="A751" s="10"/>
       <c r="E751" s="10"/>
       <c r="F751" s="10"/>
@@ -7172,7 +7133,7 @@
       <c r="I751" s="10"/>
       <c r="K751" s="10"/>
     </row>
-    <row r="752" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:11" ht="15.75" customHeight="1">
       <c r="A752" s="10"/>
       <c r="E752" s="10"/>
       <c r="F752" s="10"/>
@@ -7180,7 +7141,7 @@
       <c r="I752" s="10"/>
       <c r="K752" s="10"/>
     </row>
-    <row r="753" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:11" ht="15.75" customHeight="1">
       <c r="A753" s="10"/>
       <c r="E753" s="10"/>
       <c r="F753" s="10"/>
@@ -7188,7 +7149,7 @@
       <c r="I753" s="10"/>
       <c r="K753" s="10"/>
     </row>
-    <row r="754" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:11" ht="15.75" customHeight="1">
       <c r="A754" s="10"/>
       <c r="E754" s="10"/>
       <c r="F754" s="10"/>
@@ -7196,7 +7157,7 @@
       <c r="I754" s="10"/>
       <c r="K754" s="10"/>
     </row>
-    <row r="755" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:11" ht="15.75" customHeight="1">
       <c r="A755" s="10"/>
       <c r="E755" s="10"/>
       <c r="F755" s="10"/>
@@ -7204,7 +7165,7 @@
       <c r="I755" s="10"/>
       <c r="K755" s="10"/>
     </row>
-    <row r="756" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:11" ht="15.75" customHeight="1">
       <c r="A756" s="10"/>
       <c r="E756" s="10"/>
       <c r="F756" s="10"/>
@@ -7212,7 +7173,7 @@
       <c r="I756" s="10"/>
       <c r="K756" s="10"/>
     </row>
-    <row r="757" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:11" ht="15.75" customHeight="1">
       <c r="A757" s="10"/>
       <c r="E757" s="10"/>
       <c r="F757" s="10"/>
@@ -7220,7 +7181,7 @@
       <c r="I757" s="10"/>
       <c r="K757" s="10"/>
     </row>
-    <row r="758" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:11" ht="15.75" customHeight="1">
       <c r="A758" s="10"/>
       <c r="E758" s="10"/>
       <c r="F758" s="10"/>
@@ -7228,7 +7189,7 @@
       <c r="I758" s="10"/>
       <c r="K758" s="10"/>
     </row>
-    <row r="759" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:11" ht="15.75" customHeight="1">
       <c r="A759" s="10"/>
       <c r="E759" s="10"/>
       <c r="F759" s="10"/>
@@ -7236,7 +7197,7 @@
       <c r="I759" s="10"/>
       <c r="K759" s="10"/>
     </row>
-    <row r="760" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:11" ht="15.75" customHeight="1">
       <c r="A760" s="10"/>
       <c r="E760" s="10"/>
       <c r="F760" s="10"/>
@@ -7244,7 +7205,7 @@
       <c r="I760" s="10"/>
       <c r="K760" s="10"/>
     </row>
-    <row r="761" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:11" ht="15.75" customHeight="1">
       <c r="A761" s="10"/>
       <c r="E761" s="10"/>
       <c r="F761" s="10"/>
@@ -7252,7 +7213,7 @@
       <c r="I761" s="10"/>
       <c r="K761" s="10"/>
     </row>
-    <row r="762" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:11" ht="15.75" customHeight="1">
       <c r="A762" s="10"/>
       <c r="E762" s="10"/>
       <c r="F762" s="10"/>
@@ -7260,7 +7221,7 @@
       <c r="I762" s="10"/>
       <c r="K762" s="10"/>
     </row>
-    <row r="763" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:11" ht="15.75" customHeight="1">
       <c r="A763" s="10"/>
       <c r="E763" s="10"/>
       <c r="F763" s="10"/>
@@ -7268,7 +7229,7 @@
       <c r="I763" s="10"/>
       <c r="K763" s="10"/>
     </row>
-    <row r="764" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:11" ht="15.75" customHeight="1">
       <c r="A764" s="10"/>
       <c r="E764" s="10"/>
       <c r="F764" s="10"/>
@@ -7276,7 +7237,7 @@
       <c r="I764" s="10"/>
       <c r="K764" s="10"/>
     </row>
-    <row r="765" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:11" ht="15.75" customHeight="1">
       <c r="A765" s="10"/>
       <c r="E765" s="10"/>
       <c r="F765" s="10"/>
@@ -7284,7 +7245,7 @@
       <c r="I765" s="10"/>
       <c r="K765" s="10"/>
     </row>
-    <row r="766" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:11" ht="15.75" customHeight="1">
       <c r="A766" s="10"/>
       <c r="E766" s="10"/>
       <c r="F766" s="10"/>
@@ -7292,7 +7253,7 @@
       <c r="I766" s="10"/>
       <c r="K766" s="10"/>
     </row>
-    <row r="767" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:11" ht="15.75" customHeight="1">
       <c r="A767" s="10"/>
       <c r="E767" s="10"/>
       <c r="F767" s="10"/>
@@ -7300,7 +7261,7 @@
       <c r="I767" s="10"/>
       <c r="K767" s="10"/>
     </row>
-    <row r="768" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:11" ht="15.75" customHeight="1">
       <c r="A768" s="10"/>
       <c r="E768" s="10"/>
       <c r="F768" s="10"/>
@@ -7308,7 +7269,7 @@
       <c r="I768" s="10"/>
       <c r="K768" s="10"/>
     </row>
-    <row r="769" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:11" ht="15.75" customHeight="1">
       <c r="A769" s="10"/>
       <c r="E769" s="10"/>
       <c r="F769" s="10"/>
@@ -7316,7 +7277,7 @@
       <c r="I769" s="10"/>
       <c r="K769" s="10"/>
     </row>
-    <row r="770" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:11" ht="15.75" customHeight="1">
       <c r="A770" s="10"/>
       <c r="E770" s="10"/>
       <c r="F770" s="10"/>
@@ -7324,7 +7285,7 @@
       <c r="I770" s="10"/>
       <c r="K770" s="10"/>
     </row>
-    <row r="771" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:11" ht="15.75" customHeight="1">
       <c r="A771" s="10"/>
       <c r="E771" s="10"/>
       <c r="F771" s="10"/>
@@ -7332,7 +7293,7 @@
       <c r="I771" s="10"/>
       <c r="K771" s="10"/>
     </row>
-    <row r="772" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:11" ht="15.75" customHeight="1">
       <c r="A772" s="10"/>
       <c r="E772" s="10"/>
       <c r="F772" s="10"/>
@@ -7340,7 +7301,7 @@
       <c r="I772" s="10"/>
       <c r="K772" s="10"/>
     </row>
-    <row r="773" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:11" ht="15.75" customHeight="1">
       <c r="A773" s="10"/>
       <c r="E773" s="10"/>
       <c r="F773" s="10"/>
@@ -7348,7 +7309,7 @@
       <c r="I773" s="10"/>
       <c r="K773" s="10"/>
     </row>
-    <row r="774" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:11" ht="15.75" customHeight="1">
       <c r="A774" s="10"/>
       <c r="E774" s="10"/>
       <c r="F774" s="10"/>
@@ -7356,7 +7317,7 @@
       <c r="I774" s="10"/>
       <c r="K774" s="10"/>
     </row>
-    <row r="775" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:11" ht="15.75" customHeight="1">
       <c r="A775" s="10"/>
       <c r="E775" s="10"/>
       <c r="F775" s="10"/>
@@ -7364,7 +7325,7 @@
       <c r="I775" s="10"/>
       <c r="K775" s="10"/>
     </row>
-    <row r="776" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:11" ht="15.75" customHeight="1">
       <c r="A776" s="10"/>
       <c r="E776" s="10"/>
       <c r="F776" s="10"/>
@@ -7372,7 +7333,7 @@
       <c r="I776" s="10"/>
       <c r="K776" s="10"/>
     </row>
-    <row r="777" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:11" ht="15.75" customHeight="1">
       <c r="A777" s="10"/>
       <c r="E777" s="10"/>
       <c r="F777" s="10"/>
@@ -7380,7 +7341,7 @@
       <c r="I777" s="10"/>
       <c r="K777" s="10"/>
     </row>
-    <row r="778" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:11" ht="15.75" customHeight="1">
       <c r="A778" s="10"/>
       <c r="E778" s="10"/>
       <c r="F778" s="10"/>
@@ -7388,7 +7349,7 @@
       <c r="I778" s="10"/>
       <c r="K778" s="10"/>
     </row>
-    <row r="779" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:11" ht="15.75" customHeight="1">
       <c r="A779" s="10"/>
       <c r="E779" s="10"/>
       <c r="F779" s="10"/>
@@ -7396,7 +7357,7 @@
       <c r="I779" s="10"/>
       <c r="K779" s="10"/>
     </row>
-    <row r="780" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:11" ht="15.75" customHeight="1">
       <c r="A780" s="10"/>
       <c r="E780" s="10"/>
       <c r="F780" s="10"/>
@@ -7404,7 +7365,7 @@
       <c r="I780" s="10"/>
       <c r="K780" s="10"/>
     </row>
-    <row r="781" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:11" ht="15.75" customHeight="1">
       <c r="A781" s="10"/>
       <c r="E781" s="10"/>
       <c r="F781" s="10"/>
@@ -7412,7 +7373,7 @@
       <c r="I781" s="10"/>
       <c r="K781" s="10"/>
     </row>
-    <row r="782" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:11" ht="15.75" customHeight="1">
       <c r="A782" s="10"/>
       <c r="E782" s="10"/>
       <c r="F782" s="10"/>
@@ -7420,7 +7381,7 @@
       <c r="I782" s="10"/>
       <c r="K782" s="10"/>
     </row>
-    <row r="783" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:11" ht="15.75" customHeight="1">
       <c r="A783" s="10"/>
       <c r="E783" s="10"/>
       <c r="F783" s="10"/>
@@ -7428,7 +7389,7 @@
       <c r="I783" s="10"/>
       <c r="K783" s="10"/>
     </row>
-    <row r="784" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:11" ht="15.75" customHeight="1">
       <c r="A784" s="10"/>
       <c r="E784" s="10"/>
       <c r="F784" s="10"/>
@@ -7436,7 +7397,7 @@
       <c r="I784" s="10"/>
       <c r="K784" s="10"/>
     </row>
-    <row r="785" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:11" ht="15.75" customHeight="1">
       <c r="A785" s="10"/>
       <c r="E785" s="10"/>
       <c r="F785" s="10"/>
@@ -7444,7 +7405,7 @@
       <c r="I785" s="10"/>
       <c r="K785" s="10"/>
     </row>
-    <row r="786" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:11" ht="15.75" customHeight="1">
       <c r="A786" s="10"/>
       <c r="E786" s="10"/>
       <c r="F786" s="10"/>
@@ -7452,7 +7413,7 @@
       <c r="I786" s="10"/>
       <c r="K786" s="10"/>
     </row>
-    <row r="787" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:11" ht="15.75" customHeight="1">
       <c r="A787" s="10"/>
       <c r="E787" s="10"/>
       <c r="F787" s="10"/>
@@ -7460,7 +7421,7 @@
       <c r="I787" s="10"/>
       <c r="K787" s="10"/>
     </row>
-    <row r="788" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:11" ht="15.75" customHeight="1">
       <c r="A788" s="10"/>
       <c r="E788" s="10"/>
       <c r="F788" s="10"/>
@@ -7468,7 +7429,7 @@
       <c r="I788" s="10"/>
       <c r="K788" s="10"/>
     </row>
-    <row r="789" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:11" ht="15.75" customHeight="1">
       <c r="A789" s="10"/>
       <c r="E789" s="10"/>
       <c r="F789" s="10"/>
@@ -7476,7 +7437,7 @@
       <c r="I789" s="10"/>
       <c r="K789" s="10"/>
     </row>
-    <row r="790" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:11" ht="15.75" customHeight="1">
       <c r="A790" s="10"/>
       <c r="E790" s="10"/>
       <c r="F790" s="10"/>
@@ -7484,7 +7445,7 @@
       <c r="I790" s="10"/>
       <c r="K790" s="10"/>
     </row>
-    <row r="791" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:11" ht="15.75" customHeight="1">
       <c r="A791" s="10"/>
       <c r="E791" s="10"/>
       <c r="F791" s="10"/>
@@ -7492,7 +7453,7 @@
       <c r="I791" s="10"/>
       <c r="K791" s="10"/>
     </row>
-    <row r="792" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:11" ht="15.75" customHeight="1">
       <c r="A792" s="10"/>
       <c r="E792" s="10"/>
       <c r="F792" s="10"/>
@@ -7500,7 +7461,7 @@
       <c r="I792" s="10"/>
       <c r="K792" s="10"/>
     </row>
-    <row r="793" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:11" ht="15.75" customHeight="1">
       <c r="A793" s="10"/>
       <c r="E793" s="10"/>
       <c r="F793" s="10"/>
@@ -7508,7 +7469,7 @@
       <c r="I793" s="10"/>
       <c r="K793" s="10"/>
     </row>
-    <row r="794" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:11" ht="15.75" customHeight="1">
       <c r="A794" s="10"/>
       <c r="E794" s="10"/>
       <c r="F794" s="10"/>
@@ -7516,7 +7477,7 @@
       <c r="I794" s="10"/>
       <c r="K794" s="10"/>
     </row>
-    <row r="795" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:11" ht="15.75" customHeight="1">
       <c r="A795" s="10"/>
       <c r="E795" s="10"/>
       <c r="F795" s="10"/>
@@ -7524,7 +7485,7 @@
       <c r="I795" s="10"/>
       <c r="K795" s="10"/>
     </row>
-    <row r="796" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:11" ht="15.75" customHeight="1">
       <c r="A796" s="10"/>
       <c r="E796" s="10"/>
       <c r="F796" s="10"/>
@@ -7532,7 +7493,7 @@
       <c r="I796" s="10"/>
       <c r="K796" s="10"/>
     </row>
-    <row r="797" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:11" ht="15.75" customHeight="1">
       <c r="A797" s="10"/>
       <c r="E797" s="10"/>
       <c r="F797" s="10"/>
@@ -7540,7 +7501,7 @@
       <c r="I797" s="10"/>
       <c r="K797" s="10"/>
     </row>
-    <row r="798" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:11" ht="15.75" customHeight="1">
       <c r="A798" s="10"/>
       <c r="E798" s="10"/>
       <c r="F798" s="10"/>
@@ -7548,7 +7509,7 @@
       <c r="I798" s="10"/>
       <c r="K798" s="10"/>
     </row>
-    <row r="799" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:11" ht="15.75" customHeight="1">
       <c r="A799" s="10"/>
       <c r="E799" s="10"/>
       <c r="F799" s="10"/>
@@ -7556,7 +7517,7 @@
       <c r="I799" s="10"/>
       <c r="K799" s="10"/>
     </row>
-    <row r="800" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:11" ht="15.75" customHeight="1">
       <c r="A800" s="10"/>
       <c r="E800" s="10"/>
       <c r="F800" s="10"/>
@@ -7564,7 +7525,7 @@
       <c r="I800" s="10"/>
       <c r="K800" s="10"/>
     </row>
-    <row r="801" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:11" ht="15.75" customHeight="1">
       <c r="A801" s="10"/>
       <c r="E801" s="10"/>
       <c r="F801" s="10"/>
@@ -7572,7 +7533,7 @@
       <c r="I801" s="10"/>
       <c r="K801" s="10"/>
     </row>
-    <row r="802" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:11" ht="15.75" customHeight="1">
       <c r="A802" s="10"/>
       <c r="E802" s="10"/>
       <c r="F802" s="10"/>
@@ -7580,7 +7541,7 @@
       <c r="I802" s="10"/>
       <c r="K802" s="10"/>
     </row>
-    <row r="803" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:11" ht="15.75" customHeight="1">
       <c r="A803" s="10"/>
       <c r="E803" s="10"/>
       <c r="F803" s="10"/>
@@ -7588,7 +7549,7 @@
       <c r="I803" s="10"/>
       <c r="K803" s="10"/>
     </row>
-    <row r="804" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:11" ht="15.75" customHeight="1">
       <c r="A804" s="10"/>
       <c r="E804" s="10"/>
       <c r="F804" s="10"/>
@@ -7596,7 +7557,7 @@
       <c r="I804" s="10"/>
       <c r="K804" s="10"/>
     </row>
-    <row r="805" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:11" ht="15.75" customHeight="1">
       <c r="A805" s="10"/>
       <c r="E805" s="10"/>
       <c r="F805" s="10"/>
@@ -7604,7 +7565,7 @@
       <c r="I805" s="10"/>
       <c r="K805" s="10"/>
     </row>
-    <row r="806" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:11" ht="15.75" customHeight="1">
       <c r="A806" s="10"/>
       <c r="E806" s="10"/>
       <c r="F806" s="10"/>
@@ -7612,7 +7573,7 @@
       <c r="I806" s="10"/>
       <c r="K806" s="10"/>
     </row>
-    <row r="807" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:11" ht="15.75" customHeight="1">
       <c r="A807" s="10"/>
       <c r="E807" s="10"/>
       <c r="F807" s="10"/>
@@ -7620,7 +7581,7 @@
       <c r="I807" s="10"/>
       <c r="K807" s="10"/>
     </row>
-    <row r="808" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:11" ht="15.75" customHeight="1">
       <c r="A808" s="10"/>
       <c r="E808" s="10"/>
       <c r="F808" s="10"/>
@@ -7628,7 +7589,7 @@
       <c r="I808" s="10"/>
       <c r="K808" s="10"/>
     </row>
-    <row r="809" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:11" ht="15.75" customHeight="1">
       <c r="A809" s="10"/>
       <c r="E809" s="10"/>
       <c r="F809" s="10"/>
@@ -7636,7 +7597,7 @@
       <c r="I809" s="10"/>
       <c r="K809" s="10"/>
     </row>
-    <row r="810" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:11" ht="15.75" customHeight="1">
       <c r="A810" s="10"/>
       <c r="E810" s="10"/>
       <c r="F810" s="10"/>
@@ -7644,7 +7605,7 @@
       <c r="I810" s="10"/>
       <c r="K810" s="10"/>
     </row>
-    <row r="811" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:11" ht="15.75" customHeight="1">
       <c r="A811" s="10"/>
       <c r="E811" s="10"/>
       <c r="F811" s="10"/>
@@ -7652,7 +7613,7 @@
       <c r="I811" s="10"/>
       <c r="K811" s="10"/>
     </row>
-    <row r="812" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:11" ht="15.75" customHeight="1">
       <c r="A812" s="10"/>
       <c r="E812" s="10"/>
       <c r="F812" s="10"/>
@@ -7660,7 +7621,7 @@
       <c r="I812" s="10"/>
       <c r="K812" s="10"/>
     </row>
-    <row r="813" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:11" ht="15.75" customHeight="1">
       <c r="A813" s="10"/>
       <c r="E813" s="10"/>
       <c r="F813" s="10"/>
@@ -7668,7 +7629,7 @@
       <c r="I813" s="10"/>
       <c r="K813" s="10"/>
     </row>
-    <row r="814" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:11" ht="15.75" customHeight="1">
       <c r="A814" s="10"/>
       <c r="E814" s="10"/>
       <c r="F814" s="10"/>
@@ -7676,7 +7637,7 @@
       <c r="I814" s="10"/>
       <c r="K814" s="10"/>
     </row>
-    <row r="815" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:11" ht="15.75" customHeight="1">
       <c r="A815" s="10"/>
       <c r="E815" s="10"/>
       <c r="F815" s="10"/>
@@ -7684,7 +7645,7 @@
       <c r="I815" s="10"/>
       <c r="K815" s="10"/>
     </row>
-    <row r="816" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:11" ht="15.75" customHeight="1">
       <c r="A816" s="10"/>
       <c r="E816" s="10"/>
       <c r="F816" s="10"/>
@@ -7692,7 +7653,7 @@
       <c r="I816" s="10"/>
       <c r="K816" s="10"/>
     </row>
-    <row r="817" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:11" ht="15.75" customHeight="1">
       <c r="A817" s="10"/>
       <c r="E817" s="10"/>
       <c r="F817" s="10"/>
@@ -7700,7 +7661,7 @@
       <c r="I817" s="10"/>
       <c r="K817" s="10"/>
     </row>
-    <row r="818" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:11" ht="15.75" customHeight="1">
       <c r="A818" s="10"/>
       <c r="E818" s="10"/>
       <c r="F818" s="10"/>
@@ -7708,7 +7669,7 @@
       <c r="I818" s="10"/>
       <c r="K818" s="10"/>
     </row>
-    <row r="819" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:11" ht="15.75" customHeight="1">
       <c r="A819" s="10"/>
       <c r="E819" s="10"/>
       <c r="F819" s="10"/>
@@ -7716,7 +7677,7 @@
       <c r="I819" s="10"/>
       <c r="K819" s="10"/>
     </row>
-    <row r="820" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:11" ht="15.75" customHeight="1">
       <c r="A820" s="10"/>
       <c r="E820" s="10"/>
       <c r="F820" s="10"/>
@@ -7724,7 +7685,7 @@
       <c r="I820" s="10"/>
       <c r="K820" s="10"/>
     </row>
-    <row r="821" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:11" ht="15.75" customHeight="1">
       <c r="A821" s="10"/>
       <c r="E821" s="10"/>
       <c r="F821" s="10"/>
@@ -7732,7 +7693,7 @@
       <c r="I821" s="10"/>
       <c r="K821" s="10"/>
     </row>
-    <row r="822" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:11" ht="15.75" customHeight="1">
       <c r="A822" s="10"/>
       <c r="E822" s="10"/>
       <c r="F822" s="10"/>
@@ -7740,7 +7701,7 @@
       <c r="I822" s="10"/>
       <c r="K822" s="10"/>
     </row>
-    <row r="823" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:11" ht="15.75" customHeight="1">
       <c r="A823" s="10"/>
       <c r="E823" s="10"/>
       <c r="F823" s="10"/>
@@ -7748,7 +7709,7 @@
       <c r="I823" s="10"/>
       <c r="K823" s="10"/>
     </row>
-    <row r="824" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:11" ht="15.75" customHeight="1">
       <c r="A824" s="10"/>
       <c r="E824" s="10"/>
       <c r="F824" s="10"/>
@@ -7756,7 +7717,7 @@
       <c r="I824" s="10"/>
       <c r="K824" s="10"/>
     </row>
-    <row r="825" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:11" ht="15.75" customHeight="1">
       <c r="A825" s="10"/>
       <c r="E825" s="10"/>
       <c r="F825" s="10"/>
@@ -7764,7 +7725,7 @@
       <c r="I825" s="10"/>
       <c r="K825" s="10"/>
     </row>
-    <row r="826" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:11" ht="15.75" customHeight="1">
       <c r="A826" s="10"/>
       <c r="E826" s="10"/>
       <c r="F826" s="10"/>
@@ -7772,7 +7733,7 @@
       <c r="I826" s="10"/>
       <c r="K826" s="10"/>
     </row>
-    <row r="827" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:11" ht="15.75" customHeight="1">
       <c r="A827" s="10"/>
       <c r="E827" s="10"/>
       <c r="F827" s="10"/>
@@ -7780,7 +7741,7 @@
       <c r="I827" s="10"/>
       <c r="K827" s="10"/>
     </row>
-    <row r="828" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:11" ht="15.75" customHeight="1">
       <c r="A828" s="10"/>
       <c r="E828" s="10"/>
       <c r="F828" s="10"/>
@@ -7788,7 +7749,7 @@
       <c r="I828" s="10"/>
       <c r="K828" s="10"/>
     </row>
-    <row r="829" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:11" ht="15.75" customHeight="1">
       <c r="A829" s="10"/>
       <c r="E829" s="10"/>
       <c r="F829" s="10"/>
@@ -7796,7 +7757,7 @@
       <c r="I829" s="10"/>
       <c r="K829" s="10"/>
     </row>
-    <row r="830" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:11" ht="15.75" customHeight="1">
       <c r="A830" s="10"/>
       <c r="E830" s="10"/>
       <c r="F830" s="10"/>
@@ -7804,7 +7765,7 @@
       <c r="I830" s="10"/>
       <c r="K830" s="10"/>
     </row>
-    <row r="831" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:11" ht="15.75" customHeight="1">
       <c r="A831" s="10"/>
       <c r="E831" s="10"/>
       <c r="F831" s="10"/>
@@ -7812,7 +7773,7 @@
       <c r="I831" s="10"/>
       <c r="K831" s="10"/>
     </row>
-    <row r="832" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:11" ht="15.75" customHeight="1">
       <c r="A832" s="10"/>
       <c r="E832" s="10"/>
       <c r="F832" s="10"/>
@@ -7820,7 +7781,7 @@
       <c r="I832" s="10"/>
       <c r="K832" s="10"/>
     </row>
-    <row r="833" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:11" ht="15.75" customHeight="1">
       <c r="A833" s="10"/>
       <c r="E833" s="10"/>
       <c r="F833" s="10"/>
@@ -7828,7 +7789,7 @@
       <c r="I833" s="10"/>
       <c r="K833" s="10"/>
     </row>
-    <row r="834" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:11" ht="15.75" customHeight="1">
       <c r="A834" s="10"/>
       <c r="E834" s="10"/>
       <c r="F834" s="10"/>
@@ -7836,7 +7797,7 @@
       <c r="I834" s="10"/>
       <c r="K834" s="10"/>
     </row>
-    <row r="835" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:11" ht="15.75" customHeight="1">
       <c r="A835" s="10"/>
       <c r="E835" s="10"/>
       <c r="F835" s="10"/>
@@ -7844,7 +7805,7 @@
       <c r="I835" s="10"/>
       <c r="K835" s="10"/>
     </row>
-    <row r="836" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:11" ht="15.75" customHeight="1">
       <c r="A836" s="10"/>
       <c r="E836" s="10"/>
       <c r="F836" s="10"/>
@@ -7852,7 +7813,7 @@
       <c r="I836" s="10"/>
       <c r="K836" s="10"/>
     </row>
-    <row r="837" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:11" ht="15.75" customHeight="1">
       <c r="A837" s="10"/>
       <c r="E837" s="10"/>
       <c r="F837" s="10"/>
@@ -7860,7 +7821,7 @@
       <c r="I837" s="10"/>
       <c r="K837" s="10"/>
     </row>
-    <row r="838" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:11" ht="15.75" customHeight="1">
       <c r="A838" s="10"/>
       <c r="E838" s="10"/>
       <c r="F838" s="10"/>
@@ -7868,7 +7829,7 @@
       <c r="I838" s="10"/>
       <c r="K838" s="10"/>
     </row>
-    <row r="839" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:11" ht="15.75" customHeight="1">
       <c r="A839" s="10"/>
       <c r="E839" s="10"/>
       <c r="F839" s="10"/>
@@ -7876,7 +7837,7 @@
       <c r="I839" s="10"/>
       <c r="K839" s="10"/>
     </row>
-    <row r="840" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:11" ht="15.75" customHeight="1">
       <c r="A840" s="10"/>
       <c r="E840" s="10"/>
       <c r="F840" s="10"/>
@@ -7884,7 +7845,7 @@
       <c r="I840" s="10"/>
       <c r="K840" s="10"/>
     </row>
-    <row r="841" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:11" ht="15.75" customHeight="1">
       <c r="A841" s="10"/>
       <c r="E841" s="10"/>
       <c r="F841" s="10"/>
@@ -7892,7 +7853,7 @@
       <c r="I841" s="10"/>
       <c r="K841" s="10"/>
     </row>
-    <row r="842" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:11" ht="15.75" customHeight="1">
       <c r="A842" s="10"/>
       <c r="E842" s="10"/>
       <c r="F842" s="10"/>
@@ -7900,7 +7861,7 @@
       <c r="I842" s="10"/>
       <c r="K842" s="10"/>
     </row>
-    <row r="843" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:11" ht="15.75" customHeight="1">
       <c r="A843" s="10"/>
       <c r="E843" s="10"/>
       <c r="F843" s="10"/>
@@ -7908,7 +7869,7 @@
       <c r="I843" s="10"/>
       <c r="K843" s="10"/>
     </row>
-    <row r="844" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:11" ht="15.75" customHeight="1">
       <c r="A844" s="10"/>
       <c r="E844" s="10"/>
       <c r="F844" s="10"/>
@@ -7916,7 +7877,7 @@
       <c r="I844" s="10"/>
       <c r="K844" s="10"/>
     </row>
-    <row r="845" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:11" ht="15.75" customHeight="1">
       <c r="A845" s="10"/>
       <c r="E845" s="10"/>
       <c r="F845" s="10"/>
@@ -7924,7 +7885,7 @@
       <c r="I845" s="10"/>
       <c r="K845" s="10"/>
     </row>
-    <row r="846" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:11" ht="15.75" customHeight="1">
       <c r="A846" s="10"/>
       <c r="E846" s="10"/>
       <c r="F846" s="10"/>
@@ -7932,7 +7893,7 @@
       <c r="I846" s="10"/>
       <c r="K846" s="10"/>
     </row>
-    <row r="847" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:11" ht="15.75" customHeight="1">
       <c r="A847" s="10"/>
       <c r="E847" s="10"/>
       <c r="F847" s="10"/>
@@ -7940,7 +7901,7 @@
       <c r="I847" s="10"/>
       <c r="K847" s="10"/>
     </row>
-    <row r="848" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:11" ht="15.75" customHeight="1">
       <c r="A848" s="10"/>
       <c r="E848" s="10"/>
       <c r="F848" s="10"/>
@@ -7948,7 +7909,7 @@
       <c r="I848" s="10"/>
       <c r="K848" s="10"/>
     </row>
-    <row r="849" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:11" ht="15.75" customHeight="1">
       <c r="A849" s="10"/>
       <c r="E849" s="10"/>
       <c r="F849" s="10"/>
@@ -7956,7 +7917,7 @@
       <c r="I849" s="10"/>
       <c r="K849" s="10"/>
     </row>
-    <row r="850" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:11" ht="15.75" customHeight="1">
       <c r="A850" s="10"/>
       <c r="E850" s="10"/>
       <c r="F850" s="10"/>
@@ -7964,7 +7925,7 @@
       <c r="I850" s="10"/>
       <c r="K850" s="10"/>
     </row>
-    <row r="851" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:11" ht="15.75" customHeight="1">
       <c r="A851" s="10"/>
       <c r="E851" s="10"/>
       <c r="F851" s="10"/>
@@ -7972,7 +7933,7 @@
       <c r="I851" s="10"/>
       <c r="K851" s="10"/>
     </row>
-    <row r="852" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:11" ht="15.75" customHeight="1">
       <c r="A852" s="10"/>
       <c r="E852" s="10"/>
       <c r="F852" s="10"/>
@@ -7980,7 +7941,7 @@
       <c r="I852" s="10"/>
       <c r="K852" s="10"/>
     </row>
-    <row r="853" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:11" ht="15.75" customHeight="1">
       <c r="A853" s="10"/>
       <c r="E853" s="10"/>
       <c r="F853" s="10"/>
@@ -7988,7 +7949,7 @@
       <c r="I853" s="10"/>
       <c r="K853" s="10"/>
     </row>
-    <row r="854" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:11" ht="15.75" customHeight="1">
       <c r="A854" s="10"/>
       <c r="E854" s="10"/>
       <c r="F854" s="10"/>
@@ -7996,7 +7957,7 @@
       <c r="I854" s="10"/>
       <c r="K854" s="10"/>
     </row>
-    <row r="855" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:11" ht="15.75" customHeight="1">
       <c r="A855" s="10"/>
       <c r="E855" s="10"/>
       <c r="F855" s="10"/>
@@ -8004,7 +7965,7 @@
       <c r="I855" s="10"/>
       <c r="K855" s="10"/>
     </row>
-    <row r="856" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:11" ht="15.75" customHeight="1">
       <c r="A856" s="10"/>
       <c r="E856" s="10"/>
       <c r="F856" s="10"/>
@@ -8012,7 +7973,7 @@
       <c r="I856" s="10"/>
       <c r="K856" s="10"/>
     </row>
-    <row r="857" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:11" ht="15.75" customHeight="1">
       <c r="A857" s="10"/>
       <c r="E857" s="10"/>
       <c r="F857" s="10"/>
@@ -8020,7 +7981,7 @@
       <c r="I857" s="10"/>
       <c r="K857" s="10"/>
     </row>
-    <row r="858" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:11" ht="15.75" customHeight="1">
       <c r="A858" s="10"/>
       <c r="E858" s="10"/>
       <c r="F858" s="10"/>
@@ -8028,7 +7989,7 @@
       <c r="I858" s="10"/>
       <c r="K858" s="10"/>
     </row>
-    <row r="859" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:11" ht="15.75" customHeight="1">
       <c r="A859" s="10"/>
       <c r="E859" s="10"/>
       <c r="F859" s="10"/>
@@ -8036,7 +7997,7 @@
       <c r="I859" s="10"/>
       <c r="K859" s="10"/>
     </row>
-    <row r="860" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:11" ht="15.75" customHeight="1">
       <c r="A860" s="10"/>
       <c r="E860" s="10"/>
       <c r="F860" s="10"/>
@@ -8044,7 +8005,7 @@
       <c r="I860" s="10"/>
       <c r="K860" s="10"/>
     </row>
-    <row r="861" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:11" ht="15.75" customHeight="1">
       <c r="A861" s="10"/>
       <c r="E861" s="10"/>
       <c r="F861" s="10"/>
@@ -8052,7 +8013,7 @@
       <c r="I861" s="10"/>
       <c r="K861" s="10"/>
     </row>
-    <row r="862" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:11" ht="15.75" customHeight="1">
       <c r="A862" s="10"/>
       <c r="E862" s="10"/>
       <c r="F862" s="10"/>
@@ -8060,7 +8021,7 @@
       <c r="I862" s="10"/>
       <c r="K862" s="10"/>
     </row>
-    <row r="863" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:11" ht="15.75" customHeight="1">
       <c r="A863" s="10"/>
       <c r="E863" s="10"/>
       <c r="F863" s="10"/>
@@ -8068,7 +8029,7 @@
       <c r="I863" s="10"/>
       <c r="K863" s="10"/>
     </row>
-    <row r="864" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:11" ht="15.75" customHeight="1">
       <c r="A864" s="10"/>
       <c r="E864" s="10"/>
       <c r="F864" s="10"/>
@@ -8076,7 +8037,7 @@
       <c r="I864" s="10"/>
       <c r="K864" s="10"/>
     </row>
-    <row r="865" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:11" ht="15.75" customHeight="1">
       <c r="A865" s="10"/>
       <c r="E865" s="10"/>
       <c r="F865" s="10"/>
@@ -8084,7 +8045,7 @@
       <c r="I865" s="10"/>
       <c r="K865" s="10"/>
     </row>
-    <row r="866" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:11" ht="15.75" customHeight="1">
       <c r="A866" s="10"/>
       <c r="E866" s="10"/>
       <c r="F866" s="10"/>
@@ -8092,7 +8053,7 @@
       <c r="I866" s="10"/>
       <c r="K866" s="10"/>
     </row>
-    <row r="867" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:11" ht="15.75" customHeight="1">
       <c r="A867" s="10"/>
       <c r="E867" s="10"/>
       <c r="F867" s="10"/>
@@ -8100,7 +8061,7 @@
       <c r="I867" s="10"/>
       <c r="K867" s="10"/>
     </row>
-    <row r="868" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:11" ht="15.75" customHeight="1">
       <c r="A868" s="10"/>
       <c r="E868" s="10"/>
       <c r="F868" s="10"/>
@@ -8108,7 +8069,7 @@
       <c r="I868" s="10"/>
       <c r="K868" s="10"/>
     </row>
-    <row r="869" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:11" ht="15.75" customHeight="1">
       <c r="A869" s="10"/>
       <c r="E869" s="10"/>
       <c r="F869" s="10"/>
@@ -8116,7 +8077,7 @@
       <c r="I869" s="10"/>
       <c r="K869" s="10"/>
     </row>
-    <row r="870" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:11" ht="15.75" customHeight="1">
       <c r="A870" s="10"/>
       <c r="E870" s="10"/>
       <c r="F870" s="10"/>
@@ -8124,7 +8085,7 @@
       <c r="I870" s="10"/>
       <c r="K870" s="10"/>
     </row>
-    <row r="871" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:11" ht="15.75" customHeight="1">
       <c r="A871" s="10"/>
       <c r="E871" s="10"/>
       <c r="F871" s="10"/>
@@ -8132,7 +8093,7 @@
       <c r="I871" s="10"/>
       <c r="K871" s="10"/>
     </row>
-    <row r="872" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:11" ht="15.75" customHeight="1">
       <c r="A872" s="10"/>
       <c r="E872" s="10"/>
       <c r="F872" s="10"/>
@@ -8140,7 +8101,7 @@
       <c r="I872" s="10"/>
       <c r="K872" s="10"/>
     </row>
-    <row r="873" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:11" ht="15.75" customHeight="1">
       <c r="A873" s="10"/>
       <c r="E873" s="10"/>
       <c r="F873" s="10"/>
@@ -8148,7 +8109,7 @@
       <c r="I873" s="10"/>
       <c r="K873" s="10"/>
     </row>
-    <row r="874" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:11" ht="15.75" customHeight="1">
       <c r="A874" s="10"/>
       <c r="E874" s="10"/>
       <c r="F874" s="10"/>
@@ -8156,7 +8117,7 @@
       <c r="I874" s="10"/>
       <c r="K874" s="10"/>
     </row>
-    <row r="875" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:11" ht="15.75" customHeight="1">
       <c r="A875" s="10"/>
       <c r="E875" s="10"/>
       <c r="F875" s="10"/>
@@ -8164,7 +8125,7 @@
       <c r="I875" s="10"/>
       <c r="K875" s="10"/>
     </row>
-    <row r="876" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:11" ht="15.75" customHeight="1">
       <c r="A876" s="10"/>
       <c r="E876" s="10"/>
       <c r="F876" s="10"/>
@@ -8172,7 +8133,7 @@
       <c r="I876" s="10"/>
       <c r="K876" s="10"/>
     </row>
-    <row r="877" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:11" ht="15.75" customHeight="1">
       <c r="A877" s="10"/>
       <c r="E877" s="10"/>
       <c r="F877" s="10"/>
@@ -8180,7 +8141,7 @@
       <c r="I877" s="10"/>
       <c r="K877" s="10"/>
     </row>
-    <row r="878" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:11" ht="15.75" customHeight="1">
       <c r="A878" s="10"/>
       <c r="E878" s="10"/>
       <c r="F878" s="10"/>
@@ -8188,7 +8149,7 @@
       <c r="I878" s="10"/>
       <c r="K878" s="10"/>
     </row>
-    <row r="879" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:11" ht="15.75" customHeight="1">
       <c r="A879" s="10"/>
       <c r="E879" s="10"/>
       <c r="F879" s="10"/>
@@ -8196,7 +8157,7 @@
       <c r="I879" s="10"/>
       <c r="K879" s="10"/>
     </row>
-    <row r="880" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:11" ht="15.75" customHeight="1">
       <c r="A880" s="10"/>
       <c r="E880" s="10"/>
       <c r="F880" s="10"/>
@@ -8204,7 +8165,7 @@
       <c r="I880" s="10"/>
       <c r="K880" s="10"/>
     </row>
-    <row r="881" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:11" ht="15.75" customHeight="1">
       <c r="A881" s="10"/>
       <c r="E881" s="10"/>
       <c r="F881" s="10"/>
@@ -8212,7 +8173,7 @@
       <c r="I881" s="10"/>
       <c r="K881" s="10"/>
     </row>
-    <row r="882" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:11" ht="15.75" customHeight="1">
       <c r="A882" s="10"/>
       <c r="E882" s="10"/>
       <c r="F882" s="10"/>
@@ -8220,7 +8181,7 @@
       <c r="I882" s="10"/>
       <c r="K882" s="10"/>
     </row>
-    <row r="883" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:11" ht="15.75" customHeight="1">
       <c r="A883" s="10"/>
       <c r="E883" s="10"/>
       <c r="F883" s="10"/>
@@ -8228,7 +8189,7 @@
       <c r="I883" s="10"/>
       <c r="K883" s="10"/>
     </row>
-    <row r="884" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:11" ht="15.75" customHeight="1">
       <c r="A884" s="10"/>
       <c r="E884" s="10"/>
       <c r="F884" s="10"/>
@@ -8236,7 +8197,7 @@
       <c r="I884" s="10"/>
       <c r="K884" s="10"/>
     </row>
-    <row r="885" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:11" ht="15.75" customHeight="1">
       <c r="A885" s="10"/>
       <c r="E885" s="10"/>
       <c r="F885" s="10"/>
@@ -8244,7 +8205,7 @@
       <c r="I885" s="10"/>
       <c r="K885" s="10"/>
     </row>
-    <row r="886" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:11" ht="15.75" customHeight="1">
       <c r="A886" s="10"/>
       <c r="E886" s="10"/>
       <c r="F886" s="10"/>
@@ -8252,7 +8213,7 @@
       <c r="I886" s="10"/>
       <c r="K886" s="10"/>
     </row>
-    <row r="887" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:11" ht="15.75" customHeight="1">
       <c r="A887" s="10"/>
       <c r="E887" s="10"/>
       <c r="F887" s="10"/>
@@ -8260,7 +8221,7 @@
       <c r="I887" s="10"/>
       <c r="K887" s="10"/>
     </row>
-    <row r="888" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:11" ht="15.75" customHeight="1">
       <c r="A888" s="10"/>
       <c r="E888" s="10"/>
       <c r="F888" s="10"/>
@@ -8268,7 +8229,7 @@
       <c r="I888" s="10"/>
       <c r="K888" s="10"/>
     </row>
-    <row r="889" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:11" ht="15.75" customHeight="1">
       <c r="A889" s="10"/>
       <c r="E889" s="10"/>
       <c r="F889" s="10"/>
@@ -8276,7 +8237,7 @@
       <c r="I889" s="10"/>
       <c r="K889" s="10"/>
     </row>
-    <row r="890" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:11" ht="15.75" customHeight="1">
       <c r="A890" s="10"/>
       <c r="E890" s="10"/>
       <c r="F890" s="10"/>
@@ -8284,7 +8245,7 @@
       <c r="I890" s="10"/>
       <c r="K890" s="10"/>
     </row>
-    <row r="891" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:11" ht="15.75" customHeight="1">
       <c r="A891" s="10"/>
       <c r="E891" s="10"/>
       <c r="F891" s="10"/>
@@ -8292,7 +8253,7 @@
       <c r="I891" s="10"/>
       <c r="K891" s="10"/>
     </row>
-    <row r="892" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:11" ht="15.75" customHeight="1">
       <c r="A892" s="10"/>
       <c r="E892" s="10"/>
       <c r="F892" s="10"/>
@@ -8300,7 +8261,7 @@
       <c r="I892" s="10"/>
       <c r="K892" s="10"/>
     </row>
-    <row r="893" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:11" ht="15.75" customHeight="1">
       <c r="A893" s="10"/>
       <c r="E893" s="10"/>
       <c r="F893" s="10"/>
@@ -8308,7 +8269,7 @@
       <c r="I893" s="10"/>
       <c r="K893" s="10"/>
     </row>
-    <row r="894" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:11" ht="15.75" customHeight="1">
       <c r="A894" s="10"/>
       <c r="E894" s="10"/>
       <c r="F894" s="10"/>
@@ -8316,7 +8277,7 @@
       <c r="I894" s="10"/>
       <c r="K894" s="10"/>
     </row>
-    <row r="895" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:11" ht="15.75" customHeight="1">
       <c r="A895" s="10"/>
       <c r="E895" s="10"/>
       <c r="F895" s="10"/>
@@ -8324,7 +8285,7 @@
       <c r="I895" s="10"/>
       <c r="K895" s="10"/>
     </row>
-    <row r="896" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:11" ht="15.75" customHeight="1">
       <c r="A896" s="10"/>
       <c r="E896" s="10"/>
       <c r="F896" s="10"/>
@@ -8332,7 +8293,7 @@
       <c r="I896" s="10"/>
       <c r="K896" s="10"/>
     </row>
-    <row r="897" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:11" ht="15.75" customHeight="1">
       <c r="A897" s="10"/>
       <c r="E897" s="10"/>
       <c r="F897" s="10"/>
@@ -8340,7 +8301,7 @@
       <c r="I897" s="10"/>
       <c r="K897" s="10"/>
     </row>
-    <row r="898" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:11" ht="15.75" customHeight="1">
       <c r="A898" s="10"/>
       <c r="E898" s="10"/>
       <c r="F898" s="10"/>
@@ -8348,7 +8309,7 @@
       <c r="I898" s="10"/>
       <c r="K898" s="10"/>
     </row>
-    <row r="899" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:11" ht="15.75" customHeight="1">
       <c r="A899" s="10"/>
       <c r="E899" s="10"/>
       <c r="F899" s="10"/>
@@ -8356,7 +8317,7 @@
       <c r="I899" s="10"/>
       <c r="K899" s="10"/>
     </row>
-    <row r="900" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:11" ht="15.75" customHeight="1">
       <c r="A900" s="10"/>
       <c r="E900" s="10"/>
       <c r="F900" s="10"/>
@@ -8364,7 +8325,7 @@
       <c r="I900" s="10"/>
       <c r="K900" s="10"/>
     </row>
-    <row r="901" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:11" ht="15.75" customHeight="1">
       <c r="A901" s="10"/>
       <c r="E901" s="10"/>
       <c r="F901" s="10"/>
@@ -8372,7 +8333,7 @@
       <c r="I901" s="10"/>
       <c r="K901" s="10"/>
     </row>
-    <row r="902" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:11" ht="15.75" customHeight="1">
       <c r="A902" s="10"/>
       <c r="E902" s="10"/>
       <c r="F902" s="10"/>
@@ -8380,7 +8341,7 @@
       <c r="I902" s="10"/>
       <c r="K902" s="10"/>
     </row>
-    <row r="903" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:11" ht="15.75" customHeight="1">
       <c r="A903" s="10"/>
       <c r="E903" s="10"/>
       <c r="F903" s="10"/>
@@ -8388,7 +8349,7 @@
       <c r="I903" s="10"/>
       <c r="K903" s="10"/>
     </row>
-    <row r="904" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:11" ht="15.75" customHeight="1">
       <c r="A904" s="10"/>
       <c r="E904" s="10"/>
       <c r="F904" s="10"/>
@@ -8396,7 +8357,7 @@
       <c r="I904" s="10"/>
       <c r="K904" s="10"/>
     </row>
-    <row r="905" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:11" ht="15.75" customHeight="1">
       <c r="A905" s="10"/>
       <c r="E905" s="10"/>
       <c r="F905" s="10"/>
@@ -8404,7 +8365,7 @@
       <c r="I905" s="10"/>
       <c r="K905" s="10"/>
     </row>
-    <row r="906" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:11" ht="15.75" customHeight="1">
       <c r="A906" s="10"/>
       <c r="E906" s="10"/>
       <c r="F906" s="10"/>
@@ -8412,7 +8373,7 @@
       <c r="I906" s="10"/>
       <c r="K906" s="10"/>
     </row>
-    <row r="907" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:11" ht="15.75" customHeight="1">
       <c r="A907" s="10"/>
       <c r="E907" s="10"/>
       <c r="F907" s="10"/>
@@ -8420,7 +8381,7 @@
       <c r="I907" s="10"/>
       <c r="K907" s="10"/>
     </row>
-    <row r="908" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:11" ht="15.75" customHeight="1">
       <c r="A908" s="10"/>
       <c r="E908" s="10"/>
       <c r="F908" s="10"/>
@@ -8428,7 +8389,7 @@
       <c r="I908" s="10"/>
       <c r="K908" s="10"/>
     </row>
-    <row r="909" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:11" ht="15.75" customHeight="1">
       <c r="A909" s="10"/>
       <c r="E909" s="10"/>
       <c r="F909" s="10"/>
@@ -8436,7 +8397,7 @@
       <c r="I909" s="10"/>
       <c r="K909" s="10"/>
     </row>
-    <row r="910" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:11" ht="15.75" customHeight="1">
       <c r="A910" s="10"/>
       <c r="E910" s="10"/>
       <c r="F910" s="10"/>
@@ -8444,7 +8405,7 @@
       <c r="I910" s="10"/>
       <c r="K910" s="10"/>
     </row>
-    <row r="911" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:11" ht="15.75" customHeight="1">
       <c r="A911" s="10"/>
       <c r="E911" s="10"/>
       <c r="F911" s="10"/>
@@ -8452,7 +8413,7 @@
       <c r="I911" s="10"/>
       <c r="K911" s="10"/>
     </row>
-    <row r="912" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:11" ht="15.75" customHeight="1">
       <c r="A912" s="10"/>
       <c r="E912" s="10"/>
       <c r="F912" s="10"/>
@@ -8460,7 +8421,7 @@
       <c r="I912" s="10"/>
       <c r="K912" s="10"/>
     </row>
-    <row r="913" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:11" ht="15.75" customHeight="1">
       <c r="A913" s="10"/>
       <c r="E913" s="10"/>
       <c r="F913" s="10"/>
@@ -8468,7 +8429,7 @@
       <c r="I913" s="10"/>
       <c r="K913" s="10"/>
     </row>
-    <row r="914" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:11" ht="15.75" customHeight="1">
       <c r="A914" s="10"/>
       <c r="E914" s="10"/>
       <c r="F914" s="10"/>
@@ -8476,7 +8437,7 @@
       <c r="I914" s="10"/>
       <c r="K914" s="10"/>
     </row>
-    <row r="915" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:11" ht="15.75" customHeight="1">
       <c r="A915" s="10"/>
       <c r="E915" s="10"/>
       <c r="F915" s="10"/>
@@ -8484,7 +8445,7 @@
       <c r="I915" s="10"/>
       <c r="K915" s="10"/>
     </row>
-    <row r="916" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:11" ht="15.75" customHeight="1">
       <c r="A916" s="10"/>
       <c r="E916" s="10"/>
       <c r="F916" s="10"/>
@@ -8492,7 +8453,7 @@
       <c r="I916" s="10"/>
       <c r="K916" s="10"/>
     </row>
-    <row r="917" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:11" ht="15.75" customHeight="1">
       <c r="A917" s="10"/>
       <c r="E917" s="10"/>
       <c r="F917" s="10"/>
@@ -8500,7 +8461,7 @@
       <c r="I917" s="10"/>
       <c r="K917" s="10"/>
     </row>
-    <row r="918" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:11" ht="15.75" customHeight="1">
       <c r="A918" s="10"/>
       <c r="E918" s="10"/>
       <c r="F918" s="10"/>
@@ -8508,7 +8469,7 @@
       <c r="I918" s="10"/>
       <c r="K918" s="10"/>
     </row>
-    <row r="919" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:11" ht="15.75" customHeight="1">
       <c r="A919" s="10"/>
       <c r="E919" s="10"/>
       <c r="F919" s="10"/>
@@ -8516,7 +8477,7 @@
       <c r="I919" s="10"/>
       <c r="K919" s="10"/>
     </row>
-    <row r="920" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:11" ht="15.75" customHeight="1">
       <c r="A920" s="10"/>
       <c r="E920" s="10"/>
       <c r="F920" s="10"/>
@@ -8524,7 +8485,7 @@
       <c r="I920" s="10"/>
       <c r="K920" s="10"/>
     </row>
-    <row r="921" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:11" ht="15.75" customHeight="1">
       <c r="A921" s="10"/>
       <c r="E921" s="10"/>
       <c r="F921" s="10"/>
@@ -8532,7 +8493,7 @@
       <c r="I921" s="10"/>
       <c r="K921" s="10"/>
     </row>
-    <row r="922" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:11" ht="15.75" customHeight="1">
       <c r="A922" s="10"/>
       <c r="E922" s="10"/>
       <c r="F922" s="10"/>
@@ -8540,7 +8501,7 @@
       <c r="I922" s="10"/>
       <c r="K922" s="10"/>
     </row>
-    <row r="923" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:11" ht="15.75" customHeight="1">
       <c r="A923" s="10"/>
       <c r="E923" s="10"/>
       <c r="F923" s="10"/>
@@ -8548,7 +8509,7 @@
       <c r="I923" s="10"/>
       <c r="K923" s="10"/>
     </row>
-    <row r="924" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:11" ht="15.75" customHeight="1">
       <c r="A924" s="10"/>
       <c r="E924" s="10"/>
       <c r="F924" s="10"/>
@@ -8556,7 +8517,7 @@
       <c r="I924" s="10"/>
       <c r="K924" s="10"/>
     </row>
-    <row r="925" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:11" ht="15.75" customHeight="1">
       <c r="A925" s="10"/>
       <c r="E925" s="10"/>
       <c r="F925" s="10"/>
@@ -8564,7 +8525,7 @@
       <c r="I925" s="10"/>
       <c r="K925" s="10"/>
     </row>
-    <row r="926" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:11" ht="15.75" customHeight="1">
       <c r="A926" s="10"/>
       <c r="E926" s="10"/>
       <c r="F926" s="10"/>
@@ -8572,7 +8533,7 @@
       <c r="I926" s="10"/>
       <c r="K926" s="10"/>
     </row>
-    <row r="927" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:11" ht="15.75" customHeight="1">
       <c r="A927" s="10"/>
       <c r="E927" s="10"/>
       <c r="F927" s="10"/>
@@ -8580,7 +8541,7 @@
       <c r="I927" s="10"/>
       <c r="K927" s="10"/>
     </row>
-    <row r="928" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:11" ht="15.75" customHeight="1">
       <c r="A928" s="10"/>
       <c r="E928" s="10"/>
       <c r="F928" s="10"/>
@@ -8588,7 +8549,7 @@
       <c r="I928" s="10"/>
       <c r="K928" s="10"/>
     </row>
-    <row r="929" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:11" ht="15.75" customHeight="1">
       <c r="A929" s="10"/>
       <c r="E929" s="10"/>
       <c r="F929" s="10"/>
@@ -8596,7 +8557,7 @@
       <c r="I929" s="10"/>
       <c r="K929" s="10"/>
     </row>
-    <row r="930" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:11" ht="15.75" customHeight="1">
       <c r="A930" s="10"/>
       <c r="E930" s="10"/>
       <c r="F930" s="10"/>
@@ -8604,7 +8565,7 @@
       <c r="I930" s="10"/>
       <c r="K930" s="10"/>
     </row>
-    <row r="931" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:11" ht="15.75" customHeight="1">
       <c r="A931" s="10"/>
       <c r="E931" s="10"/>
       <c r="F931" s="10"/>
@@ -8612,7 +8573,7 @@
       <c r="I931" s="10"/>
       <c r="K931" s="10"/>
     </row>
-    <row r="932" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:11" ht="15.75" customHeight="1">
       <c r="A932" s="10"/>
       <c r="E932" s="10"/>
       <c r="F932" s="10"/>
@@ -8620,7 +8581,7 @@
       <c r="I932" s="10"/>
       <c r="K932" s="10"/>
     </row>
-    <row r="933" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:11" ht="15.75" customHeight="1">
       <c r="A933" s="10"/>
       <c r="E933" s="10"/>
       <c r="F933" s="10"/>
@@ -8628,7 +8589,7 @@
       <c r="I933" s="10"/>
       <c r="K933" s="10"/>
     </row>
-    <row r="934" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:11" ht="15.75" customHeight="1">
       <c r="A934" s="10"/>
       <c r="E934" s="10"/>
       <c r="F934" s="10"/>
@@ -8636,7 +8597,7 @@
       <c r="I934" s="10"/>
       <c r="K934" s="10"/>
     </row>
-    <row r="935" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:11" ht="15.75" customHeight="1">
       <c r="A935" s="10"/>
       <c r="E935" s="10"/>
       <c r="F935" s="10"/>
@@ -8644,7 +8605,7 @@
       <c r="I935" s="10"/>
       <c r="K935" s="10"/>
     </row>
-    <row r="936" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:11" ht="15.75" customHeight="1">
       <c r="A936" s="10"/>
       <c r="E936" s="10"/>
       <c r="F936" s="10"/>
@@ -8652,7 +8613,7 @@
       <c r="I936" s="10"/>
       <c r="K936" s="10"/>
     </row>
-    <row r="937" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:11" ht="15.75" customHeight="1">
       <c r="A937" s="10"/>
       <c r="E937" s="10"/>
       <c r="F937" s="10"/>
@@ -8660,7 +8621,7 @@
       <c r="I937" s="10"/>
       <c r="K937" s="10"/>
     </row>
-    <row r="938" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:11" ht="15.75" customHeight="1">
       <c r="A938" s="10"/>
       <c r="E938" s="10"/>
       <c r="F938" s="10"/>
@@ -8668,7 +8629,7 @@
       <c r="I938" s="10"/>
       <c r="K938" s="10"/>
     </row>
-    <row r="939" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:11" ht="15.75" customHeight="1">
       <c r="A939" s="10"/>
       <c r="E939" s="10"/>
       <c r="F939" s="10"/>
@@ -8676,7 +8637,7 @@
       <c r="I939" s="10"/>
       <c r="K939" s="10"/>
     </row>
-    <row r="940" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:11" ht="15.75" customHeight="1">
       <c r="A940" s="10"/>
       <c r="E940" s="10"/>
       <c r="F940" s="10"/>
@@ -8684,7 +8645,7 @@
       <c r="I940" s="10"/>
       <c r="K940" s="10"/>
     </row>
-    <row r="941" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:11" ht="15.75" customHeight="1">
       <c r="A941" s="10"/>
       <c r="E941" s="10"/>
       <c r="F941" s="10"/>
@@ -8692,7 +8653,7 @@
       <c r="I941" s="10"/>
       <c r="K941" s="10"/>
     </row>
-    <row r="942" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:11" ht="15.75" customHeight="1">
       <c r="A942" s="10"/>
       <c r="E942" s="10"/>
       <c r="F942" s="10"/>
@@ -8700,7 +8661,7 @@
       <c r="I942" s="10"/>
       <c r="K942" s="10"/>
     </row>
-    <row r="943" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:11" ht="15.75" customHeight="1">
       <c r="A943" s="10"/>
       <c r="E943" s="10"/>
       <c r="F943" s="10"/>
@@ -8708,7 +8669,7 @@
       <c r="I943" s="10"/>
       <c r="K943" s="10"/>
     </row>
-    <row r="944" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:11" ht="15.75" customHeight="1">
       <c r="A944" s="10"/>
       <c r="E944" s="10"/>
       <c r="F944" s="10"/>
@@ -8716,7 +8677,7 @@
       <c r="I944" s="10"/>
       <c r="K944" s="10"/>
     </row>
-    <row r="945" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:11" ht="15.75" customHeight="1">
       <c r="A945" s="10"/>
       <c r="E945" s="10"/>
       <c r="F945" s="10"/>
@@ -8724,7 +8685,7 @@
       <c r="I945" s="10"/>
       <c r="K945" s="10"/>
     </row>
-    <row r="946" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:11" ht="15.75" customHeight="1">
       <c r="A946" s="10"/>
       <c r="E946" s="10"/>
       <c r="F946" s="10"/>
@@ -8732,7 +8693,7 @@
       <c r="I946" s="10"/>
       <c r="K946" s="10"/>
     </row>
-    <row r="947" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:11" ht="15.75" customHeight="1">
       <c r="A947" s="10"/>
       <c r="E947" s="10"/>
       <c r="F947" s="10"/>
@@ -8740,7 +8701,7 @@
       <c r="I947" s="10"/>
       <c r="K947" s="10"/>
     </row>
-    <row r="948" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:11" ht="15.75" customHeight="1">
       <c r="A948" s="10"/>
       <c r="E948" s="10"/>
       <c r="F948" s="10"/>
@@ -8748,7 +8709,7 @@
       <c r="I948" s="10"/>
       <c r="K948" s="10"/>
     </row>
-    <row r="949" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:11" ht="15.75" customHeight="1">
       <c r="A949" s="10"/>
       <c r="E949" s="10"/>
       <c r="F949" s="10"/>
@@ -8756,7 +8717,7 @@
       <c r="I949" s="10"/>
       <c r="K949" s="10"/>
     </row>
-    <row r="950" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:11" ht="15.75" customHeight="1">
       <c r="A950" s="10"/>
       <c r="E950" s="10"/>
       <c r="F950" s="10"/>
@@ -8764,7 +8725,7 @@
       <c r="I950" s="10"/>
       <c r="K950" s="10"/>
     </row>
-    <row r="951" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:11" ht="15.75" customHeight="1">
       <c r="A951" s="10"/>
       <c r="E951" s="10"/>
       <c r="F951" s="10"/>
@@ -8772,7 +8733,7 @@
       <c r="I951" s="10"/>
       <c r="K951" s="10"/>
     </row>
-    <row r="952" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:11" ht="15.75" customHeight="1">
       <c r="A952" s="10"/>
       <c r="E952" s="10"/>
       <c r="F952" s="10"/>
@@ -8780,7 +8741,7 @@
       <c r="I952" s="10"/>
       <c r="K952" s="10"/>
     </row>
-    <row r="953" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:11" ht="15.75" customHeight="1">
       <c r="A953" s="10"/>
       <c r="E953" s="10"/>
       <c r="F953" s="10"/>
@@ -8788,7 +8749,7 @@
       <c r="I953" s="10"/>
       <c r="K953" s="10"/>
     </row>
-    <row r="954" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:11" ht="15.75" customHeight="1">
       <c r="A954" s="10"/>
       <c r="E954" s="10"/>
       <c r="F954" s="10"/>
@@ -8796,7 +8757,7 @@
       <c r="I954" s="10"/>
       <c r="K954" s="10"/>
     </row>
-    <row r="955" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:11" ht="15.75" customHeight="1">
       <c r="A955" s="10"/>
       <c r="E955" s="10"/>
       <c r="F955" s="10"/>
@@ -8804,7 +8765,7 @@
       <c r="I955" s="10"/>
       <c r="K955" s="10"/>
     </row>
-    <row r="956" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:11" ht="15.75" customHeight="1">
       <c r="A956" s="10"/>
       <c r="E956" s="10"/>
       <c r="F956" s="10"/>
@@ -8812,7 +8773,7 @@
       <c r="I956" s="10"/>
       <c r="K956" s="10"/>
     </row>
-    <row r="957" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:11" ht="15.75" customHeight="1">
       <c r="A957" s="10"/>
       <c r="E957" s="10"/>
       <c r="F957" s="10"/>
@@ -8820,7 +8781,7 @@
       <c r="I957" s="10"/>
       <c r="K957" s="10"/>
     </row>
-    <row r="958" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:11" ht="15.75" customHeight="1">
       <c r="A958" s="10"/>
       <c r="E958" s="10"/>
       <c r="F958" s="10"/>
@@ -8828,7 +8789,7 @@
       <c r="I958" s="10"/>
       <c r="K958" s="10"/>
     </row>
-    <row r="959" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:11" ht="15.75" customHeight="1">
       <c r="A959" s="10"/>
       <c r="E959" s="10"/>
       <c r="F959" s="10"/>
@@ -8836,7 +8797,7 @@
       <c r="I959" s="10"/>
       <c r="K959" s="10"/>
     </row>
-    <row r="960" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:11" ht="15.75" customHeight="1">
       <c r="A960" s="10"/>
       <c r="E960" s="10"/>
       <c r="F960" s="10"/>
@@ -8844,7 +8805,7 @@
       <c r="I960" s="10"/>
       <c r="K960" s="10"/>
     </row>
-    <row r="961" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:11" ht="15.75" customHeight="1">
       <c r="A961" s="10"/>
       <c r="E961" s="10"/>
       <c r="F961" s="10"/>
@@ -8852,7 +8813,7 @@
       <c r="I961" s="10"/>
       <c r="K961" s="10"/>
     </row>
-    <row r="962" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:11" ht="15.75" customHeight="1">
       <c r="A962" s="10"/>
       <c r="E962" s="10"/>
       <c r="F962" s="10"/>
@@ -8860,7 +8821,7 @@
       <c r="I962" s="10"/>
       <c r="K962" s="10"/>
     </row>
-    <row r="963" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:11" ht="15.75" customHeight="1">
       <c r="A963" s="10"/>
       <c r="E963" s="10"/>
       <c r="F963" s="10"/>
@@ -8868,7 +8829,7 @@
       <c r="I963" s="10"/>
       <c r="K963" s="10"/>
     </row>
-    <row r="964" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:11" ht="15.75" customHeight="1">
       <c r="A964" s="10"/>
       <c r="E964" s="10"/>
       <c r="F964" s="10"/>
@@ -8876,7 +8837,7 @@
       <c r="I964" s="10"/>
       <c r="K964" s="10"/>
     </row>
-    <row r="965" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:11" ht="15.75" customHeight="1">
       <c r="A965" s="10"/>
       <c r="E965" s="10"/>
       <c r="F965" s="10"/>
@@ -8884,7 +8845,7 @@
       <c r="I965" s="10"/>
       <c r="K965" s="10"/>
     </row>
-    <row r="966" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:11" ht="15.75" customHeight="1">
       <c r="A966" s="10"/>
       <c r="E966" s="10"/>
       <c r="F966" s="10"/>
@@ -8892,7 +8853,7 @@
       <c r="I966" s="10"/>
       <c r="K966" s="10"/>
     </row>
-    <row r="967" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:11" ht="15.75" customHeight="1">
       <c r="A967" s="10"/>
       <c r="E967" s="10"/>
       <c r="F967" s="10"/>
@@ -8900,7 +8861,7 @@
       <c r="I967" s="10"/>
       <c r="K967" s="10"/>
     </row>
-    <row r="968" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:11" ht="15.75" customHeight="1">
       <c r="A968" s="10"/>
       <c r="E968" s="10"/>
       <c r="F968" s="10"/>
@@ -8908,7 +8869,7 @@
       <c r="I968" s="10"/>
       <c r="K968" s="10"/>
     </row>
-    <row r="969" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:11" ht="15.75" customHeight="1">
       <c r="A969" s="10"/>
       <c r="E969" s="10"/>
       <c r="F969" s="10"/>
@@ -8916,7 +8877,7 @@
       <c r="I969" s="10"/>
       <c r="K969" s="10"/>
     </row>
-    <row r="970" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:11" ht="15.75" customHeight="1">
       <c r="A970" s="10"/>
       <c r="E970" s="10"/>
       <c r="F970" s="10"/>
@@ -8924,7 +8885,7 @@
       <c r="I970" s="10"/>
       <c r="K970" s="10"/>
     </row>
-    <row r="971" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:11" ht="15.75" customHeight="1">
       <c r="A971" s="10"/>
       <c r="E971" s="10"/>
       <c r="F971" s="10"/>
@@ -8932,7 +8893,7 @@
       <c r="I971" s="10"/>
       <c r="K971" s="10"/>
     </row>
-    <row r="972" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:11" ht="15.75" customHeight="1">
       <c r="A972" s="10"/>
       <c r="E972" s="10"/>
       <c r="F972" s="10"/>
@@ -8940,7 +8901,7 @@
       <c r="I972" s="10"/>
       <c r="K972" s="10"/>
     </row>
-    <row r="973" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:11" ht="15.75" customHeight="1">
       <c r="A973" s="10"/>
       <c r="E973" s="10"/>
       <c r="F973" s="10"/>
@@ -8948,7 +8909,7 @@
       <c r="I973" s="10"/>
       <c r="K973" s="10"/>
     </row>
-    <row r="974" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:11" ht="15.75" customHeight="1">
       <c r="A974" s="10"/>
       <c r="E974" s="10"/>
       <c r="F974" s="10"/>
@@ -8956,7 +8917,7 @@
       <c r="I974" s="10"/>
       <c r="K974" s="10"/>
     </row>
-    <row r="975" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:11" ht="15.75" customHeight="1">
       <c r="A975" s="10"/>
       <c r="E975" s="10"/>
       <c r="F975" s="10"/>
@@ -8964,7 +8925,7 @@
       <c r="I975" s="10"/>
       <c r="K975" s="10"/>
     </row>
-    <row r="976" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:11" ht="15.75" customHeight="1">
       <c r="A976" s="10"/>
       <c r="E976" s="10"/>
       <c r="F976" s="10"/>
@@ -8972,7 +8933,7 @@
       <c r="I976" s="10"/>
       <c r="K976" s="10"/>
     </row>
-    <row r="977" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:11" ht="15.75" customHeight="1">
       <c r="A977" s="10"/>
       <c r="E977" s="10"/>
       <c r="F977" s="10"/>
@@ -8980,7 +8941,7 @@
       <c r="I977" s="10"/>
       <c r="K977" s="10"/>
     </row>
-    <row r="978" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:11" ht="15.75" customHeight="1">
       <c r="A978" s="10"/>
       <c r="E978" s="10"/>
       <c r="F978" s="10"/>
@@ -8988,7 +8949,7 @@
       <c r="I978" s="10"/>
       <c r="K978" s="10"/>
     </row>
-    <row r="979" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:11" ht="15.75" customHeight="1">
       <c r="A979" s="10"/>
       <c r="E979" s="10"/>
       <c r="F979" s="10"/>
@@ -8996,7 +8957,7 @@
       <c r="I979" s="10"/>
       <c r="K979" s="10"/>
     </row>
-    <row r="980" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:11" ht="15.75" customHeight="1">
       <c r="A980" s="10"/>
       <c r="E980" s="10"/>
       <c r="F980" s="10"/>
@@ -9004,7 +8965,7 @@
       <c r="I980" s="10"/>
       <c r="K980" s="10"/>
     </row>
-    <row r="981" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:11" ht="15.75" customHeight="1">
       <c r="A981" s="10"/>
       <c r="E981" s="10"/>
       <c r="F981" s="10"/>
@@ -9012,7 +8973,7 @@
       <c r="I981" s="10"/>
       <c r="K981" s="10"/>
     </row>
-    <row r="982" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:11" ht="15.75" customHeight="1">
       <c r="A982" s="10"/>
       <c r="E982" s="10"/>
       <c r="F982" s="10"/>
@@ -9020,7 +8981,7 @@
       <c r="I982" s="10"/>
       <c r="K982" s="10"/>
     </row>
-    <row r="983" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:11" ht="15.75" customHeight="1">
       <c r="A983" s="10"/>
       <c r="E983" s="10"/>
       <c r="F983" s="10"/>
@@ -9028,7 +8989,7 @@
       <c r="I983" s="10"/>
       <c r="K983" s="10"/>
     </row>
-    <row r="984" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:11" ht="15.75" customHeight="1">
       <c r="A984" s="10"/>
       <c r="E984" s="10"/>
       <c r="F984" s="10"/>
@@ -9036,7 +8997,7 @@
       <c r="I984" s="10"/>
       <c r="K984" s="10"/>
     </row>
-    <row r="985" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:11" ht="15.75" customHeight="1">
       <c r="A985" s="10"/>
       <c r="E985" s="10"/>
       <c r="F985" s="10"/>
@@ -9044,7 +9005,7 @@
       <c r="I985" s="10"/>
       <c r="K985" s="10"/>
     </row>
-    <row r="986" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:11" ht="15.75" customHeight="1">
       <c r="A986" s="10"/>
       <c r="E986" s="10"/>
       <c r="F986" s="10"/>
@@ -9052,7 +9013,7 @@
       <c r="I986" s="10"/>
       <c r="K986" s="10"/>
     </row>
-    <row r="987" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:11" ht="15.75" customHeight="1">
       <c r="A987" s="10"/>
       <c r="E987" s="10"/>
       <c r="F987" s="10"/>
@@ -9060,7 +9021,7 @@
       <c r="I987" s="10"/>
       <c r="K987" s="10"/>
     </row>
-    <row r="988" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:11" ht="15.75" customHeight="1">
       <c r="A988" s="10"/>
       <c r="E988" s="10"/>
       <c r="F988" s="10"/>
@@ -9068,7 +9029,7 @@
       <c r="I988" s="10"/>
       <c r="K988" s="10"/>
     </row>
-    <row r="989" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:11" ht="15.75" customHeight="1">
       <c r="A989" s="10"/>
       <c r="E989" s="10"/>
       <c r="F989" s="10"/>
@@ -9076,7 +9037,7 @@
       <c r="I989" s="10"/>
       <c r="K989" s="10"/>
     </row>
-    <row r="990" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:11" ht="15.75" customHeight="1">
       <c r="A990" s="10"/>
       <c r="E990" s="10"/>
       <c r="F990" s="10"/>
@@ -9084,7 +9045,7 @@
       <c r="I990" s="10"/>
       <c r="K990" s="10"/>
     </row>
-    <row r="991" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:11" ht="15.75" customHeight="1">
       <c r="A991" s="10"/>
       <c r="E991" s="10"/>
       <c r="F991" s="10"/>
@@ -9092,7 +9053,7 @@
       <c r="I991" s="10"/>
       <c r="K991" s="10"/>
     </row>
-    <row r="992" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:11" ht="15.75" customHeight="1">
       <c r="A992" s="10"/>
       <c r="E992" s="10"/>
       <c r="F992" s="10"/>
@@ -9100,7 +9061,7 @@
       <c r="I992" s="10"/>
       <c r="K992" s="10"/>
     </row>
-    <row r="993" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:11" ht="15.75" customHeight="1">
       <c r="A993" s="10"/>
       <c r="E993" s="10"/>
       <c r="F993" s="10"/>
@@ -9108,7 +9069,7 @@
       <c r="I993" s="10"/>
       <c r="K993" s="10"/>
     </row>
-    <row r="994" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:11" ht="15.75" customHeight="1">
       <c r="A994" s="10"/>
       <c r="E994" s="10"/>
       <c r="F994" s="10"/>
@@ -9116,7 +9077,7 @@
       <c r="I994" s="10"/>
       <c r="K994" s="10"/>
     </row>
-    <row r="995" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:11" ht="15.75" customHeight="1">
       <c r="A995" s="10"/>
       <c r="E995" s="10"/>
       <c r="F995" s="10"/>
@@ -9124,7 +9085,7 @@
       <c r="I995" s="10"/>
       <c r="K995" s="10"/>
     </row>
-    <row r="996" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:11" ht="15.75" customHeight="1">
       <c r="A996" s="10"/>
       <c r="E996" s="10"/>
       <c r="F996" s="10"/>
@@ -9132,7 +9093,7 @@
       <c r="I996" s="10"/>
       <c r="K996" s="10"/>
     </row>
-    <row r="997" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:11" ht="15.75" customHeight="1">
       <c r="A997" s="10"/>
       <c r="E997" s="10"/>
       <c r="F997" s="10"/>
@@ -9140,7 +9101,7 @@
       <c r="I997" s="10"/>
       <c r="K997" s="10"/>
     </row>
-    <row r="998" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:11" ht="15.75" customHeight="1">
       <c r="A998" s="10"/>
       <c r="E998" s="10"/>
       <c r="F998" s="10"/>
@@ -9148,14 +9109,6 @@
       <c r="I998" s="10"/>
       <c r="K998" s="10"/>
     </row>
-    <row r="999" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A999" s="10"/>
-      <c r="E999" s="10"/>
-      <c r="F999" s="10"/>
-      <c r="G999" s="10"/>
-      <c r="I999" s="10"/>
-      <c r="K999" s="10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
